--- a/単体テスト.xlsx
+++ b/単体テスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14448CBD-AFFA-4B7E-911E-FCD6BF81F1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC09E765-5B2D-468B-87F3-4B1652526794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
   <si>
     <t>テストケースID</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>確認日付</t>
-  </si>
-  <si>
-    <t>備考</t>
   </si>
   <si>
     <t>環境</t>
@@ -179,6 +176,24 @@
   </si>
   <si>
     <t>未確認</t>
+  </si>
+  <si>
+    <t>名前（姓）: 山田, 名前（名）: 太郎, カナ（姓）: ヤマダ, カナ（名）: タロウ, メールアドレス: yamada@example.com, パスワード: password123, 性別: 男, 郵便番号: 1234567, 住所（都道府県）: 東京都, 住所（市区町村）: 新宿区, 住所（番地）: 1-2-3, アカウント権限: 一般</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>結果</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -553,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -570,10 +585,11 @@
     <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" customWidth="1"/>
+    <col min="11" max="11" width="24.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -599,230 +615,257 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" t="s">
-        <v>50</v>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" t="s">
-        <v>50</v>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J4" t="s">
-        <v>50</v>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J5" t="s">
-        <v>50</v>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" t="s">
-        <v>50</v>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>31</v>
       </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>40</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>48</v>
       </c>
-      <c r="G8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" t="s">
-        <v>49</v>
-      </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="I9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/単体テスト.xlsx
+++ b/単体テスト.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC09E765-5B2D-468B-87F3-4B1652526794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583F4FCF-1CFD-454C-AA52-3B476AC2AE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="アカウント登録画面_テストケース" sheetId="3" r:id="rId1"/>
+    <sheet name="登録確認画面_テストケース" sheetId="4" r:id="rId2"/>
+    <sheet name="登録完了画面_テストケース" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="87">
   <si>
     <t>テストケースID</t>
   </si>
@@ -79,24 +81,9 @@
     <t>必須フィールド未入力時のエラーメッセージ</t>
   </si>
   <si>
-    <t>確認画面に正しいデータが表示される</t>
-  </si>
-  <si>
     <t>「前に戻る」ボタンで入力情報が保持される</t>
   </si>
   <si>
-    <t>正常にアカウントが登録される</t>
-  </si>
-  <si>
-    <t>「TOPページへ戻る」ボタンでホームページに遷移する</t>
-  </si>
-  <si>
-    <t>正常にデータがDBに登録される</t>
-  </si>
-  <si>
-    <t>データベースエラー時のエラーハンドリング</t>
-  </si>
-  <si>
     <t>ユーザーがアカウント登録画面にアクセスしている</t>
   </si>
   <si>
@@ -106,19 +93,7 @@
     <t>ユーザーが確認画面にいる</t>
   </si>
   <si>
-    <t>ユーザーが確認画面で「登録する」ボタンをクリックする</t>
-  </si>
-  <si>
     <t>ユーザーが登録完了画面にいる</t>
-  </si>
-  <si>
-    <t>データベースが正しくセットアップされている</t>
-  </si>
-  <si>
-    <t>データベース接続がエラーになる設定にする</t>
-  </si>
-  <si>
-    <t>名前（姓）: 山田, 名前（名）: 太郎, カナ（姓）: ヤマダ, カナ（名）: タロウ, メールアドレス: yamada@example.com, パスワード: password123, 性別: 男, 郵便番号: 1234567, 住所（都道府県）: 東京都, 住所（市区町村）: 新宿区, 住所（番地）: 1-2-3, アカウント権限: 一般</t>
   </si>
   <si>
     <t>1. アカウント登録画面にアクセスする
@@ -131,26 +106,6 @@
 3. 「確認する」ボタンをクリックする</t>
   </si>
   <si>
-    <t>1. アカウント登録画面から確認画面に遷移する</t>
-  </si>
-  <si>
-    <t>1. 確認画面で「前に戻る」ボタンをクリックする</t>
-  </si>
-  <si>
-    <t>1. 確認画面で「登録する」ボタンをクリックする</t>
-  </si>
-  <si>
-    <t>1. 登録完了画面で「TOPページへ戻る」ボタンをクリックする</t>
-  </si>
-  <si>
-    <t>1. アカウント登録から完了までの流れを実行する
-2. DBを確認し、データが正しく登録されていることを確認する</t>
-  </si>
-  <si>
-    <t>1. データベース接続がエラーになるように設定する
-2. アカウント登録から完了までの流れを実行する</t>
-  </si>
-  <si>
     <t>アカウント登録確認画面に遷移し、入力したデータが正しく表示される</t>
   </si>
   <si>
@@ -160,40 +115,197 @@
     <t>確認画面に入力データが正しく表示される</t>
   </si>
   <si>
-    <t>アカウント登録画面に戻り、入力情報が保持されている</t>
-  </si>
-  <si>
-    <t>アカウントが正常に登録され、「登録完了しました」というメッセージが表示される</t>
-  </si>
-  <si>
-    <t>ホームページ（index.html）に遷移する</t>
-  </si>
-  <si>
-    <t>DBに正しいデータが登録されている</t>
-  </si>
-  <si>
-    <t>「エラーが発生したためアカウント登録できません」というメッセージが表示される</t>
-  </si>
-  <si>
     <t>未確認</t>
   </si>
   <si>
-    <t>名前（姓）: 山田, 名前（名）: 太郎, カナ（姓）: ヤマダ, カナ（名）: タロウ, メールアドレス: yamada@example.com, パスワード: password123, 性別: 男, 郵便番号: 1234567, 住所（都道府県）: 東京都, 住所（市区町村）: 新宿区, 住所（番地）: 1-2-3, アカウント権限: 一般</t>
-    <phoneticPr fontId="2"/>
+    <t>住所（都道府県）が正しく「大阪府」に設定されている</t>
+  </si>
+  <si>
+    <t>1. アカウント登録画面にアクセスする
+2. 「住所（都道府県）」に「大阪府」を選択する
+3. 「確認する」ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>住所（都道府県）: 大阪府</t>
+  </si>
+  <si>
+    <t>都道府県の選択が正しいことを確認する</t>
+  </si>
+  <si>
+    <t>郵便番号フィールドの下に「正しい形式で入力してください」とエラーメッセージが表示される</t>
+  </si>
+  <si>
+    <t>1. アカウント登録画面にアクセスする
+2. 「郵便番号」に正しいフォーマットのデータを入力する
+3. 「確認する」ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>郵便番号: 123-4567</t>
+  </si>
+  <si>
+    <t>郵便番号が正しいフォーマットで入力されていることを確認する</t>
+  </si>
+  <si>
+    <t>性別が正しく「女」に設定されている</t>
+  </si>
+  <si>
+    <t>1. アカウント登録画面にアクセスする
+2. 「性別」に「女」を選択する
+3. 「確認する」ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>性別: 女</t>
+  </si>
+  <si>
+    <t>性別の選択が正しいことを確認する</t>
+  </si>
+  <si>
+    <t>カナフィールドの下に「カタカナで入力してください」とエラーメッセージが表示される</t>
+  </si>
+  <si>
+    <t>1. アカウント登録画面にアクセスする
+2. 「カナ（姓）」と「カナ（名）」に不正なデータを入力する
+3. 「確認する」ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>カナ（姓）: やまだ, カナ（名）: たろう</t>
+  </si>
+  <si>
+    <t>カナの入力が不正な場合のエラーメッセージ表示</t>
+  </si>
+  <si>
+    <t>パスワードフィールドの下に「パスワードは6文字以上で入力してください」とエラーメッセージが表示される</t>
+  </si>
+  <si>
+    <t>1. アカウント登録画面にアクセスする
+2. 「パスワード」に短すぎるデータを入力する
+3. 「確認する」ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>パスワード: 123</t>
+  </si>
+  <si>
+    <t>短すぎるパスワードのエラーメッセージ表示</t>
+  </si>
+  <si>
+    <t>メールアドレスフィールドの下に「不正な形式のメールアドレスです」とエラーメッセージが表示される</t>
+  </si>
+  <si>
+    <t>1. アカウント登録画面にアクセスする
+2. 「メールアドレス」に不正な形式のデータを入力する
+3. 「確認する」ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>メールアドレス: invalid-email</t>
+  </si>
+  <si>
+    <t>不正なメールアドレスフォーマットのエラーメッセージ表示</t>
+  </si>
+  <si>
+    <t>なし</t>
+  </si>
+  <si>
+    <t>名前（姓）: 山田, 名前（名）: 太郎, カナ（姓）: ヤマダ, カナ（名）: タロウ, メールアドレス: yamada@example.com, パスワード: Password1, 性別: 男, 郵便番号: 1234567, 住所（都道府県）: 東京都, 住所（市区町村）: 千代田区, 住所（番地）: 1-1, アカウント権限: 一般</t>
+  </si>
+  <si>
+    <t>備考</t>
   </si>
   <si>
     <t>結果</t>
-    <rPh sb="0" eb="2">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>備考</t>
-    <rPh sb="0" eb="2">
-      <t>ビコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーメッセージが表示される</t>
+  </si>
+  <si>
+    <t>1. 確認画面で「登録する」ボタンをクリックする
+2. エラーメッセージが表示されることを確認する</t>
+  </si>
+  <si>
+    <t>DB登録時にエラーが発生する場合</t>
+  </si>
+  <si>
+    <t>エラー時のメッセージ表示</t>
+  </si>
+  <si>
+    <t>TC105</t>
+  </si>
+  <si>
+    <t>確認画面に異なるデータが正しく表示される</t>
+  </si>
+  <si>
+    <t>1. アカウント登録画面で異なるデータを入力し、「確認する」ボタンをクリックして確認画面に遷移する
+2. 確認画面で異なるデータが正しく表示されることを確認する</t>
+  </si>
+  <si>
+    <t>名前（姓）: 佐藤, 名前（名）: 次郎, カナ（姓）: サトウ, カナ（名）: ジロウ, メールアドレス: sato@example.com, パスワード: Password2, 性別: 女, 郵便番号: 7654321, 住所（都道府県）: 大阪府, 住所（市区町村）: 大阪市, 住所（番地）: 2-2, アカウント権限: 管理者</t>
+  </si>
+  <si>
+    <t>入力データが異なる場合の表示</t>
+  </si>
+  <si>
+    <t>TC104</t>
+  </si>
+  <si>
+    <t>登録完了画面に遷移し、「登録完了しました」というメッセージが表示される</t>
+  </si>
+  <si>
+    <t>1. 確認画面で「登録する」ボタンをクリックする
+2. 登録完了画面に遷移することを確認する</t>
+  </si>
+  <si>
+    <t>正しいデータで「登録する」ボタンをクリックして登録完了画面に遷移する</t>
+  </si>
+  <si>
+    <t>TC103</t>
+  </si>
+  <si>
+    <t>アカウント登録画面で入力情報が保持されている</t>
+  </si>
+  <si>
+    <t>1. 確認画面で「前に戻る」ボタンをクリックする
+2. アカウント登録画面で入力情報が保持されていることを確認する</t>
+  </si>
+  <si>
+    <t>TC102</t>
+  </si>
+  <si>
+    <t>1. アカウント登録画面で正しいデータを入力し、「確認する」ボタンをクリックして確認画面に遷移する
+2. 確認画面で入力データが正しく表示されることを確認する</t>
+  </si>
+  <si>
+    <t>入力データが正しく表示される</t>
+  </si>
+  <si>
+    <t>TC101</t>
+  </si>
+  <si>
+    <t>トップページに遷移する</t>
+  </si>
+  <si>
+    <t>1. 登録完了画面で「TOPページへ戻る」ボタンをクリックする
+2. トップページに遷移することを確認する</t>
+  </si>
+  <si>
+    <t>「TOPページへ戻る」ボタンをクリックしてトップページに遷移する</t>
+  </si>
+  <si>
+    <t>TC202</t>
+  </si>
+  <si>
+    <t>登録完了画面に「登録完了しました」というメッセージが表示される</t>
+  </si>
+  <si>
+    <t>1. 確認画面で「登録する」ボタンをクリックして登録完了画面に遷移する
+2. 登録完了画面が正しく表示されることを確認する</t>
+  </si>
+  <si>
+    <t>ユーザーが確認画面で「登録する」ボタンをクリックして登録完了画面に遷移している</t>
+  </si>
+  <si>
+    <t>登録完了画面が正しく表示される</t>
+  </si>
+  <si>
+    <t>TC201</t>
   </si>
 </sst>
 </file>
@@ -567,26 +679,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62480909-208B-4007-9E2D-1D72FFEAF5A7}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="237.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="102.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="74" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.77734375" customWidth="1"/>
-    <col min="11" max="11" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="235.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="115.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="96.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -615,10 +727,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
@@ -632,28 +744,28 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -664,25 +776,28 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="K3" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -690,31 +805,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="K4" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -722,31 +837,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="K5" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -754,28 +869,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="K6" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -783,28 +901,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
       </c>
       <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
         <v>38</v>
       </c>
-      <c r="F7" t="s">
-        <v>46</v>
-      </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="K7" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -812,31 +933,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="K8" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -844,28 +965,383 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
         <v>31</v>
       </c>
-      <c r="E9" t="s">
-        <v>40</v>
-      </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="I9" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="K9" t="s">
-        <v>49</v>
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A8C9C6-D49D-4552-A850-BA31FEE15F47}">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="235.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="148.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="68.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0480C7CA-473F-457D-87E4-6AC03E242266}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="112.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="61.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/単体テスト.xlsx
+++ b/単体テスト.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583F4FCF-1CFD-454C-AA52-3B476AC2AE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8328B0-F511-4D65-AED2-020AA6FA26C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,23 @@
     <sheet name="登録確認画面_テストケース" sheetId="4" r:id="rId2"/>
     <sheet name="登録完了画面_テストケース" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="109">
   <si>
     <t>テストケースID</t>
   </si>
@@ -51,9 +62,6 @@
     <t>環境</t>
   </si>
   <si>
-    <t>TC001</t>
-  </si>
-  <si>
     <t>TC002</t>
   </si>
   <si>
@@ -75,9 +83,6 @@
     <t>TC008</t>
   </si>
   <si>
-    <t>正しいデータでアカウントを登録する</t>
-  </si>
-  <si>
     <t>必須フィールド未入力時のエラーメッセージ</t>
   </si>
   <si>
@@ -94,218 +99,471 @@
   </si>
   <si>
     <t>ユーザーが登録完了画面にいる</t>
+  </si>
+  <si>
+    <t>アカウント登録確認画面に遷移し、入力したデータが正しく表示される</t>
+  </si>
+  <si>
+    <t>確認画面に入力データが正しく表示される</t>
+  </si>
+  <si>
+    <t>未確認</t>
+  </si>
+  <si>
+    <t>住所（都道府県）が正しく「大阪府」に設定されている</t>
+  </si>
+  <si>
+    <t>住所（都道府県）: 大阪府</t>
+  </si>
+  <si>
+    <t>都道府県の選択が正しいことを確認する</t>
+  </si>
+  <si>
+    <t>郵便番号: 123-4567</t>
+  </si>
+  <si>
+    <t>性別が正しく「女」に設定されている</t>
+  </si>
+  <si>
+    <t>性別: 女</t>
+  </si>
+  <si>
+    <t>カナ（姓）: やまだ, カナ（名）: たろう</t>
+  </si>
+  <si>
+    <t>メールアドレスフィールドの下に「不正な形式のメールアドレスです」とエラーメッセージが表示される</t>
+  </si>
+  <si>
+    <t>メールアドレス: invalid-email</t>
+  </si>
+  <si>
+    <t>なし</t>
+  </si>
+  <si>
+    <t>名前（姓）: 山田, 名前（名）: 太郎, カナ（姓）: ヤマダ, カナ（名）: タロウ, メールアドレス: yamada@example.com, パスワード: Password1, 性別: 男, 郵便番号: 1234567, 住所（都道府県）: 東京都, 住所（市区町村）: 千代田区, 住所（番地）: 1-1, アカウント権限: 一般</t>
+  </si>
+  <si>
+    <t>備考</t>
+  </si>
+  <si>
+    <t>結果</t>
+  </si>
+  <si>
+    <t>エラーメッセージが表示される</t>
+  </si>
+  <si>
+    <t>1. 確認画面で「登録する」ボタンをクリックする
+2. エラーメッセージが表示されることを確認する</t>
+  </si>
+  <si>
+    <t>DB登録時にエラーが発生する場合</t>
+  </si>
+  <si>
+    <t>エラー時のメッセージ表示</t>
+  </si>
+  <si>
+    <t>TC105</t>
+  </si>
+  <si>
+    <t>確認画面に異なるデータが正しく表示される</t>
+  </si>
+  <si>
+    <t>1. アカウント登録画面で異なるデータを入力し、「確認する」ボタンをクリックして確認画面に遷移する
+2. 確認画面で異なるデータが正しく表示されることを確認する</t>
+  </si>
+  <si>
+    <t>名前（姓）: 佐藤, 名前（名）: 次郎, カナ（姓）: サトウ, カナ（名）: ジロウ, メールアドレス: sato@example.com, パスワード: Password2, 性別: 女, 郵便番号: 7654321, 住所（都道府県）: 大阪府, 住所（市区町村）: 大阪市, 住所（番地）: 2-2, アカウント権限: 管理者</t>
+  </si>
+  <si>
+    <t>入力データが異なる場合の表示</t>
+  </si>
+  <si>
+    <t>TC104</t>
+  </si>
+  <si>
+    <t>登録完了画面に遷移し、「登録完了しました」というメッセージが表示される</t>
+  </si>
+  <si>
+    <t>1. 確認画面で「登録する」ボタンをクリックする
+2. 登録完了画面に遷移することを確認する</t>
+  </si>
+  <si>
+    <t>正しいデータで「登録する」ボタンをクリックして登録完了画面に遷移する</t>
+  </si>
+  <si>
+    <t>TC103</t>
+  </si>
+  <si>
+    <t>アカウント登録画面で入力情報が保持されている</t>
+  </si>
+  <si>
+    <t>1. 確認画面で「前に戻る」ボタンをクリックする
+2. アカウント登録画面で入力情報が保持されていることを確認する</t>
+  </si>
+  <si>
+    <t>TC102</t>
+  </si>
+  <si>
+    <t>1. アカウント登録画面で正しいデータを入力し、「確認する」ボタンをクリックして確認画面に遷移する
+2. 確認画面で入力データが正しく表示されることを確認する</t>
+  </si>
+  <si>
+    <t>入力データが正しく表示される</t>
+  </si>
+  <si>
+    <t>TC101</t>
+  </si>
+  <si>
+    <t>トップページに遷移する</t>
+  </si>
+  <si>
+    <t>1. 登録完了画面で「TOPページへ戻る」ボタンをクリックする
+2. トップページに遷移することを確認する</t>
+  </si>
+  <si>
+    <t>「TOPページへ戻る」ボタンをクリックしてトップページに遷移する</t>
+  </si>
+  <si>
+    <t>TC202</t>
+  </si>
+  <si>
+    <t>登録完了画面に「登録完了しました」というメッセージが表示される</t>
+  </si>
+  <si>
+    <t>1. 確認画面で「登録する」ボタンをクリックして登録完了画面に遷移する
+2. 登録完了画面が正しく表示されることを確認する</t>
+  </si>
+  <si>
+    <t>ユーザーが確認画面で「登録する」ボタンをクリックして登録完了画面に遷移している</t>
+  </si>
+  <si>
+    <t>登録完了画面が正しく表示される</t>
+  </si>
+  <si>
+    <t>TC201</t>
+  </si>
+  <si>
+    <t>すべての項目、正しいデータでアカウントを登録する</t>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC009</t>
+  </si>
+  <si>
+    <t>TC010</t>
+  </si>
+  <si>
+    <t>ユーザーがアカウント登録画面にアクセスしている</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パスワード: Pass!word1</t>
+  </si>
+  <si>
+    <t>TC011</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC012</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>住所（番地）: !@</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カナの入力が不正な場合のエラーメッセージ表示
+「カナ（姓）カナ（名）はカタカナのみ入力可」</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名前（姓）: 山田, 名前（名）: 太郎, カナ（姓）: ヤマダ, カナ（名）: タロウ,
+ メールアドレス: yamada@example.com, パスワード: Password1, 性別: 男,
+ 郵便番号: 1234567, 住所（都道府県）: 東京都, 住所（市区町村）: 千代田区, 住所（番地）: 1-1, アカウント権限: 一般</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1. アカウント登録画面にアクセスする
 2. 各フィールドにテストデータを入力する
 3. 「確認する」ボタンをクリックする</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1. アカウント登録画面にアクセスする
 2. 各フィールドを空のままにする
 3. 「確認する」ボタンをクリックする</t>
-  </si>
-  <si>
-    <t>アカウント登録確認画面に遷移し、入力したデータが正しく表示される</t>
-  </si>
-  <si>
-    <t>各必須フィールドの下に「未入力です」とエラーメッセージが表示される</t>
-  </si>
-  <si>
-    <t>確認画面に入力データが正しく表示される</t>
-  </si>
-  <si>
-    <t>未確認</t>
-  </si>
-  <si>
-    <t>住所（都道府県）が正しく「大阪府」に設定されている</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. アカウント登録画面にアクセスする
+2. 「メールアドレス」に不正な形式のデータを入力する
+3. 「確認する」ボタンをクリックする</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. アカウント登録画面にアクセスする
+2. 「カナ（姓）」と「カナ（名）」に不正なデータを入力する
+3. 「確認する」ボタンをクリックする</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. アカウント登録画面にアクセスする
+2. 「性別」に「女」を選択する
+3. 「確認する」ボタンをクリックする</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1. アカウント登録画面にアクセスする
 2. 「住所（都道府県）」に「大阪府」を選択する
 3. 「確認する」ボタンをクリックする</t>
-  </si>
-  <si>
-    <t>住所（都道府県）: 大阪府</t>
-  </si>
-  <si>
-    <t>都道府県の選択が正しいことを確認する</t>
-  </si>
-  <si>
-    <t>郵便番号フィールドの下に「正しい形式で入力してください」とエラーメッセージが表示される</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1. アカウント登録画面にアクセスする
 2. 「郵便番号」に正しいフォーマットのデータを入力する
 3. 「確認する」ボタンをクリックする</t>
-  </si>
-  <si>
-    <t>郵便番号: 123-4567</t>
-  </si>
-  <si>
-    <t>郵便番号が正しいフォーマットで入力されていることを確認する</t>
-  </si>
-  <si>
-    <t>性別が正しく「女」に設定されている</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1. アカウント登録画面にアクセスする
-2. 「性別」に「女」を選択する
+2. 「パスワード」に特殊文字を含むデータを入力する
 3. 「確認する」ボタンをクリックする</t>
-  </si>
-  <si>
-    <t>性別: 女</t>
-  </si>
-  <si>
-    <t>性別の選択が正しいことを確認する</t>
-  </si>
-  <si>
-    <t>カナフィールドの下に「カタカナで入力してください」とエラーメッセージが表示される</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1. アカウント登録画面にアクセスする
-2. 「カナ（姓）」と「カナ（名）」に不正なデータを入力する
+2. 「住所（番地）」に特殊文字を含むデータを入力する
 3. 「確認する」ボタンをクリックする</t>
-  </si>
-  <si>
-    <t>カナ（姓）: やまだ, カナ（名）: たろう</t>
-  </si>
-  <si>
-    <t>カナの入力が不正な場合のエラーメッセージ表示</t>
-  </si>
-  <si>
-    <t>パスワードフィールドの下に「パスワードは6文字以上で入力してください」とエラーメッセージが表示される</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パスワードに特殊文字が含まれている場合
+「パスワードは半角英数字のみ入力可」</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>住所の番地に特殊文字が含まれている場合
+「住所（番地）はひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）のみ入力可」</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>不正なメールアドレスフォーマットのエラーメッセージ表示
+「メールアドレス」は半角英数字、半角ハイフン、半角記号（ハイフンとアットマーク）のみ入力可能</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント権限:一般</t>
+    <rPh sb="8" eb="10">
+      <t>イッパン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント権限が正しいことを確認する
+「初期では（一般）選択済み」</t>
+    <rPh sb="8" eb="9">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1. アカウント登録画面にアクセスする
-2. 「パスワード」に短すぎるデータを入力する
+2. 「アカウント権限」に「一般」を選択する
 3. 「確認する」ボタンをクリックする</t>
-  </si>
-  <si>
-    <t>パスワード: 123</t>
-  </si>
-  <si>
-    <t>短すぎるパスワードのエラーメッセージ表示</t>
-  </si>
-  <si>
-    <t>メールアドレスフィールドの下に「不正な形式のメールアドレスです」とエラーメッセージが表示される</t>
+    <rPh sb="29" eb="31">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>イッパン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント権限が正しく「一般」に設定されている</t>
+    <rPh sb="5" eb="7">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>住所の市町区村に特殊文字が含まれている場合
+「住所（市町区村）はひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）のみ入力可」</t>
+    <rPh sb="3" eb="6">
+      <t>シチョウク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ムラ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シチョウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ムラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>住所（市町区村）:!@</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>シチョウクムラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1. アカウント登録画面にアクセスする
-2. 「メールアドレス」に不正な形式のデータを入力する
+2. 「住所（市町区村）」に特殊文字を含むデータを入力する
 3. 「確認する」ボタンをクリックする</t>
-  </si>
-  <si>
-    <t>メールアドレス: invalid-email</t>
-  </si>
-  <si>
-    <t>不正なメールアドレスフォーマットのエラーメッセージ表示</t>
-  </si>
-  <si>
-    <t>なし</t>
-  </si>
-  <si>
-    <t>名前（姓）: 山田, 名前（名）: 太郎, カナ（姓）: ヤマダ, カナ（名）: タロウ, メールアドレス: yamada@example.com, パスワード: Password1, 性別: 男, 郵便番号: 1234567, 住所（都道府県）: 東京都, 住所（市区町村）: 千代田区, 住所（番地）: 1-1, アカウント権限: 一般</t>
-  </si>
-  <si>
-    <t>備考</t>
-  </si>
-  <si>
-    <t>結果</t>
-  </si>
-  <si>
-    <t>エラーメッセージが表示される</t>
-  </si>
-  <si>
-    <t>1. 確認画面で「登録する」ボタンをクリックする
-2. エラーメッセージが表示されることを確認する</t>
-  </si>
-  <si>
-    <t>DB登録時にエラーが発生する場合</t>
-  </si>
-  <si>
-    <t>エラー時のメッセージ表示</t>
-  </si>
-  <si>
-    <t>TC105</t>
-  </si>
-  <si>
-    <t>確認画面に異なるデータが正しく表示される</t>
-  </si>
-  <si>
-    <t>1. アカウント登録画面で異なるデータを入力し、「確認する」ボタンをクリックして確認画面に遷移する
-2. 確認画面で異なるデータが正しく表示されることを確認する</t>
-  </si>
-  <si>
-    <t>名前（姓）: 佐藤, 名前（名）: 次郎, カナ（姓）: サトウ, カナ（名）: ジロウ, メールアドレス: sato@example.com, パスワード: Password2, 性別: 女, 郵便番号: 7654321, 住所（都道府県）: 大阪府, 住所（市区町村）: 大阪市, 住所（番地）: 2-2, アカウント権限: 管理者</t>
-  </si>
-  <si>
-    <t>入力データが異なる場合の表示</t>
-  </si>
-  <si>
-    <t>TC104</t>
-  </si>
-  <si>
-    <t>登録完了画面に遷移し、「登録完了しました」というメッセージが表示される</t>
-  </si>
-  <si>
-    <t>1. 確認画面で「登録する」ボタンをクリックする
-2. 登録完了画面に遷移することを確認する</t>
-  </si>
-  <si>
-    <t>正しいデータで「登録する」ボタンをクリックして登録完了画面に遷移する</t>
-  </si>
-  <si>
-    <t>TC103</t>
-  </si>
-  <si>
-    <t>アカウント登録画面で入力情報が保持されている</t>
-  </si>
-  <si>
-    <t>1. 確認画面で「前に戻る」ボタンをクリックする
-2. アカウント登録画面で入力情報が保持されていることを確認する</t>
-  </si>
-  <si>
-    <t>TC102</t>
-  </si>
-  <si>
-    <t>1. アカウント登録画面で正しいデータを入力し、「確認する」ボタンをクリックして確認画面に遷移する
-2. 確認画面で入力データが正しく表示されることを確認する</t>
-  </si>
-  <si>
-    <t>入力データが正しく表示される</t>
-  </si>
-  <si>
-    <t>TC101</t>
-  </si>
-  <si>
-    <t>トップページに遷移する</t>
-  </si>
-  <si>
-    <t>1. 登録完了画面で「TOPページへ戻る」ボタンをクリックする
-2. トップページに遷移することを確認する</t>
-  </si>
-  <si>
-    <t>「TOPページへ戻る」ボタンをクリックしてトップページに遷移する</t>
-  </si>
-  <si>
-    <t>TC202</t>
-  </si>
-  <si>
-    <t>登録完了画面に「登録完了しました」というメッセージが表示される</t>
-  </si>
-  <si>
-    <t>1. 確認画面で「登録する」ボタンをクリックして登録完了画面に遷移する
-2. 登録完了画面が正しく表示されることを確認する</t>
-  </si>
-  <si>
-    <t>ユーザーが確認画面で「登録する」ボタンをクリックして登録完了画面に遷移している</t>
-  </si>
-  <si>
-    <t>登録完了画面が正しく表示される</t>
-  </si>
-  <si>
-    <t>TC201</t>
+    <rPh sb="27" eb="31">
+      <t>シチョウクムラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>住所（市町区村）フィールドの下に「住所（市区町村）は有効な形式で入力してください」とエラーメッセージが表示される</t>
+    <rPh sb="3" eb="7">
+      <t>シチョウクムラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>住所（番地）フィールドの下に「住所（番地）は有効な形式で入力してください。」とエラーメッセージが表示される</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カナフィールドの下に「カナ（姓）はカタカナで入力してください。」
+「カナ（名）はカタカナで入力してください。」とエラーメッセージが表示される</t>
+    <rPh sb="37" eb="38">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>郵便番号フィールドの下に「郵便番号は7桁の数字で入力してください。」とエラーメッセージが表示される</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パスワードフィールドの下に「パスワードは英数字で入力してください。」とエラーメッセージが表示される</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>各必須フィールドの下に「（項目名）が未入力です。」とエラーメッセージが表示される</t>
+    <rPh sb="13" eb="15">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>性別の選択が正しいことを確認する
+「初期では（男）選択済み」</t>
+    <rPh sb="18" eb="20">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>センタクズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>郵便番号が正しいフォーマットで入力されていることを確認する
+「郵便番号」は半角数字のみ入力可</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名前の入力が不正な場合のエラーメッセージ表示
+「名前（姓）」「名前（名）」はひらがな、漢字のみ入力可</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名前（姓）:ヤマダ,名前（名）:タロウ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. アカウント登録画面にアクセスする
+2. 「名前（姓）」と「名前（名）」に不正なデータを入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="24" eb="26">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">名前フィールドの下に「名前（姓）は日本語の漢字またはひらがなで入力してください。」
+「名前（名）は日本語の漢字またはひらがなで入力してください。」とエラーメッセージが表示される。
+</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC001</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -371,10 +629,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -680,25 +951,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62480909-208B-4007-9E2D-1D72FFEAF5A7}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="235.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="115.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="96.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="147.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="250.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="124.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="178.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -727,274 +998,424 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" t="s">
-        <v>29</v>
-      </c>
+      <c r="D12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1002,8 +1423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A8C9C6-D49D-4552-A850-BA31FEE15F47}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1047,10 +1468,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
@@ -1058,162 +1479,162 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
         <v>55</v>
       </c>
-      <c r="E2" t="s">
-        <v>75</v>
-      </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1226,8 +1647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0480C7CA-473F-457D-87E4-6AC03E242266}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1271,10 +1692,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
@@ -1282,66 +1703,66 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/単体テスト.xlsx
+++ b/単体テスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8328B0-F511-4D65-AED2-020AA6FA26C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{A45FD8A1-C27E-468A-9437-58E685A2BE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アカウント登録画面_テストケース" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="登録完了画面_テストケース" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -119,22 +120,13 @@
     <t>都道府県の選択が正しいことを確認する</t>
   </si>
   <si>
-    <t>郵便番号: 123-4567</t>
-  </si>
-  <si>
     <t>性別が正しく「女」に設定されている</t>
   </si>
   <si>
     <t>性別: 女</t>
   </si>
   <si>
-    <t>カナ（姓）: やまだ, カナ（名）: たろう</t>
-  </si>
-  <si>
     <t>メールアドレスフィールドの下に「不正な形式のメールアドレスです」とエラーメッセージが表示される</t>
-  </si>
-  <si>
-    <t>メールアドレス: invalid-email</t>
   </si>
   <si>
     <t>なし</t>
@@ -260,9 +252,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>パスワード: Pass!word1</t>
-  </si>
-  <si>
     <t>TC011</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -287,25 +276,7 @@
   </si>
   <si>
     <t>1. アカウント登録画面にアクセスする
-2. 各フィールドにテストデータを入力する
-3. 「確認する」ボタンをクリックする</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. アカウント登録画面にアクセスする
 2. 各フィールドを空のままにする
-3. 「確認する」ボタンをクリックする</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. アカウント登録画面にアクセスする
-2. 「メールアドレス」に不正な形式のデータを入力する
-3. 「確認する」ボタンをクリックする</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. アカウント登録画面にアクセスする
-2. 「カナ（姓）」と「カナ（名）」に不正なデータを入力する
 3. 「確認する」ボタンをクリックする</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -318,24 +289,6 @@
   <si>
     <t>1. アカウント登録画面にアクセスする
 2. 「住所（都道府県）」に「大阪府」を選択する
-3. 「確認する」ボタンをクリックする</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. アカウント登録画面にアクセスする
-2. 「郵便番号」に正しいフォーマットのデータを入力する
-3. 「確認する」ボタンをクリックする</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. アカウント登録画面にアクセスする
-2. 「パスワード」に特殊文字を含むデータを入力する
-3. 「確認する」ボタンをクリックする</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. アカウント登録画面にアクセスする
-2. 「住所（番地）」に特殊文字を含むデータを入力する
 3. 「確認する」ボタンをクリックする</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -443,15 +396,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1. アカウント登録画面にアクセスする
-2. 「住所（市町区村）」に特殊文字を含むデータを入力する
-3. 「確認する」ボタンをクリックする</t>
-    <rPh sb="27" eb="31">
-      <t>シチョウクムラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>住所（市町区村）フィールドの下に「住所（市区町村）は有効な形式で入力してください」とエラーメッセージが表示される</t>
     <rPh sb="3" eb="7">
       <t>シチョウクムラ</t>
@@ -529,18 +473,6 @@
   </si>
   <si>
     <t>名前（姓）:ヤマダ,名前（名）:タロウ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. アカウント登録画面にアクセスする
-2. 「名前（姓）」と「名前（名）」に不正なデータを入力する
-3. 「確認する」ボタンをクリックする</t>
-    <rPh sb="24" eb="26">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ナマエ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -554,15 +486,93 @@
       <t>シタ</t>
     </rPh>
     <rPh sb="83" eb="85">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="91" eb="92">
-      <t>マエ</t>
+      <t>ヒョウジマエ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>TC001</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. アカウント登録画面にアクセスする
+2. 「名前（姓）」と「名前（名）」に不正なデータ[名前（姓）:ヤマダ,名前（名）:タロウ]を入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="24" eb="26">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カナ（姓）: やまだ, カナ（名）: たろう</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. アカウント登録画面にアクセスする
+2. 「カナ（姓）」と「カナ（名）」に不正なデータ[カナ（姓）: やまだ, カナ（名）: たろう]を入力する
+3. 「確認する」ボタンをクリックする</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メールアドレス: invalid-email</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. アカウント登録画面にアクセスする
+2. 「メールアドレス」に不正な形式のデータ[メールアドレス: invalid-email]を入力する
+3. 「確認する」ボタンをクリックする</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パスワード: Pass!word1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. アカウント登録画面にアクセスする
+2. 「パスワード」に特殊文字を含むデータ[パスワード: Pass!word1]を入力する
+3. 「確認する」ボタンをクリックする</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>郵便番号: 123-4567</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. アカウント登録画面にアクセスする
+2. 「郵便番号」に不正なフォーマットのデータ[郵便番号: 123-4567]を入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="30" eb="32">
+      <t>フセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. アカウント登録画面にアクセスする
+2. 「住所（市町区村）」に特殊文字を含むデータ[住所（市町区村）:!@]を入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="27" eb="31">
+      <t>シチョウクムラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. アカウント登録画面にアクセスする
+2. 「住所（番地）」に特殊文字を含むデータ[住所（番地）:!@]を入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="46" eb="48">
+      <t>バンチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. アカウント登録画面にアクセスする
+2. 各フィールドにテストデータ[名前（姓）: 山田, 名前（名）: 太郎, カナ（姓）: ヤマダ, カナ（名）: タロウ,
+ メールアドレス: yamada@example.com, パスワード: Password1, 性別: 男,
+ 郵便番号: 1234567, 住所（都道府県）: 東京都, 住所（市区町村）: 千代田区, 住所（番地）: 1-1, アカウント権限: 一般]を入力する
+3. 「確認する」ボタンをクリックする</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -629,7 +639,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -640,12 +650,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -953,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62480909-208B-4007-9E2D-1D72FFEAF5A7}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -998,408 +1004,396 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>108</v>
+      <c r="A2" t="s">
+        <v>96</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>34</v>
+      <c r="D2" t="s">
+        <v>31</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="F5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="E8" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4" t="s">
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4" t="s">
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="B12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="66" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="B13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="E13" s="3" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4" t="s">
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1468,10 +1462,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
@@ -1479,19 +1473,19 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
@@ -1511,7 +1505,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -1520,13 +1514,13 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
         <v>24</v>
@@ -1543,22 +1537,22 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s">
         <v>24</v>
@@ -1575,22 +1569,22 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
         <v>24</v>
@@ -1607,22 +1601,22 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
         <v>24</v>
@@ -1647,7 +1641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0480C7CA-473F-457D-87E4-6AC03E242266}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1692,10 +1686,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>8</v>
@@ -1703,22 +1697,22 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
         <v>24</v>
@@ -1735,22 +1729,22 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
         <v>24</v>

--- a/単体テスト.xlsx
+++ b/単体テスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{A45FD8A1-C27E-468A-9437-58E685A2BE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192CF954-8DEA-41F8-BC46-B5C839DAE46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="登録完了画面_テストケース" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="124">
   <si>
     <t>テストケースID</t>
   </si>
@@ -93,12 +92,6 @@
     <t>ユーザーがアカウント登録画面にアクセスしている</t>
   </si>
   <si>
-    <t>ユーザーがアカウント登録画面から確認画面に遷移している</t>
-  </si>
-  <si>
-    <t>ユーザーが確認画面にいる</t>
-  </si>
-  <si>
     <t>ユーザーが登録完了画面にいる</t>
   </si>
   <si>
@@ -139,9 +132,6 @@
   </si>
   <si>
     <t>結果</t>
-  </si>
-  <si>
-    <t>エラーメッセージが表示される</t>
   </si>
   <si>
     <t>1. 確認画面で「登録する」ボタンをクリックする
@@ -573,6 +563,180 @@
  メールアドレス: yamada@example.com, パスワード: Password1, 性別: 男,
  郵便番号: 1234567, 住所（都道府県）: 東京都, 住所（市区町村）: 千代田区, 住所（番地）: 1-1, アカウント権限: 一般]を入力する
 3. 「確認する」ボタンをクリックする</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>機能</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録画面から確認画面へデータの引き渡し</t>
+    <rPh sb="20" eb="21">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ワタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザーがアカウント登録画面から登録確認画面に遷移している</t>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザーが登録確認画面にいる</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザーがアカウント登録画面から登録確認画面に遷移している</t>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>前に戻るボタンで画面遷移（登録確認画面からアカウント確認画面）、入力データ保持</t>
+    <rPh sb="0" eb="1">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録するボタンで画面遷移（登録確認画面から登録完了画面）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録画面から確認画面へデータの引き渡し</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラー時にメッセージ表示（エラーが発生したためアカウント登録できません）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーメッセージが表示される（エラーが発生したためアカウント登録できません）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>戻るボタンによる画面遷移（登録完了画面からTOPページ）</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="13" eb="19">
+      <t>トウロクカンリョウガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>正しく画面表示</t>
+    <rPh sb="0" eb="1">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ガメンヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力チェック（未入力時エラーメッセージ）</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ミニュウリョクジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力チェック（入力が不正な場合のエラーメッセージ）</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力チェック（入力が不正な場合のエラーメッセージ）</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目選択</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目選択</t>
+    <rPh sb="0" eb="4">
+      <t>コウモクセンタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力チェック（各項目全て正しければ画面遷移）</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>カクコウモク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>ガメンセンイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -957,454 +1121,494 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62480909-208B-4007-9E2D-1D72FFEAF5A7}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="147.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="250.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="124.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="178.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="147.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="250.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="124.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="178.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>73</v>
+      <c r="E2" t="s">
+        <v>29</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
+        <v>70</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
+      <c r="G3" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>99</v>
+      <c r="E4" t="s">
+        <v>95</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
+        <v>96</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>101</v>
+      <c r="E5" t="s">
+        <v>97</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
+        <v>98</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>67</v>
+      <c r="B6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>103</v>
+        <v>64</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G6" t="s">
-        <v>24</v>
+        <v>100</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>74</v>
+      <c r="E7" t="s">
+        <v>27</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
+        <v>71</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>105</v>
+      <c r="E8" t="s">
+        <v>101</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
+        <v>102</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="J8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>75</v>
+      <c r="E9" t="s">
+        <v>24</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
+        <v>72</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="J9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="66" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" t="s">
         <v>18</v>
       </c>
-      <c r="D12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="66" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="E13" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="F13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="s">
-        <v>24</v>
+        <v>105</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="J13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="D14" s="2"/>
       <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C15" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1415,28 +1619,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A8C9C6-D49D-4552-A850-BA31FEE15F47}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="66.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="235.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="148.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="68.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.5546875" customWidth="1"/>
+    <col min="4" max="4" width="56.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="235.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="148.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="68.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1444,191 +1649,209 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="F6" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1639,28 +1862,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0480C7CA-473F-457D-87E4-6AC03E242266}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="77.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="112.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="61.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59" customWidth="1"/>
+    <col min="4" max="4" width="77.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="112.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="61.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1668,95 +1892,104 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/単体テスト.xlsx
+++ b/単体テスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192CF954-8DEA-41F8-BC46-B5C839DAE46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14A06CE-D510-4671-8736-37CAAA05E413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アカウント登録画面_テストケース" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="125">
   <si>
     <t>テストケースID</t>
   </si>
@@ -110,9 +110,6 @@
     <t>住所（都道府県）: 大阪府</t>
   </si>
   <si>
-    <t>都道府県の選択が正しいことを確認する</t>
-  </si>
-  <si>
     <t>性別が正しく「女」に設定されている</t>
   </si>
   <si>
@@ -125,19 +122,12 @@
     <t>なし</t>
   </si>
   <si>
-    <t>名前（姓）: 山田, 名前（名）: 太郎, カナ（姓）: ヤマダ, カナ（名）: タロウ, メールアドレス: yamada@example.com, パスワード: Password1, 性別: 男, 郵便番号: 1234567, 住所（都道府県）: 東京都, 住所（市区町村）: 千代田区, 住所（番地）: 1-1, アカウント権限: 一般</t>
-  </si>
-  <si>
     <t>備考</t>
   </si>
   <si>
     <t>結果</t>
   </si>
   <si>
-    <t>1. 確認画面で「登録する」ボタンをクリックする
-2. エラーメッセージが表示されることを確認する</t>
-  </si>
-  <si>
     <t>DB登録時にエラーが発生する場合</t>
   </si>
   <si>
@@ -150,13 +140,6 @@
     <t>確認画面に異なるデータが正しく表示される</t>
   </si>
   <si>
-    <t>1. アカウント登録画面で異なるデータを入力し、「確認する」ボタンをクリックして確認画面に遷移する
-2. 確認画面で異なるデータが正しく表示されることを確認する</t>
-  </si>
-  <si>
-    <t>名前（姓）: 佐藤, 名前（名）: 次郎, カナ（姓）: サトウ, カナ（名）: ジロウ, メールアドレス: sato@example.com, パスワード: Password2, 性別: 女, 郵便番号: 7654321, 住所（都道府県）: 大阪府, 住所（市区町村）: 大阪市, 住所（番地）: 2-2, アカウント権限: 管理者</t>
-  </si>
-  <si>
     <t>入力データが異なる場合の表示</t>
   </si>
   <si>
@@ -166,10 +149,6 @@
     <t>登録完了画面に遷移し、「登録完了しました」というメッセージが表示される</t>
   </si>
   <si>
-    <t>1. 確認画面で「登録する」ボタンをクリックする
-2. 登録完了画面に遷移することを確認する</t>
-  </si>
-  <si>
     <t>正しいデータで「登録する」ボタンをクリックして登録完了画面に遷移する</t>
   </si>
   <si>
@@ -179,17 +158,9 @@
     <t>アカウント登録画面で入力情報が保持されている</t>
   </si>
   <si>
-    <t>1. 確認画面で「前に戻る」ボタンをクリックする
-2. アカウント登録画面で入力情報が保持されていることを確認する</t>
-  </si>
-  <si>
     <t>TC102</t>
   </si>
   <si>
-    <t>1. アカウント登録画面で正しいデータを入力し、「確認する」ボタンをクリックして確認画面に遷移する
-2. 確認画面で入力データが正しく表示されることを確認する</t>
-  </si>
-  <si>
     <t>入力データが正しく表示される</t>
   </si>
   <si>
@@ -199,10 +170,6 @@
     <t>トップページに遷移する</t>
   </si>
   <si>
-    <t>1. 登録完了画面で「TOPページへ戻る」ボタンをクリックする
-2. トップページに遷移することを確認する</t>
-  </si>
-  <si>
     <t>「TOPページへ戻る」ボタンをクリックしてトップページに遷移する</t>
   </si>
   <si>
@@ -210,10 +177,6 @@
   </si>
   <si>
     <t>登録完了画面に「登録完了しました」というメッセージが表示される</t>
-  </si>
-  <si>
-    <t>1. 確認画面で「登録する」ボタンをクリックして登録完了画面に遷移する
-2. 登録完了画面が正しく表示されることを確認する</t>
   </si>
   <si>
     <t>ユーザーが確認画面で「登録する」ボタンをクリックして登録完了画面に遷移している</t>
@@ -661,16 +624,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>正しく画面表示</t>
-    <rPh sb="0" eb="1">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="3" eb="7">
-      <t>ガメンヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>入力チェック（未入力時エラーメッセージ）</t>
     <rPh sb="0" eb="2">
       <t>ニュウリョク</t>
@@ -704,23 +657,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>項目選択</t>
-    <rPh sb="0" eb="2">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>項目選択</t>
-    <rPh sb="0" eb="4">
-      <t>コウモクセンタク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>入力チェック（各項目全て正しければ画面遷移）</t>
     <rPh sb="0" eb="2">
       <t>ニュウリョク</t>
@@ -736,6 +672,97 @@
     </rPh>
     <rPh sb="17" eb="21">
       <t>ガメンセンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>都道府県の選択が正しいことを確認する
+「初期では空欄選択済み」</t>
+    <rPh sb="20" eb="22">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>センタクズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラジオボタン選択</t>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プルダウン選択</t>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名前（姓）: 山田, 名前（名）: 太郎, カナ（姓）: ヤマダ, カナ（名）: タロウ, 
+メールアドレス: yamada@example.com, パスワード: Password1, 性別: 男
+, 郵便番号: 1234567, 住所（都道府県）: 東京都, 住所（市区町村）: 千代田区, 住所（番地）: 1-1, アカウント権限: 一般</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名前（姓）: 佐藤, 名前（名）: 次郎, カナ（姓）: サトウ, カナ（名）: ジロウ,
+ メールアドレス: sato@example.com, パスワード: Password2, 性別: 女,
+ 郵便番号: 7654321, 住所（都道府県）: 大阪府, 住所（市区町村）: 大阪市, 住所（番地）: 2-2, アカウント権限: 管理者</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名前（姓）: 山田, 名前（名）: 太郎, カナ（姓）: ヤマダ, カナ（名）: タロウ,
+ メールアドレス: yamada@example.com, パスワード: Password1, 性別: 男, 
+郵便番号: 1234567, 住所（都道府県）: 東京都, 住所（市区町村）: 千代田区, 住所（番地）: 1-1, アカウント権限: 一般</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. アカウント登録画面で正しいデータを入力し、「確認する」ボタンをクリックして確認画面に遷移する
+2. 確認画面で入力データが正しく表示されることを確認する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. アカウント登録画面で異なるデータを入力し、「確認する」ボタンをクリックして確認画面に遷移する
+2. 確認画面で異なるデータが正しく表示されることを確認する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 確認画面で「前に戻る」ボタンをクリックする
+2. アカウント登録画面で入力情報が保持されていることを確認する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 確認画面で「登録する」ボタンをクリックする
+2. 登録完了画面に遷移することを確認する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 確認画面で「登録する」ボタンをクリックする
+2. エラーメッセージが表示されることを確認する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 確認画面で「登録する」ボタンをクリックして登録完了画面に遷移する
+2. 登録完了画面が正しく表示されることを確認する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 登録完了画面で「TOPページへ戻る」ボタンをクリックする
+2. トップページに遷移することを確認する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>正しい画面表示</t>
+    <rPh sb="0" eb="1">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ガメンヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1123,14 +1150,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62480909-208B-4007-9E2D-1D72FFEAF5A7}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="51.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="147.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="250.77734375" bestFit="1" customWidth="1"/>
@@ -1148,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1172,10 +1199,10 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
@@ -1183,10 +1210,10 @@
     </row>
     <row r="2" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>16</v>
@@ -1195,13 +1222,13 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s">
         <v>22</v>
@@ -1221,22 +1248,22 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
@@ -1256,22 +1283,22 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
@@ -1291,22 +1318,22 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
         <v>22</v>
@@ -1326,22 +1353,22 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H6" t="s">
         <v>22</v>
@@ -1361,22 +1388,22 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
         <v>22</v>
@@ -1396,22 +1423,22 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H8" t="s">
         <v>22</v>
@@ -1431,10 +1458,10 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -1443,7 +1470,7 @@
         <v>24</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>23</v>
@@ -1463,25 +1490,25 @@
     </row>
     <row r="10" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H10" t="s">
         <v>22</v>
@@ -1498,25 +1525,25 @@
     </row>
     <row r="11" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s">
         <v>22</v>
@@ -1533,25 +1560,25 @@
     </row>
     <row r="12" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="H12" t="s">
         <v>22</v>
@@ -1568,22 +1595,22 @@
     </row>
     <row r="13" spans="1:12" ht="66" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>20</v>
@@ -1622,7 +1649,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1646,10 +1673,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1670,33 +1697,33 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>49</v>
+        <v>98</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -1714,98 +1741,98 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
         <v>38</v>
       </c>
-      <c r="G3" t="s">
+      <c r="D5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" t="s">
         <v>37</v>
       </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" t="s">
-        <v>42</v>
-      </c>
       <c r="H5" t="s">
         <v>22</v>
       </c>
@@ -1819,27 +1846,27 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="G6" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="H6" t="s">
         <v>22</v>
@@ -1864,8 +1891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0480C7CA-473F-457D-87E4-6AC03E242266}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1889,10 +1916,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1913,36 +1940,36 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>57</v>
+        <v>28</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
         <v>22</v>
@@ -1957,27 +1984,27 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>53</v>
+        <v>28</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>

--- a/単体テスト.xlsx
+++ b/単体テスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14A06CE-D510-4671-8736-37CAAA05E413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD047D9-BE36-424A-A8D6-B437933A59EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アカウント登録画面_テストケース" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="108">
   <si>
     <t>テストケースID</t>
   </si>
@@ -86,21 +86,12 @@
     <t>必須フィールド未入力時のエラーメッセージ</t>
   </si>
   <si>
-    <t>「前に戻る」ボタンで入力情報が保持される</t>
-  </si>
-  <si>
     <t>ユーザーがアカウント登録画面にアクセスしている</t>
   </si>
   <si>
-    <t>ユーザーが登録完了画面にいる</t>
-  </si>
-  <si>
     <t>アカウント登録確認画面に遷移し、入力したデータが正しく表示される</t>
   </si>
   <si>
-    <t>確認画面に入力データが正しく表示される</t>
-  </si>
-  <si>
     <t>未確認</t>
   </si>
   <si>
@@ -134,52 +125,7 @@
     <t>エラー時のメッセージ表示</t>
   </si>
   <si>
-    <t>TC105</t>
-  </si>
-  <si>
-    <t>確認画面に異なるデータが正しく表示される</t>
-  </si>
-  <si>
-    <t>入力データが異なる場合の表示</t>
-  </si>
-  <si>
-    <t>TC104</t>
-  </si>
-  <si>
-    <t>登録完了画面に遷移し、「登録完了しました」というメッセージが表示される</t>
-  </si>
-  <si>
-    <t>正しいデータで「登録する」ボタンをクリックして登録完了画面に遷移する</t>
-  </si>
-  <si>
-    <t>TC103</t>
-  </si>
-  <si>
-    <t>アカウント登録画面で入力情報が保持されている</t>
-  </si>
-  <si>
-    <t>TC102</t>
-  </si>
-  <si>
-    <t>入力データが正しく表示される</t>
-  </si>
-  <si>
-    <t>TC101</t>
-  </si>
-  <si>
-    <t>トップページに遷移する</t>
-  </si>
-  <si>
-    <t>「TOPページへ戻る」ボタンをクリックしてトップページに遷移する</t>
-  </si>
-  <si>
     <t>TC202</t>
-  </si>
-  <si>
-    <t>登録完了画面に「登録完了しました」というメッセージが表示される</t>
-  </si>
-  <si>
-    <t>ユーザーが確認画面で「登録する」ボタンをクリックして登録完了画面に遷移している</t>
   </si>
   <si>
     <t>登録完了画面が正しく表示される</t>
@@ -536,143 +482,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アカウント登録画面から確認画面へデータの引き渡し</t>
-    <rPh sb="20" eb="21">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ワタ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ユーザーがアカウント登録画面から登録確認画面に遷移している</t>
-    <rPh sb="12" eb="14">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ユーザーが登録確認画面にいる</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ユーザーがアカウント登録画面から登録確認画面に遷移している</t>
-    <rPh sb="16" eb="18">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>前に戻るボタンで画面遷移（登録確認画面からアカウント確認画面）、入力データ保持</t>
-    <rPh sb="0" eb="1">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="8" eb="12">
-      <t>ガメンセンイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ホジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>登録するボタンで画面遷移（登録確認画面から登録完了画面）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント登録画面から確認画面へデータの引き渡し</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>エラー時にメッセージ表示（エラーが発生したためアカウント登録できません）</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>エラーメッセージが表示される（エラーが発生したためアカウント登録できません）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>戻るボタンによる画面遷移（登録完了画面からTOPページ）</t>
-    <rPh sb="0" eb="1">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="8" eb="12">
-      <t>ガメンセンイ</t>
-    </rPh>
-    <rPh sb="13" eb="19">
-      <t>トウロクカンリョウガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>入力チェック（未入力時エラーメッセージ）</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>ミニュウリョクジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>入力チェック（入力が不正な場合のエラーメッセージ）</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>入力チェック（入力が不正な場合のエラーメッセージ）</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>入力チェック（各項目全て正しければ画面遷移）</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>カクコウモク</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="17" eb="21">
-      <t>ガメンセンイ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -704,39 +518,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>名前（姓）: 山田, 名前（名）: 太郎, カナ（姓）: ヤマダ, カナ（名）: タロウ, 
-メールアドレス: yamada@example.com, パスワード: Password1, 性別: 男
-, 郵便番号: 1234567, 住所（都道府県）: 東京都, 住所（市区町村）: 千代田区, 住所（番地）: 1-1, アカウント権限: 一般</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>名前（姓）: 佐藤, 名前（名）: 次郎, カナ（姓）: サトウ, カナ（名）: ジロウ,
- メールアドレス: sato@example.com, パスワード: Password2, 性別: 女,
- 郵便番号: 7654321, 住所（都道府県）: 大阪府, 住所（市区町村）: 大阪市, 住所（番地）: 2-2, アカウント権限: 管理者</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>名前（姓）: 山田, 名前（名）: 太郎, カナ（姓）: ヤマダ, カナ（名）: タロウ,
- メールアドレス: yamada@example.com, パスワード: Password1, 性別: 男, 
-郵便番号: 1234567, 住所（都道府県）: 東京都, 住所（市区町村）: 千代田区, 住所（番地）: 1-1, アカウント権限: 一般</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. アカウント登録画面で正しいデータを入力し、「確認する」ボタンをクリックして確認画面に遷移する
-2. 確認画面で入力データが正しく表示されることを確認する</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. アカウント登録画面で異なるデータを入力し、「確認する」ボタンをクリックして確認画面に遷移する
-2. 確認画面で異なるデータが正しく表示されることを確認する</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. 確認画面で「前に戻る」ボタンをクリックする
-2. アカウント登録画面で入力情報が保持されていることを確認する</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>1. 確認画面で「登録する」ボタンをクリックする
 2. 登録完了画面に遷移することを確認する</t>
     <phoneticPr fontId="2"/>
@@ -747,23 +528,199 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1. 確認画面で「登録する」ボタンをクリックして登録完了画面に遷移する
-2. 登録完了画面が正しく表示されることを確認する</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. 登録完了画面で「TOPページへ戻る」ボタンをクリックする
-2. トップページに遷移することを確認する</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>正しい画面表示</t>
+    <t>テキストボックスによる入力チェック（未入力時エラーメッセージ）</t>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>ミニュウリョクジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テキストボックスによる入力チェック（入力が不正な場合のエラーメッセージ）</t>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テキストボックスによる入力チェック（入力が不正な場合のエラーメッセージ）</t>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テキストボックスによる入力チェック（各項目全て正しければ画面遷移）</t>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>カクコウモク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「前に戻る」ボタンで画面遷移（登録確認画面からアカウント確認画面）</t>
+    <rPh sb="1" eb="2">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「登録する」ボタンで画面遷移（登録確認画面から登録完了画面）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「前に戻る」ボタンが使用できる</t>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「登録する」ボタンが使用できる</t>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. アカウント登録確認画面で「前に戻る」ボタンをクリックする
+2. 画面遷移されることを確認する</t>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UIのボタン機能がうまく動作している</t>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC101</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC102</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC103</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>正しい画面表示（画面中央に大きくテキスト表示）
+「登録完了しました」</t>
     <rPh sb="0" eb="1">
       <t>タダ</t>
     </rPh>
     <rPh sb="3" eb="7">
       <t>ガメンヒョウジ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザーが登録確認画面にアクセスしている</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザーが登録完了画面にアクセスしている</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 登録完了画面が正しく表示されることを確認する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録完了画面中央に「登録完了しました」というメッセージがテキスト表示される</t>
+    <rPh sb="6" eb="8">
+      <t>チュウオウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタン形式による画面遷移</t>
+    <rPh sb="3" eb="5">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「TOPページへ戻る」ボタン押下時に画面が遷移する</t>
+    <rPh sb="14" eb="16">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 登録完了画面で「TOPページへ戻る」ボタンをクリックする
+2. ボタンが機能し画面遷移することを確認する</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1150,14 +1107,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62480909-208B-4007-9E2D-1D72FFEAF5A7}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="147.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="250.77734375" bestFit="1" customWidth="1"/>
@@ -1175,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1199,10 +1156,10 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
@@ -1210,37 +1167,37 @@
     </row>
     <row r="2" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
@@ -1248,34 +1205,34 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
@@ -1283,34 +1240,34 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
@@ -1318,34 +1275,34 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
@@ -1353,34 +1310,34 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
@@ -1388,34 +1345,34 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
@@ -1423,34 +1380,34 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
@@ -1458,174 +1415,174 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="D10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="H11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="66" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="H13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1646,24 +1603,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A8C9C6-D49D-4552-A850-BA31FEE15F47}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.5546875" customWidth="1"/>
-    <col min="4" max="4" width="56.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="235.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="148.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="68.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="74.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1673,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1697,189 +1652,138 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
         <v>101</v>
       </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>116</v>
+      <c r="E4" t="s">
+        <v>28</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="G6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F9" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1891,22 +1795,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0480C7CA-473F-457D-87E4-6AC03E242266}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59" customWidth="1"/>
-    <col min="4" max="4" width="77.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="112.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="61.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="73.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1916,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1940,10 +1842,10 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
@@ -1951,72 +1853,72 @@
     </row>
     <row r="2" spans="1:12" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" t="s">
-        <v>124</v>
+        <v>32</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" t="s">
         <v>106</v>
       </c>
-      <c r="C3" t="s">
-        <v>45</v>
-      </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G3" t="s">
-        <v>44</v>
+        <v>107</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/単体テスト.xlsx
+++ b/単体テスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD047D9-BE36-424A-A8D6-B437933A59EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D763C424-E766-4D10-8565-CDC6D99ABF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="114">
   <si>
     <t>テストケースID</t>
   </si>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t>アカウント登録確認画面に遷移し、入力したデータが正しく表示される</t>
-  </si>
-  <si>
-    <t>未確認</t>
   </si>
   <si>
     <t>住所（都道府県）が正しく「大阪府」に設定されている</t>
@@ -204,13 +201,6 @@
   <si>
     <t>不正なメールアドレスフォーマットのエラーメッセージ表示
 「メールアドレス」は半角英数字、半角ハイフン、半角記号（ハイフンとアットマーク）のみ入力可能</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント権限:一般</t>
-    <rPh sb="8" eb="10">
-      <t>イッパン</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -233,34 +223,6 @@
     </rPh>
     <rPh sb="30" eb="31">
       <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. アカウント登録画面にアクセスする
-2. 「アカウント権限」に「一般」を選択する
-3. 「確認する」ボタンをクリックする</t>
-    <rPh sb="29" eb="31">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>イッパン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>アカウント権限が正しく「一般」に設定されている</t>
-    <rPh sb="5" eb="7">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>イッパン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -721,6 +683,103 @@
   <si>
     <t>1. 登録完了画面で「TOPページへ戻る」ボタンをクリックする
 2. ボタンが機能し画面遷移することを確認する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>田中</t>
+    <rPh sb="0" eb="2">
+      <t>タナカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Google Chrome</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>住所（都道府県）選択が空欄であるがエラーメッセージが表示されていない</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ポップアップ式でメールアドレスに
+「＠」を挿入してくださいとエラーメッセージが表示されてしまっている</t>
+    <rPh sb="6" eb="7">
+      <t>シキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ソウニュウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント権限:管理者</t>
+    <rPh sb="8" eb="11">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. アカウント登録画面にアクセスする
+2. 「アカウント権限」に「管理者」を選択する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="29" eb="31">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント権限が正しく「管理者」に設定されている</t>
+    <rPh sb="5" eb="7">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーが表示されずに画面遷移してしまった</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ガメンセンイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -787,7 +846,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -801,6 +860,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1108,23 +1169,23 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="73.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="147.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="93.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="250.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="124.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="178.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="114.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="125.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="114.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="72.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -1132,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1156,10 +1217,10 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
@@ -1167,10 +1228,10 @@
     </row>
     <row r="2" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>16</v>
@@ -1179,25 +1240,28 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
+        <v>104</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45456</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>107</v>
+      </c>
+      <c r="K2" t="s">
+        <v>108</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
@@ -1205,34 +1269,34 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
+        <v>104</v>
+      </c>
+      <c r="I3" s="5">
+        <v>45456</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="L3" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
@@ -1240,34 +1304,34 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
+        <v>104</v>
+      </c>
+      <c r="I4" s="5">
+        <v>45456</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="L4" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
@@ -1275,34 +1339,37 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" t="s">
-        <v>19</v>
+        <v>104</v>
+      </c>
+      <c r="I5" s="5">
+        <v>45456</v>
       </c>
       <c r="J5" t="s">
-        <v>19</v>
+        <v>107</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="L5" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
@@ -1310,34 +1377,34 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" t="s">
-        <v>19</v>
+        <v>104</v>
+      </c>
+      <c r="I6" s="5">
+        <v>45456</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="L6" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
@@ -1345,34 +1412,34 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" t="s">
-        <v>19</v>
+        <v>104</v>
+      </c>
+      <c r="I7" s="5">
+        <v>45456</v>
       </c>
       <c r="J7" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="L7" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
@@ -1380,34 +1447,34 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" t="s">
-        <v>19</v>
+        <v>104</v>
+      </c>
+      <c r="I8" s="5">
+        <v>45456</v>
       </c>
       <c r="J8" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
@@ -1415,174 +1482,174 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" t="s">
-        <v>19</v>
+        <v>104</v>
+      </c>
+      <c r="I9" s="5">
+        <v>45456</v>
       </c>
       <c r="J9" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" t="s">
-        <v>19</v>
+        <v>104</v>
+      </c>
+      <c r="I10" s="5">
+        <v>45456</v>
       </c>
       <c r="J10" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="L10" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="E11" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" t="s">
-        <v>19</v>
+        <v>104</v>
+      </c>
+      <c r="I11" s="5">
+        <v>45456</v>
       </c>
       <c r="J11" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="L11" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" t="s">
-        <v>19</v>
+        <v>104</v>
+      </c>
+      <c r="I12" s="5">
+        <v>45456</v>
       </c>
       <c r="J12" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="L12" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="66" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" t="s">
-        <v>19</v>
+        <v>104</v>
+      </c>
+      <c r="I13" s="5">
+        <v>45456</v>
       </c>
       <c r="J13" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="L13" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1605,22 +1672,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A8C9C6-D49D-4552-A850-BA31FEE15F47}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="56.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="74.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="59.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="79.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -1628,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1652,10 +1721,10 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
@@ -1663,107 +1732,110 @@
     </row>
     <row r="2" spans="1:12" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
         <v>97</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="G2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
+        <v>104</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45456</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" t="s">
         <v>91</v>
       </c>
-      <c r="C3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" t="s">
-        <v>95</v>
-      </c>
       <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
+        <v>104</v>
+      </c>
+      <c r="I3" s="5">
+        <v>45456</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="L3" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
+        <v>104</v>
+      </c>
+      <c r="I4" s="5">
+        <v>45456</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>107</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="L4" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -1795,8 +1867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0480C7CA-473F-457D-87E4-6AC03E242266}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1808,9 +1880,11 @@
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="55.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="73.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -1818,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1842,10 +1916,10 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
@@ -1853,72 +1927,72 @@
     </row>
     <row r="2" spans="1:12" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" t="s">
         <v>100</v>
       </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>104</v>
       </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
+      <c r="I2" s="5">
+        <v>45456</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" s="5">
+        <v>45456</v>
+      </c>
+      <c r="J3" t="s">
         <v>105</v>
       </c>
-      <c r="C3" t="s">
+      <c r="L3" t="s">
         <v>106</v>
-      </c>
-      <c r="D3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/単体テスト.xlsx
+++ b/単体テスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89676B36-7766-48B1-B5F8-94766254B24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7106B2-F05A-46D7-BF37-E985C323A75A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アカウント登録画面_テストケース" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="421">
   <si>
     <t>テストケースID</t>
   </si>
@@ -317,11 +317,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1. 確認画面で「登録する」ボタンをクリックする
-2. エラーメッセージが表示されることを確認する</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>テキストボックスによる入力チェック（未入力時エラーメッセージ）</t>
     <rPh sb="11" eb="13">
       <t>ニュウリョク</t>
@@ -427,10 +422,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>TC103</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>正しい画面表示（画面中央に大きくテキスト表示）
 「登録完了しました」</t>
     <rPh sb="0" eb="1">
@@ -442,10 +433,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1. 登録完了画面が正しく表示されることを確認する</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>登録完了画面中央に「登録完了しました」というメッセージがテキスト表示される</t>
     <rPh sb="6" eb="8">
       <t>チュウオウ</t>
@@ -564,16 +551,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>エラーが表示されずに画面遷移してしまった</t>
-    <rPh sb="4" eb="6">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="10" eb="14">
-      <t>ガメンセンイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ボタン形式による画面遷移</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -651,9 +628,6 @@
     <t>田中</t>
   </si>
   <si>
-    <t>6月13日</t>
-  </si>
-  <si>
     <t>未実施</t>
   </si>
   <si>
@@ -714,9 +688,6 @@
   </si>
   <si>
     <t>登録確認画面のUIチェック</t>
-  </si>
-  <si>
-    <t>名前（姓）フィールドが正しく表示されているか確認</t>
   </si>
   <si>
     <t>1. アカウント登録確認画面にアクセスする
@@ -1685,19 +1656,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>住所（市町区村）の入力が不正な場合のエラーメッセージ表示、半角英字入力</t>
-    <rPh sb="29" eb="31">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>エイジ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>テキストボックスによる入力チェック「住所（番地）はひらがな、
 漢字、数字、カタカナ、記号（ハイフンとスペース）のみ入力可</t>
     <rPh sb="11" eb="13">
@@ -2338,30 +2296,567 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>適当な住所（番地）の入力</t>
+    <t>住所（市町区村）の入力が不正な場合のエラーメッセージ表示、半角英字入力</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テキストボックスによる入力チェック「住所（市町区村）はひらがな、
+漢字、数字、カタカナ、記号（ハイフンとスペース）のみ入力可</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>住所（市町区村）の入力が適当な場合、半角数字入力</t>
+    <rPh sb="12" eb="14">
+      <t>テキトウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>住所（市町区村）の入力が適当な場合、全角数字入力</t>
+    <rPh sb="12" eb="14">
+      <t>テキトウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. アカウント登録画面にアクセスする
+2. 住所（市町区村）に半角数字を入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="32" eb="34">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>スウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. アカウント登録画面にアクセスする
+2. 住所（市町区村）に全角数字を入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="32" eb="34">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>スウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力した内容がテキストボックスに表示される。エラーメッセージは表示されない</t>
     <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テキストボックスによる入力チェック「住所（番地）はひらがな、
+漢字、数字、カタカナ、記号（ハイフンとスペース）のみ入力可</t>
+    <rPh sb="21" eb="23">
+      <t>バンチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>住所（番地）の入力が適当な場合、半角数字入力</t>
+    <rPh sb="3" eb="5">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
       <t>テキトウ</t>
     </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>住所（番地）の入力が適当な場合、全角数字入力</t>
     <rPh sb="3" eb="5">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
       <t>バンチ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. アカウント登録画面にアクセスする
-2. 住所（番地）に適当な入力をする
+    <rPh sb="10" eb="12">
+      <t>テキトウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. アカウント登録画面にアクセスする
+2. 住所（番地）に半角数字を入力する
 3. 「確認する」ボタンをクリックする</t>
     <rPh sb="26" eb="28">
       <t>バンチ</t>
     </rPh>
     <rPh sb="30" eb="32">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>スウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. アカウント登録画面にアクセスする
+2. 住所（番地）に全角数字を入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="26" eb="28">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>スウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>住所（市町区村）の入力が適当な場合、ひらがな入力</t>
+    <rPh sb="12" eb="14">
       <t>テキトウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>住所（市町区村）の入力が適当な場合、カタカナ入力</t>
+    <rPh sb="12" eb="14">
+      <t>テキトウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>住所（市町区村）の入力が適当な場合、漢字入力</t>
+    <rPh sb="12" eb="14">
+      <t>テキトウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>住所（市町区村）の入力が適当な場合、記号（ハイフンとスペース）のみ入力</t>
+    <rPh sb="12" eb="14">
+      <t>テキトウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キゴウ</t>
     </rPh>
     <rPh sb="33" eb="35">
       <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. アカウント登録画面にアクセスする
+2. 住所（市町区村）にひらがなを入力する
+3. 「確認する」ボタンをクリックする</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. アカウント登録画面にアクセスする
+2. 住所（市町区村）にカタカナを入力する
+3. 「確認する」ボタンをクリックする</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. アカウント登録画面にアクセスする
+2. 住所（市町区村）に漢字を入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="32" eb="33">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. アカウント登録画面にアクセスする
+2. 住所（市町区村）に記号（ハイフンとスペース）を入力する
+3. 「確認する」ボタンをクリックする</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>住所（番地）の入力が適当な場合、ひらがな入力</t>
+    <rPh sb="3" eb="5">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テキトウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>住所（番地）の入力が適当な場合、カタカナ入力</t>
+    <rPh sb="3" eb="5">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テキトウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>住所（番地）の入力が適当な場合、漢字入力</t>
+    <rPh sb="3" eb="5">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テキトウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>住所（番地）の入力が適当な場合、記号（ハイフンとスペース）のみ入力</t>
+    <rPh sb="3" eb="5">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テキトウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. アカウント登録画面にアクセスする
+2. 住所（番地）に記号（ハイフンとスペース）のみを入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="26" eb="28">
+      <t>バンチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. アカウント登録画面にアクセスする
+2. 住所（番地）に漢字を入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="26" eb="28">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. アカウント登録画面にアクセスする
+2. 住所（番地）にカタカナを入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="26" eb="28">
+      <t>バンチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. アカウント登録画面にアクセスする
+2. 住所（番地）にひらがなを入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="26" eb="28">
+      <t>バンチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC071</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC072</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC073</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC074</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC075</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC076</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC077</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC078</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC079</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC080</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC081</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC082</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC083</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC084</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC085</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC086</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC087</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. アカウント登録画面にアクセスする
+2. 「名前（姓）」にひらがなを入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="24" eb="26">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. アカウント登録画面にアクセスする
+2. 「名前（姓）」に漢字を入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="24" eb="26">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カンジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>田中</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テキストボックスによる入力チェック「名前（姓）」はひらがな、漢字のみ入力可</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テキストボックスによる入力チェック「名前（名）」はひらがな、漢字のみ入力可</t>
+    <rPh sb="21" eb="22">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名前（姓）の入力が適当な場合、ひらがな入力</t>
+    <rPh sb="9" eb="11">
+      <t>テキトウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名前（姓）の入力が適当な場合、漢字入力</t>
+    <rPh sb="9" eb="11">
+      <t>テキトウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>郵便番号の入力が適当な場合、半角数字</t>
+    <rPh sb="0" eb="4">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>テキトウ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>ハンカクスウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. アカウント登録画面にアクセスする
+2. 「郵便番号」に半角数字を入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="24" eb="28">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>スウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名前（姓）フィールドが正しく表示されているか確認</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テストケース名</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC203</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.XAMPPのMySQLを停止させ、データベース接続ができないようにする
+2. 確認画面で「登録する」ボタンをクリックする
+3. エラーメッセージが表示されることを確認する</t>
+    <rPh sb="14" eb="16">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 登録完了画面にアクセスし、正しく表示されることを確認する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーメッセージが表示されない</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2429,7 +2924,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2444,8 +2939,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2750,10 +3243,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62480909-208B-4007-9E2D-1D72FFEAF5A7}">
-  <dimension ref="A1:J84"/>
+  <dimension ref="A1:J108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -2807,31 +3300,31 @@
         <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" t="s">
         <v>28</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G2" s="5">
         <v>45456</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
@@ -2839,10 +3332,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>42</v>
@@ -2851,16 +3344,16 @@
         <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G3" s="5">
         <v>45456</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
@@ -2868,28 +3361,28 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D4" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" t="s">
         <v>43</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G4" s="5">
         <v>45456</v>
       </c>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
@@ -2897,31 +3390,31 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" t="s">
         <v>44</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G5" s="5">
         <v>45456</v>
       </c>
       <c r="H5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -2929,10 +3422,10 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>45</v>
@@ -2941,16 +3434,16 @@
         <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G6" s="5">
         <v>45456</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -2961,25 +3454,25 @@
         <v>52</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D7" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G7" s="5">
         <v>45456</v>
       </c>
       <c r="H7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -2987,28 +3480,28 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D8" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" t="s">
         <v>46</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G8" s="5">
         <v>45456</v>
       </c>
       <c r="H8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -3019,25 +3512,25 @@
         <v>53</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D9" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G9" s="5">
         <v>45456</v>
       </c>
       <c r="H9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
@@ -3045,7 +3538,7 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>33</v>
@@ -3057,16 +3550,16 @@
         <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G10" s="5">
         <v>45456</v>
       </c>
       <c r="H10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
@@ -3074,7 +3567,7 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>31</v>
@@ -3086,16 +3579,16 @@
         <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G11" s="5">
         <v>45456</v>
       </c>
       <c r="H11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -3106,25 +3599,25 @@
         <v>53</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>80</v>
+        <v>155</v>
+      </c>
+      <c r="D12" t="s">
+        <v>77</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G12" s="5">
         <v>45456</v>
       </c>
       <c r="H12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -3132,1779 +3625,2216 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C13" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G13" s="5">
         <v>45465</v>
       </c>
       <c r="H13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B14" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E14" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G14" s="5">
         <v>45465</v>
       </c>
       <c r="H14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J14" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B15" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E15" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G15" s="5">
         <v>45465</v>
       </c>
       <c r="H15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J15" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B16" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D16" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E16" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G16" s="5">
         <v>45465</v>
       </c>
       <c r="H16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J16" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B17" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D17" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E17" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F17" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G17" s="5">
         <v>45465</v>
       </c>
       <c r="H17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J17" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>220</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>326</v>
+        <v>214</v>
+      </c>
+      <c r="B18" t="s">
+        <v>319</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D18" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E18" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F18" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G18" s="5">
         <v>45465</v>
       </c>
       <c r="H18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J18" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>162</v>
+      <c r="A19" t="s">
+        <v>215</v>
+      </c>
+      <c r="B19" t="s">
+        <v>320</v>
+      </c>
+      <c r="C19" t="s">
+        <v>156</v>
       </c>
       <c r="D19" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E19" t="s">
-        <v>185</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>95</v>
+        <v>179</v>
+      </c>
+      <c r="F19" t="s">
+        <v>91</v>
       </c>
       <c r="G19" s="5">
         <v>45465</v>
       </c>
       <c r="H19" t="s">
-        <v>75</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>98</v>
+        <v>72</v>
+      </c>
+      <c r="J19" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>164</v>
+      <c r="A20" t="s">
+        <v>216</v>
+      </c>
+      <c r="B20" t="s">
+        <v>320</v>
+      </c>
+      <c r="C20" t="s">
+        <v>158</v>
       </c>
       <c r="D20" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E20" t="s">
-        <v>215</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>95</v>
+        <v>209</v>
+      </c>
+      <c r="F20" t="s">
+        <v>91</v>
       </c>
       <c r="G20" s="5">
         <v>45465</v>
       </c>
       <c r="H20" t="s">
-        <v>75</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>98</v>
+        <v>72</v>
+      </c>
+      <c r="J20" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>163</v>
+      <c r="A21" t="s">
+        <v>217</v>
+      </c>
+      <c r="B21" t="s">
+        <v>320</v>
+      </c>
+      <c r="C21" t="s">
+        <v>157</v>
       </c>
       <c r="D21" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E21" t="s">
-        <v>214</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>95</v>
+        <v>208</v>
+      </c>
+      <c r="F21" t="s">
+        <v>91</v>
       </c>
       <c r="G21" s="5">
         <v>45465</v>
       </c>
       <c r="H21" t="s">
-        <v>75</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>98</v>
+        <v>72</v>
+      </c>
+      <c r="J21" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>165</v>
+      <c r="A22" t="s">
+        <v>218</v>
+      </c>
+      <c r="B22" t="s">
+        <v>320</v>
+      </c>
+      <c r="C22" t="s">
+        <v>159</v>
       </c>
       <c r="D22" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E22" t="s">
-        <v>213</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>95</v>
+        <v>207</v>
+      </c>
+      <c r="F22" t="s">
+        <v>91</v>
       </c>
       <c r="G22" s="5">
         <v>45465</v>
       </c>
       <c r="H22" t="s">
-        <v>75</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>98</v>
+        <v>72</v>
+      </c>
+      <c r="J22" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>166</v>
+      <c r="A23" t="s">
+        <v>219</v>
+      </c>
+      <c r="B23" t="s">
+        <v>320</v>
+      </c>
+      <c r="C23" t="s">
+        <v>160</v>
       </c>
       <c r="D23" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E23" t="s">
-        <v>212</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>95</v>
+        <v>206</v>
+      </c>
+      <c r="F23" t="s">
+        <v>91</v>
       </c>
       <c r="G23" s="5">
         <v>45465</v>
       </c>
       <c r="H23" t="s">
-        <v>75</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>98</v>
+        <v>72</v>
+      </c>
+      <c r="J23" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>167</v>
+      <c r="A24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B24" t="s">
+        <v>320</v>
+      </c>
+      <c r="C24" t="s">
+        <v>161</v>
       </c>
       <c r="D24" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E24" t="s">
-        <v>211</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>95</v>
+        <v>205</v>
+      </c>
+      <c r="F24" t="s">
+        <v>91</v>
       </c>
       <c r="G24" s="5">
         <v>45465</v>
       </c>
       <c r="H24" t="s">
-        <v>75</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>98</v>
+        <v>72</v>
+      </c>
+      <c r="J24" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>328</v>
+      <c r="A25" t="s">
+        <v>221</v>
+      </c>
+      <c r="B25" t="s">
+        <v>321</v>
       </c>
       <c r="C25" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D25" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E25" t="s">
-        <v>210</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>95</v>
+        <v>204</v>
+      </c>
+      <c r="F25" t="s">
+        <v>91</v>
       </c>
       <c r="G25" s="5">
         <v>45465</v>
       </c>
       <c r="H25" t="s">
-        <v>75</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>98</v>
+        <v>72</v>
+      </c>
+      <c r="J25" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>328</v>
+      <c r="A26" t="s">
+        <v>222</v>
+      </c>
+      <c r="B26" t="s">
+        <v>321</v>
       </c>
       <c r="C26" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D26" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E26" t="s">
-        <v>209</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>95</v>
+        <v>203</v>
+      </c>
+      <c r="F26" t="s">
+        <v>91</v>
       </c>
       <c r="G26" s="5">
         <v>45465</v>
       </c>
       <c r="H26" t="s">
-        <v>75</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>98</v>
+        <v>72</v>
+      </c>
+      <c r="J26" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>170</v>
+      <c r="A27" t="s">
+        <v>223</v>
+      </c>
+      <c r="B27" t="s">
+        <v>322</v>
+      </c>
+      <c r="C27" t="s">
+        <v>164</v>
       </c>
       <c r="D27" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E27" t="s">
-        <v>208</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>95</v>
+        <v>202</v>
+      </c>
+      <c r="F27" t="s">
+        <v>91</v>
       </c>
       <c r="G27" s="5">
         <v>45465</v>
       </c>
       <c r="H27" t="s">
-        <v>75</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>98</v>
+        <v>72</v>
+      </c>
+      <c r="J27" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>171</v>
+      <c r="A28" t="s">
+        <v>224</v>
+      </c>
+      <c r="B28" t="s">
+        <v>322</v>
+      </c>
+      <c r="C28" t="s">
+        <v>165</v>
       </c>
       <c r="D28" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E28" t="s">
-        <v>207</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>95</v>
+        <v>201</v>
+      </c>
+      <c r="F28" t="s">
+        <v>91</v>
       </c>
       <c r="G28" s="5">
         <v>45465</v>
       </c>
       <c r="H28" t="s">
-        <v>75</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>98</v>
+        <v>72</v>
+      </c>
+      <c r="J28" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>172</v>
+      <c r="A29" t="s">
+        <v>225</v>
+      </c>
+      <c r="B29" t="s">
+        <v>322</v>
+      </c>
+      <c r="C29" t="s">
+        <v>166</v>
       </c>
       <c r="D29" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E29" t="s">
-        <v>206</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>95</v>
+        <v>200</v>
+      </c>
+      <c r="F29" t="s">
+        <v>91</v>
       </c>
       <c r="G29" s="5">
         <v>45465</v>
       </c>
       <c r="H29" t="s">
-        <v>75</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>98</v>
+        <v>72</v>
+      </c>
+      <c r="J29" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>330</v>
+      <c r="A30" t="s">
+        <v>226</v>
+      </c>
+      <c r="B30" t="s">
+        <v>323</v>
       </c>
       <c r="C30" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D30" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E30" t="s">
-        <v>205</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>95</v>
+        <v>199</v>
+      </c>
+      <c r="F30" t="s">
+        <v>91</v>
       </c>
       <c r="G30" s="5">
         <v>45465</v>
       </c>
       <c r="H30" t="s">
-        <v>75</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>98</v>
+        <v>72</v>
+      </c>
+      <c r="J30" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>174</v>
+      <c r="A31" t="s">
+        <v>227</v>
+      </c>
+      <c r="B31" t="s">
+        <v>324</v>
+      </c>
+      <c r="C31" t="s">
+        <v>168</v>
       </c>
       <c r="D31" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E31" t="s">
-        <v>204</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>95</v>
+        <v>198</v>
+      </c>
+      <c r="F31" t="s">
+        <v>91</v>
       </c>
       <c r="G31" s="5">
         <v>45465</v>
       </c>
       <c r="H31" t="s">
-        <v>75</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>98</v>
+        <v>72</v>
+      </c>
+      <c r="J31" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>175</v>
+      <c r="A32" t="s">
+        <v>228</v>
+      </c>
+      <c r="B32" t="s">
+        <v>324</v>
+      </c>
+      <c r="C32" t="s">
+        <v>169</v>
       </c>
       <c r="D32" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E32" t="s">
-        <v>203</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>95</v>
+        <v>197</v>
+      </c>
+      <c r="F32" t="s">
+        <v>91</v>
       </c>
       <c r="G32" s="5">
         <v>45465</v>
       </c>
       <c r="H32" t="s">
-        <v>75</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>98</v>
+        <v>72</v>
+      </c>
+      <c r="J32" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>176</v>
+      <c r="A33" t="s">
+        <v>229</v>
+      </c>
+      <c r="B33" t="s">
+        <v>324</v>
+      </c>
+      <c r="C33" t="s">
+        <v>170</v>
       </c>
       <c r="D33" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E33" t="s">
-        <v>202</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>95</v>
+        <v>196</v>
+      </c>
+      <c r="F33" t="s">
+        <v>91</v>
       </c>
       <c r="G33" s="5">
         <v>45465</v>
       </c>
       <c r="H33" t="s">
-        <v>75</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>98</v>
+        <v>72</v>
+      </c>
+      <c r="J33" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>177</v>
+      <c r="A34" t="s">
+        <v>230</v>
+      </c>
+      <c r="B34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C34" t="s">
+        <v>171</v>
       </c>
       <c r="D34" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E34" t="s">
-        <v>201</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>95</v>
+        <v>195</v>
+      </c>
+      <c r="F34" t="s">
+        <v>91</v>
       </c>
       <c r="G34" s="5">
         <v>45465</v>
       </c>
       <c r="H34" t="s">
-        <v>75</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>98</v>
+        <v>72</v>
+      </c>
+      <c r="J34" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>179</v>
+      <c r="A35" t="s">
+        <v>231</v>
+      </c>
+      <c r="B35" t="s">
+        <v>325</v>
+      </c>
+      <c r="C35" t="s">
+        <v>173</v>
       </c>
       <c r="D35" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E35" t="s">
-        <v>200</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>95</v>
+        <v>194</v>
+      </c>
+      <c r="F35" t="s">
+        <v>91</v>
       </c>
       <c r="G35" s="5">
         <v>45465</v>
       </c>
       <c r="H35" t="s">
-        <v>75</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>98</v>
+        <v>72</v>
+      </c>
+      <c r="J35" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>178</v>
+      <c r="A36" t="s">
+        <v>232</v>
+      </c>
+      <c r="B36" t="s">
+        <v>325</v>
+      </c>
+      <c r="C36" t="s">
+        <v>172</v>
       </c>
       <c r="D36" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E36" t="s">
-        <v>199</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>95</v>
+        <v>193</v>
+      </c>
+      <c r="F36" t="s">
+        <v>91</v>
       </c>
       <c r="G36" s="5">
         <v>45465</v>
       </c>
       <c r="H36" t="s">
-        <v>75</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>98</v>
+        <v>72</v>
+      </c>
+      <c r="J36" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>240</v>
+      <c r="A37" t="s">
+        <v>281</v>
+      </c>
+      <c r="B37" t="s">
+        <v>234</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>74</v>
+        <v>277</v>
+      </c>
+      <c r="F37" t="s">
+        <v>71</v>
       </c>
       <c r="G37" s="5">
         <v>45465</v>
       </c>
-      <c r="H37" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>240</v>
+      <c r="H37" t="s">
+        <v>72</v>
+      </c>
+      <c r="J37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>282</v>
+      </c>
+      <c r="B38" t="s">
+        <v>234</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>95</v>
+        <v>277</v>
+      </c>
+      <c r="F38" t="s">
+        <v>91</v>
       </c>
       <c r="G38" s="5">
         <v>45465</v>
       </c>
-      <c r="H38" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>240</v>
+      <c r="H38" t="s">
+        <v>72</v>
+      </c>
+      <c r="J38" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>283</v>
+      </c>
+      <c r="B39" t="s">
+        <v>234</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>95</v>
+        <v>277</v>
+      </c>
+      <c r="F39" t="s">
+        <v>91</v>
       </c>
       <c r="G39" s="5">
         <v>45465</v>
       </c>
-      <c r="H39" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>239</v>
+      <c r="H39" t="s">
+        <v>72</v>
+      </c>
+      <c r="J39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>284</v>
+      </c>
+      <c r="B40" t="s">
+        <v>233</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>95</v>
+        <v>277</v>
+      </c>
+      <c r="F40" t="s">
+        <v>91</v>
       </c>
       <c r="G40" s="5">
         <v>45465</v>
       </c>
-      <c r="H40" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>244</v>
+      <c r="H40" t="s">
+        <v>72</v>
+      </c>
+      <c r="J40" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>285</v>
+      </c>
+      <c r="B41" t="s">
+        <v>409</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>245</v>
+        <v>411</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>337</v>
+        <v>406</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G41" s="5">
-        <v>45465</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>244</v>
+        <v>367</v>
+      </c>
+      <c r="F41" t="s">
+        <v>91</v>
+      </c>
+      <c r="G41" s="5"/>
+      <c r="J41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>286</v>
+      </c>
+      <c r="B42" t="s">
+        <v>233</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>246</v>
+        <v>412</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>338</v>
+        <v>407</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G42" s="5">
-        <v>45465</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>244</v>
+        <v>367</v>
+      </c>
+      <c r="F42" t="s">
+        <v>91</v>
+      </c>
+      <c r="G42" s="5"/>
+      <c r="J42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>287</v>
+      </c>
+      <c r="B43" t="s">
+        <v>238</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>95</v>
+        <v>278</v>
+      </c>
+      <c r="F43" t="s">
+        <v>91</v>
       </c>
       <c r="G43" s="5">
         <v>45465</v>
       </c>
-      <c r="H43" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>244</v>
+      <c r="H43" t="s">
+        <v>72</v>
+      </c>
+      <c r="J43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>288</v>
+      </c>
+      <c r="B44" t="s">
+        <v>238</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>95</v>
+        <v>278</v>
+      </c>
+      <c r="F44" t="s">
+        <v>91</v>
       </c>
       <c r="G44" s="5">
         <v>45465</v>
       </c>
-      <c r="H44" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>250</v>
+      <c r="H44" t="s">
+        <v>72</v>
+      </c>
+      <c r="J44" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>289</v>
+      </c>
+      <c r="B45" t="s">
+        <v>238</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>95</v>
+        <v>332</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F45" t="s">
+        <v>91</v>
       </c>
       <c r="G45" s="5">
         <v>45465</v>
       </c>
-      <c r="H45" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>250</v>
+      <c r="H45" t="s">
+        <v>72</v>
+      </c>
+      <c r="J45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>290</v>
+      </c>
+      <c r="B46" t="s">
+        <v>238</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>95</v>
+        <v>333</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F46" t="s">
+        <v>408</v>
       </c>
       <c r="G46" s="5">
         <v>45465</v>
       </c>
-      <c r="H46" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>250</v>
+      <c r="H46" t="s">
+        <v>72</v>
+      </c>
+      <c r="J46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>291</v>
+      </c>
+      <c r="B47" t="s">
+        <v>410</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>253</v>
+        <v>411</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G47" s="5">
-        <v>45465</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>250</v>
+        <v>406</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F47" t="s">
+        <v>91</v>
+      </c>
+      <c r="G47" s="5"/>
+      <c r="J47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>292</v>
+      </c>
+      <c r="B48" t="s">
+        <v>233</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>254</v>
+        <v>412</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G48" s="5">
-        <v>45465</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J48" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>250</v>
+        <v>407</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F48" t="s">
+        <v>91</v>
+      </c>
+      <c r="G48" s="5"/>
+      <c r="J48" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>293</v>
+      </c>
+      <c r="B49" t="s">
+        <v>244</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>95</v>
+        <v>279</v>
+      </c>
+      <c r="F49" t="s">
+        <v>91</v>
       </c>
       <c r="G49" s="5">
         <v>45465</v>
       </c>
-      <c r="H49" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>256</v>
+      <c r="H49" t="s">
+        <v>72</v>
+      </c>
+      <c r="J49" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>294</v>
+      </c>
+      <c r="B50" t="s">
+        <v>244</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>95</v>
+        <v>279</v>
+      </c>
+      <c r="F50" t="s">
+        <v>91</v>
       </c>
       <c r="G50" s="5">
         <v>45465</v>
       </c>
-      <c r="H50" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>256</v>
+      <c r="H50" t="s">
+        <v>72</v>
+      </c>
+      <c r="J50" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>295</v>
+      </c>
+      <c r="B51" t="s">
+        <v>244</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>95</v>
+        <v>279</v>
+      </c>
+      <c r="F51" t="s">
+        <v>91</v>
       </c>
       <c r="G51" s="5">
         <v>45465</v>
       </c>
-      <c r="H51" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J51" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>256</v>
+      <c r="H51" t="s">
+        <v>72</v>
+      </c>
+      <c r="J51" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>296</v>
+      </c>
+      <c r="B52" t="s">
+        <v>244</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>95</v>
+        <v>279</v>
+      </c>
+      <c r="F52" t="s">
+        <v>91</v>
       </c>
       <c r="G52" s="5">
         <v>45465</v>
       </c>
-      <c r="H52" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J52" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>256</v>
+      <c r="H52" t="s">
+        <v>72</v>
+      </c>
+      <c r="J52" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>297</v>
+      </c>
+      <c r="B53" t="s">
+        <v>244</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>95</v>
+        <v>279</v>
+      </c>
+      <c r="F53" t="s">
+        <v>91</v>
       </c>
       <c r="G53" s="5">
         <v>45465</v>
       </c>
-      <c r="H53" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J53" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>256</v>
+      <c r="H53" t="s">
+        <v>72</v>
+      </c>
+      <c r="J53" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>298</v>
+      </c>
+      <c r="B54" t="s">
+        <v>250</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>95</v>
+        <v>280</v>
+      </c>
+      <c r="F54" t="s">
+        <v>91</v>
       </c>
       <c r="G54" s="5">
         <v>45465</v>
       </c>
-      <c r="H54" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J54" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>262</v>
+      <c r="H54" t="s">
+        <v>72</v>
+      </c>
+      <c r="J54" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>299</v>
+      </c>
+      <c r="B55" t="s">
+        <v>250</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>95</v>
+        <v>340</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F55" t="s">
+        <v>91</v>
       </c>
       <c r="G55" s="5">
         <v>45465</v>
       </c>
-      <c r="H55" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J55" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>262</v>
+      <c r="H55" t="s">
+        <v>72</v>
+      </c>
+      <c r="J55" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>300</v>
+      </c>
+      <c r="B56" t="s">
+        <v>250</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>95</v>
+        <v>341</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F56" t="s">
+        <v>91</v>
       </c>
       <c r="G56" s="5">
         <v>45465</v>
       </c>
-      <c r="H56" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J56" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>262</v>
+      <c r="H56" t="s">
+        <v>72</v>
+      </c>
+      <c r="J56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>301</v>
+      </c>
+      <c r="B57" t="s">
+        <v>250</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>95</v>
+        <v>342</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F57" t="s">
+        <v>91</v>
       </c>
       <c r="G57" s="5">
         <v>45465</v>
       </c>
-      <c r="H57" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J57" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>262</v>
+      <c r="H57" t="s">
+        <v>72</v>
+      </c>
+      <c r="J57" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>302</v>
+      </c>
+      <c r="B58" t="s">
+        <v>250</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>95</v>
+        <v>343</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F58" t="s">
+        <v>91</v>
       </c>
       <c r="G58" s="5">
         <v>45465</v>
       </c>
-      <c r="H58" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J58" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>262</v>
+      <c r="H58" t="s">
+        <v>72</v>
+      </c>
+      <c r="J58" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>303</v>
+      </c>
+      <c r="B59" t="s">
+        <v>256</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F59" s="7" t="s">
-        <v>95</v>
+      <c r="F59" t="s">
+        <v>91</v>
       </c>
       <c r="G59" s="5">
         <v>45465</v>
       </c>
-      <c r="H59" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J59" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A60" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>268</v>
+      <c r="H59" t="s">
+        <v>72</v>
+      </c>
+      <c r="J59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>304</v>
+      </c>
+      <c r="B60" t="s">
+        <v>256</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>95</v>
+        <v>345</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F60" t="s">
+        <v>91</v>
       </c>
       <c r="G60" s="5">
         <v>45465</v>
       </c>
-      <c r="H60" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J60" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A61" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>268</v>
+      <c r="H60" t="s">
+        <v>72</v>
+      </c>
+      <c r="J60" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>305</v>
+      </c>
+      <c r="B61" t="s">
+        <v>256</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>95</v>
+        <v>347</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F61" t="s">
+        <v>91</v>
       </c>
       <c r="G61" s="5">
         <v>45465</v>
       </c>
-      <c r="H61" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J61" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A62" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>268</v>
+      <c r="H61" t="s">
+        <v>72</v>
+      </c>
+      <c r="J61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>306</v>
+      </c>
+      <c r="B62" t="s">
+        <v>256</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>95</v>
+        <v>346</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F62" t="s">
+        <v>91</v>
       </c>
       <c r="G62" s="5">
         <v>45465</v>
       </c>
-      <c r="H62" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J62" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>272</v>
+      <c r="H62" t="s">
+        <v>72</v>
+      </c>
+      <c r="J62" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>307</v>
+      </c>
+      <c r="B63" t="s">
+        <v>256</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>95</v>
+        <v>348</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F63" t="s">
+        <v>91</v>
       </c>
       <c r="G63" s="5">
         <v>45465</v>
       </c>
-      <c r="H63" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J63" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>272</v>
+      <c r="H63" t="s">
+        <v>72</v>
+      </c>
+      <c r="J63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>308</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>95</v>
+        <v>17</v>
+      </c>
+      <c r="F64" t="s">
+        <v>91</v>
       </c>
       <c r="G64" s="5">
         <v>45465</v>
       </c>
-      <c r="H64" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J64" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>272</v>
+      <c r="H64" t="s">
+        <v>74</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>309</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>95</v>
+        <v>17</v>
+      </c>
+      <c r="F65" t="s">
+        <v>91</v>
       </c>
       <c r="G65" s="5">
         <v>45465</v>
       </c>
-      <c r="H65" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J65" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>272</v>
+      <c r="H65" t="s">
+        <v>74</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>310</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>95</v>
+        <v>17</v>
+      </c>
+      <c r="F66" t="s">
+        <v>91</v>
       </c>
       <c r="G66" s="5">
         <v>45465</v>
       </c>
-      <c r="H66" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J66" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>272</v>
+      <c r="H66" t="s">
+        <v>74</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>311</v>
+      </c>
+      <c r="B67" t="s">
+        <v>266</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F67" s="7" t="s">
-        <v>95</v>
+      <c r="F67" t="s">
+        <v>91</v>
       </c>
       <c r="G67" s="5">
         <v>45465</v>
       </c>
-      <c r="H67" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J67" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A68" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>278</v>
+      <c r="H67" t="s">
+        <v>72</v>
+      </c>
+      <c r="J67" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>312</v>
+      </c>
+      <c r="B68" t="s">
+        <v>266</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>95</v>
+        <v>353</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F68" t="s">
+        <v>91</v>
       </c>
       <c r="G68" s="5">
         <v>45465</v>
       </c>
-      <c r="H68" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J68" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A69" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>278</v>
+      <c r="H68" t="s">
+        <v>72</v>
+      </c>
+      <c r="J68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>313</v>
+      </c>
+      <c r="B69" t="s">
+        <v>266</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>95</v>
+        <v>355</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F69" t="s">
+        <v>91</v>
       </c>
       <c r="G69" s="5">
         <v>45465</v>
       </c>
-      <c r="H69" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J69" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A70" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>281</v>
+      <c r="H69" t="s">
+        <v>72</v>
+      </c>
+      <c r="J69" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>314</v>
+      </c>
+      <c r="B70" t="s">
+        <v>266</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>95</v>
+        <v>354</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F70" t="s">
+        <v>91</v>
       </c>
       <c r="G70" s="5">
         <v>45465</v>
       </c>
-      <c r="H70" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J70" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" s="7" customFormat="1" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="A71" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>281</v>
+      <c r="H70" t="s">
+        <v>72</v>
+      </c>
+      <c r="J70" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>315</v>
+      </c>
+      <c r="B71" t="s">
+        <v>266</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>74</v>
+        <v>356</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F71" t="s">
+        <v>91</v>
       </c>
       <c r="G71" s="5">
         <v>45465</v>
       </c>
-      <c r="H71" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J71" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
-      <c r="B72" s="3" t="s">
-        <v>281</v>
+      <c r="H71" t="s">
+        <v>72</v>
+      </c>
+      <c r="J71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>389</v>
+      </c>
+      <c r="B72" t="s">
+        <v>266</v>
       </c>
       <c r="C72" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F72" t="s">
+        <v>91</v>
+      </c>
+      <c r="G72" s="5"/>
+    </row>
+    <row r="73" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>390</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F73" t="s">
+        <v>91</v>
+      </c>
+      <c r="G73" s="5">
+        <v>45465</v>
+      </c>
+      <c r="H73" t="s">
+        <v>72</v>
+      </c>
+      <c r="J73" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>391</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F74" t="s">
+        <v>91</v>
+      </c>
+      <c r="G74" s="5">
+        <v>45465</v>
+      </c>
+      <c r="H74" t="s">
+        <v>72</v>
+      </c>
+      <c r="J74" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>392</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F75" t="s">
+        <v>91</v>
+      </c>
+      <c r="G75" s="5"/>
+      <c r="J75" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>393</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F76" t="s">
+        <v>91</v>
+      </c>
+      <c r="G76" s="5"/>
+      <c r="J76" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>394</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F77" t="s">
+        <v>91</v>
+      </c>
+      <c r="G77" s="5"/>
+      <c r="J77" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>395</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F78" t="s">
+        <v>91</v>
+      </c>
+      <c r="G78" s="5"/>
+      <c r="J78" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>396</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F79" t="s">
+        <v>91</v>
+      </c>
+      <c r="G79" s="5"/>
+      <c r="J79" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>397</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F80" t="s">
+        <v>91</v>
+      </c>
+      <c r="G80" s="5"/>
+      <c r="J80" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>398</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F81" t="s">
+        <v>91</v>
+      </c>
+      <c r="G81" s="5">
+        <v>45465</v>
+      </c>
+      <c r="H81" t="s">
+        <v>72</v>
+      </c>
+      <c r="J81" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>399</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F82" t="s">
+        <v>71</v>
+      </c>
+      <c r="G82" s="5">
+        <v>45465</v>
+      </c>
+      <c r="H82" t="s">
+        <v>72</v>
+      </c>
+      <c r="J82" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>400</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="C83" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="G72" s="5"/>
-      <c r="J72" s="7"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G73" s="5"/>
-      <c r="J73" s="7"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G74" s="5"/>
-      <c r="J74" s="7"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G75" s="5"/>
-      <c r="J75" s="7"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G76" s="5"/>
-      <c r="J76" s="7"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G77" s="5"/>
-      <c r="J77" s="7"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G78" s="5"/>
-      <c r="J78" s="7"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G79" s="5"/>
-      <c r="J79" s="7"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G80" s="5"/>
-      <c r="J80" s="7"/>
-    </row>
-    <row r="81" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G81" s="5"/>
-      <c r="J81" s="7"/>
-    </row>
-    <row r="82" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G82" s="5"/>
-    </row>
-    <row r="83" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="D83" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F83" t="s">
+        <v>91</v>
+      </c>
       <c r="G83" s="5"/>
-    </row>
-    <row r="84" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="J83" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>401</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F84" t="s">
+        <v>91</v>
+      </c>
       <c r="G84" s="5"/>
+      <c r="J84" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>402</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F85" t="s">
+        <v>91</v>
+      </c>
+      <c r="G85" s="5"/>
+      <c r="J85" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>403</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F86" t="s">
+        <v>91</v>
+      </c>
+      <c r="G86" s="5"/>
+      <c r="J86" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>404</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F87" t="s">
+        <v>91</v>
+      </c>
+      <c r="G87" s="5"/>
+      <c r="J87" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>405</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F88" t="s">
+        <v>71</v>
+      </c>
+      <c r="G88" s="5"/>
+      <c r="J88" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="2"/>
+      <c r="G89" s="5"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="2"/>
+      <c r="G90" s="5"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="2"/>
+      <c r="G91" s="5"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="2"/>
+      <c r="G92" s="5"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="2"/>
+      <c r="G93" s="5"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="2"/>
+      <c r="G94" s="5"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="2"/>
+      <c r="G95" s="5"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="4"/>
+      <c r="G96" s="5"/>
+    </row>
+    <row r="97" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G97" s="5"/>
+    </row>
+    <row r="98" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G98" s="5"/>
+    </row>
+    <row r="99" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G99" s="5"/>
+    </row>
+    <row r="100" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G100" s="5"/>
+    </row>
+    <row r="101" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G101" s="5"/>
+    </row>
+    <row r="102" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G102" s="5"/>
+    </row>
+    <row r="103" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G103" s="5"/>
+    </row>
+    <row r="104" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G104" s="5"/>
+    </row>
+    <row r="105" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G105" s="5"/>
+    </row>
+    <row r="106" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G106" s="5"/>
+    </row>
+    <row r="107" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G107" s="5"/>
+    </row>
+    <row r="108" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G108" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -4915,22 +5845,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A8C9C6-D49D-4552-A850-BA31FEE15F47}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="75.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="110.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="79.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="43.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
   </cols>
@@ -4943,7 +5873,7 @@
         <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>416</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -4969,392 +5899,320 @@
     </row>
     <row r="2" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" t="s">
         <v>63</v>
       </c>
-      <c r="E2" t="s">
-        <v>64</v>
-      </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G2" s="5">
         <v>45456</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G3" s="5">
         <v>45456</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>55</v>
+        <v>415</v>
+      </c>
+      <c r="D4" t="s">
+        <v>111</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="5">
-        <v>45456</v>
+        <v>91</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="D5" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="E5" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="F5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>117</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="B6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" t="s">
         <v>118</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="D6" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="E6" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="F6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" t="s">
+        <v>92</v>
+      </c>
+      <c r="J6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="B7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" t="s">
         <v>122</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="D7" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="E7" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="B8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" t="s">
         <v>126</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="D8" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="E8" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>129</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="B9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" t="s">
         <v>130</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="D9" t="s">
         <v>131</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="E9" t="s">
         <v>132</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>133</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="B10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" t="s">
         <v>134</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="D10" t="s">
         <v>135</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="E10" t="s">
         <v>136</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="F10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>137</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="B11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" t="s">
         <v>138</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="D11" t="s">
         <v>139</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="E11" t="s">
         <v>140</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="F11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>141</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="B12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" t="s">
         <v>142</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="D12" t="s">
         <v>143</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="E12" t="s">
         <v>144</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="F12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>145</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="B13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" t="s">
         <v>146</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="D13" t="s">
         <v>147</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" s="7" t="s">
+      <c r="E13" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7" t="s">
-        <v>98</v>
+      <c r="F13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -5365,23 +6223,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0480C7CA-473F-457D-87E4-6AC03E242266}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="73.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="78.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5422,28 +6279,28 @@
         <v>23</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>69</v>
+        <v>419</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G2" s="5">
         <v>45456</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
@@ -5451,28 +6308,55 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" t="s">
         <v>71</v>
-      </c>
-      <c r="C3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" t="s">
-        <v>74</v>
       </c>
       <c r="G3" s="5">
         <v>45456</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J3" t="s">
-        <v>76</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="I4" t="s">
+        <v>420</v>
+      </c>
+      <c r="J4" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -5485,7 +6369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FBBA1F-F464-4ADB-BBDA-95C4C140AAD0}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -5535,36 +6419,36 @@
     </row>
     <row r="2" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" t="s">
         <v>88</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/単体テスト.xlsx
+++ b/単体テスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7106B2-F05A-46D7-BF37-E985C323A75A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036715D4-BDAF-4FE9-AE83-A4CFF32423A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アカウント登録画面_テストケース" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="428">
   <si>
     <t>テストケースID</t>
   </si>
@@ -628,9 +628,6 @@
     <t>田中</t>
   </si>
   <si>
-    <t>未実施</t>
-  </si>
-  <si>
     <t>Google Chrome</t>
   </si>
   <si>
@@ -802,9 +799,6 @@
   </si>
   <si>
     <t>TC113</t>
-  </si>
-  <si>
-    <t>住所（市区町村）フィールドが正しく表示されているか確認</t>
   </si>
   <si>
     <t>1. アカウント登録確認画面にアクセスする
@@ -2856,6 +2850,78 @@
   <si>
     <t>エラーメッセージが表示されない</t>
     <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーメッセージが表示される</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>空欄ではなく女と表示されている</t>
+    <rPh sb="0" eb="2">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>米印で表示され文字数も適切でない</t>
+    <rPh sb="0" eb="2">
+      <t>コメジルシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>テキセツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC114</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>住所（市区町村）フィールドが正しく表示されているか確認</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント権限フィールドが正しく表示されているか確認</t>
+    <rPh sb="5" eb="7">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. アカウント登録確認画面にアクセスする
+2. アカウント権限フィールドが正しく表示されていることを確認する</t>
+    <rPh sb="30" eb="32">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント権限フィールドが正しく表示されている</t>
+  </si>
+  <si>
+    <t>管理者と表示されている</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -2924,7 +2990,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2939,6 +3005,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3245,8 +3312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62480909-208B-4007-9E2D-1D72FFEAF5A7}">
   <dimension ref="A1:J108"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -3335,7 +3402,7 @@
         <v>56</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>42</v>
@@ -3364,7 +3431,7 @@
         <v>57</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D4" t="s">
         <v>43</v>
@@ -3425,7 +3492,7 @@
         <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>45</v>
@@ -3454,7 +3521,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
@@ -3483,7 +3550,7 @@
         <v>57</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D8" t="s">
         <v>46</v>
@@ -3512,7 +3579,7 @@
         <v>53</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D9" t="s">
         <v>30</v>
@@ -3599,7 +3666,7 @@
         <v>53</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D12" t="s">
         <v>77</v>
@@ -3625,10 +3692,10 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C13" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D13" t="s">
         <v>89</v>
@@ -3646,24 +3713,24 @@
         <v>72</v>
       </c>
       <c r="J13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B14" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" t="s">
         <v>94</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>95</v>
-      </c>
-      <c r="E14" t="s">
-        <v>96</v>
       </c>
       <c r="F14" t="s">
         <v>91</v>
@@ -3675,24 +3742,24 @@
         <v>72</v>
       </c>
       <c r="J14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B15" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" t="s">
         <v>97</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>98</v>
-      </c>
-      <c r="E15" t="s">
-        <v>99</v>
       </c>
       <c r="F15" t="s">
         <v>91</v>
@@ -3704,24 +3771,24 @@
         <v>72</v>
       </c>
       <c r="J15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B16" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" t="s">
         <v>100</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>101</v>
-      </c>
-      <c r="E16" t="s">
-        <v>102</v>
       </c>
       <c r="F16" t="s">
         <v>91</v>
@@ -3733,24 +3800,24 @@
         <v>72</v>
       </c>
       <c r="J16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B17" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" t="s">
         <v>103</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>104</v>
-      </c>
-      <c r="E17" t="s">
-        <v>105</v>
       </c>
       <c r="F17" t="s">
         <v>91</v>
@@ -3762,24 +3829,24 @@
         <v>72</v>
       </c>
       <c r="J17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B18" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" t="s">
         <v>106</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>107</v>
-      </c>
-      <c r="E18" t="s">
-        <v>108</v>
       </c>
       <c r="F18" t="s">
         <v>91</v>
@@ -3791,24 +3858,24 @@
         <v>72</v>
       </c>
       <c r="J18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B19" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F19" t="s">
         <v>91</v>
@@ -3820,24 +3887,24 @@
         <v>72</v>
       </c>
       <c r="J19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B20" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F20" t="s">
         <v>91</v>
@@ -3849,24 +3916,24 @@
         <v>72</v>
       </c>
       <c r="J20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B21" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D21" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F21" t="s">
         <v>91</v>
@@ -3878,24 +3945,24 @@
         <v>72</v>
       </c>
       <c r="J21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B22" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E22" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F22" t="s">
         <v>91</v>
@@ -3907,24 +3974,24 @@
         <v>72</v>
       </c>
       <c r="J22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B23" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E23" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F23" t="s">
         <v>91</v>
@@ -3936,24 +4003,24 @@
         <v>72</v>
       </c>
       <c r="J23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B24" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C24" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D24" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E24" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F24" t="s">
         <v>91</v>
@@ -3965,24 +4032,24 @@
         <v>72</v>
       </c>
       <c r="J24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B25" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D25" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E25" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F25" t="s">
         <v>91</v>
@@ -3994,24 +4061,24 @@
         <v>72</v>
       </c>
       <c r="J25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B26" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C26" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E26" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F26" t="s">
         <v>91</v>
@@ -4023,24 +4090,24 @@
         <v>72</v>
       </c>
       <c r="J26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B27" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E27" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F27" t="s">
         <v>91</v>
@@ -4052,24 +4119,24 @@
         <v>72</v>
       </c>
       <c r="J27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B28" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F28" t="s">
         <v>91</v>
@@ -4081,24 +4148,24 @@
         <v>72</v>
       </c>
       <c r="J28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B29" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C29" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D29" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E29" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F29" t="s">
         <v>91</v>
@@ -4110,24 +4177,24 @@
         <v>72</v>
       </c>
       <c r="J29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B30" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C30" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D30" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E30" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F30" t="s">
         <v>91</v>
@@ -4139,24 +4206,24 @@
         <v>72</v>
       </c>
       <c r="J30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B31" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C31" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D31" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E31" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F31" t="s">
         <v>91</v>
@@ -4168,24 +4235,24 @@
         <v>72</v>
       </c>
       <c r="J31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B32" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C32" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D32" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E32" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F32" t="s">
         <v>91</v>
@@ -4197,24 +4264,24 @@
         <v>72</v>
       </c>
       <c r="J32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B33" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C33" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D33" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E33" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F33" t="s">
         <v>91</v>
@@ -4226,24 +4293,24 @@
         <v>72</v>
       </c>
       <c r="J33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B34" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C34" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E34" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F34" t="s">
         <v>91</v>
@@ -4255,24 +4322,24 @@
         <v>72</v>
       </c>
       <c r="J34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B35" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C35" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D35" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E35" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F35" t="s">
         <v>91</v>
@@ -4284,24 +4351,24 @@
         <v>72</v>
       </c>
       <c r="J35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B36" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C36" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D36" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E36" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F36" t="s">
         <v>91</v>
@@ -4313,24 +4380,24 @@
         <v>72</v>
       </c>
       <c r="J36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B37" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F37" t="s">
         <v>71</v>
@@ -4347,19 +4414,19 @@
     </row>
     <row r="38" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B38" t="s">
+        <v>232</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>236</v>
-      </c>
       <c r="D38" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F38" t="s">
         <v>91</v>
@@ -4371,24 +4438,24 @@
         <v>72</v>
       </c>
       <c r="J38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B39" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F39" t="s">
         <v>91</v>
@@ -4400,24 +4467,24 @@
         <v>72</v>
       </c>
       <c r="J39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B40" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F40" t="s">
         <v>91</v>
@@ -4429,72 +4496,72 @@
         <v>72</v>
       </c>
       <c r="J40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B41" t="s">
+        <v>407</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>411</v>
-      </c>
       <c r="D41" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F41" t="s">
         <v>91</v>
       </c>
       <c r="G41" s="5"/>
       <c r="J41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B42" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F42" t="s">
         <v>91</v>
       </c>
       <c r="G42" s="5"/>
       <c r="J42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B43" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F43" t="s">
         <v>91</v>
@@ -4506,24 +4573,24 @@
         <v>72</v>
       </c>
       <c r="J43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B44" t="s">
+        <v>236</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>240</v>
-      </c>
       <c r="D44" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F44" t="s">
         <v>91</v>
@@ -4535,24 +4602,24 @@
         <v>72</v>
       </c>
       <c r="J44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B45" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F45" t="s">
         <v>91</v>
@@ -4564,27 +4631,27 @@
         <v>72</v>
       </c>
       <c r="J45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B46" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F46" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G46" s="5">
         <v>45465</v>
@@ -4593,72 +4660,72 @@
         <v>72</v>
       </c>
       <c r="J46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B47" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F47" t="s">
         <v>91</v>
       </c>
       <c r="G47" s="5"/>
       <c r="J47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B48" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F48" t="s">
         <v>91</v>
       </c>
       <c r="G48" s="5"/>
       <c r="J48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B49" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F49" t="s">
         <v>91</v>
@@ -4670,24 +4737,24 @@
         <v>72</v>
       </c>
       <c r="J49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B50" t="s">
+        <v>242</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>246</v>
-      </c>
       <c r="D50" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F50" t="s">
         <v>91</v>
@@ -4699,24 +4766,24 @@
         <v>72</v>
       </c>
       <c r="J50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B51" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F51" t="s">
         <v>91</v>
@@ -4728,24 +4795,24 @@
         <v>72</v>
       </c>
       <c r="J51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B52" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F52" t="s">
         <v>91</v>
@@ -4757,24 +4824,24 @@
         <v>72</v>
       </c>
       <c r="J52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B53" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F53" t="s">
         <v>91</v>
@@ -4786,24 +4853,24 @@
         <v>72</v>
       </c>
       <c r="J53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B54" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F54" t="s">
         <v>91</v>
@@ -4815,24 +4882,24 @@
         <v>72</v>
       </c>
       <c r="J54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B55" t="s">
+        <v>248</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>252</v>
-      </c>
       <c r="D55" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F55" t="s">
         <v>91</v>
@@ -4844,24 +4911,24 @@
         <v>72</v>
       </c>
       <c r="J55" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B56" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F56" t="s">
         <v>91</v>
@@ -4873,24 +4940,24 @@
         <v>72</v>
       </c>
       <c r="J56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B57" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F57" t="s">
         <v>91</v>
@@ -4902,24 +4969,24 @@
         <v>72</v>
       </c>
       <c r="J57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B58" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F58" t="s">
         <v>91</v>
@@ -4931,21 +4998,21 @@
         <v>72</v>
       </c>
       <c r="J58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B59" t="s">
+        <v>254</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>258</v>
-      </c>
       <c r="D59" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>38</v>
@@ -4960,21 +5027,21 @@
         <v>72</v>
       </c>
       <c r="J59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B60" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>38</v>
@@ -4989,21 +5056,21 @@
         <v>72</v>
       </c>
       <c r="J60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B61" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>38</v>
@@ -5018,21 +5085,21 @@
         <v>72</v>
       </c>
       <c r="J61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B62" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>38</v>
@@ -5047,21 +5114,21 @@
         <v>72</v>
       </c>
       <c r="J62" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B63" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>38</v>
@@ -5076,21 +5143,21 @@
         <v>72</v>
       </c>
       <c r="J63" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>17</v>
@@ -5108,21 +5175,21 @@
         <v>76</v>
       </c>
       <c r="J64" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>264</v>
-      </c>
       <c r="D65" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>17</v>
@@ -5140,21 +5207,21 @@
         <v>76</v>
       </c>
       <c r="J65" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>17</v>
@@ -5172,21 +5239,21 @@
         <v>76</v>
       </c>
       <c r="J66" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B67" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>37</v>
@@ -5201,21 +5268,21 @@
         <v>72</v>
       </c>
       <c r="J67" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B68" t="s">
+        <v>264</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>268</v>
-      </c>
       <c r="D68" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>37</v>
@@ -5230,21 +5297,21 @@
         <v>72</v>
       </c>
       <c r="J68" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B69" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>37</v>
@@ -5259,21 +5326,21 @@
         <v>72</v>
       </c>
       <c r="J69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B70" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>37</v>
@@ -5288,21 +5355,21 @@
         <v>72</v>
       </c>
       <c r="J70" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B71" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>37</v>
@@ -5317,24 +5384,24 @@
         <v>72</v>
       </c>
       <c r="J71" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B72" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F72" t="s">
         <v>91</v>
@@ -5343,16 +5410,16 @@
     </row>
     <row r="73" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>34</v>
@@ -5367,21 +5434,21 @@
         <v>72</v>
       </c>
       <c r="J73" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>34</v>
@@ -5396,165 +5463,198 @@
         <v>72</v>
       </c>
       <c r="J74" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C75" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="D75" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="E75" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>367</v>
-      </c>
       <c r="F75" t="s">
         <v>91</v>
       </c>
-      <c r="G75" s="5"/>
+      <c r="G75" s="5">
+        <v>45467</v>
+      </c>
+      <c r="H75" t="s">
+        <v>72</v>
+      </c>
       <c r="J75" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B76" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="D76" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="D76" s="4" t="s">
-        <v>366</v>
-      </c>
       <c r="E76" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F76" t="s">
         <v>91</v>
       </c>
-      <c r="G76" s="5"/>
+      <c r="G76" s="5">
+        <v>45467</v>
+      </c>
+      <c r="H76" t="s">
+        <v>74</v>
+      </c>
+      <c r="I76" t="s">
+        <v>419</v>
+      </c>
       <c r="J76" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F77" t="s">
         <v>91</v>
       </c>
-      <c r="G77" s="5"/>
+      <c r="G77" s="5">
+        <v>45467</v>
+      </c>
+      <c r="H77" t="s">
+        <v>72</v>
+      </c>
       <c r="J77" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F78" t="s">
         <v>91</v>
       </c>
-      <c r="G78" s="5"/>
+      <c r="G78" s="5">
+        <v>45467</v>
+      </c>
+      <c r="H78" t="s">
+        <v>72</v>
+      </c>
       <c r="J78" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F79" t="s">
         <v>91</v>
       </c>
-      <c r="G79" s="5"/>
+      <c r="G79" s="5">
+        <v>45467</v>
+      </c>
+      <c r="H79" t="s">
+        <v>72</v>
+      </c>
       <c r="J79" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F80" t="s">
         <v>91</v>
       </c>
-      <c r="G80" s="5"/>
+      <c r="G80" s="5">
+        <v>45467</v>
+      </c>
+      <c r="H80" t="s">
+        <v>72</v>
+      </c>
       <c r="J80" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>35</v>
@@ -5569,21 +5669,21 @@
         <v>72</v>
       </c>
       <c r="J81" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B82" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>276</v>
-      </c>
       <c r="D82" s="4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>35</v>
@@ -5598,151 +5698,184 @@
         <v>72</v>
       </c>
       <c r="J82" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C83" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D83" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="D83" s="4" t="s">
-        <v>371</v>
-      </c>
       <c r="E83" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F83" t="s">
         <v>91</v>
       </c>
-      <c r="G83" s="5"/>
+      <c r="G83" s="5">
+        <v>45467</v>
+      </c>
+      <c r="H83" t="s">
+        <v>72</v>
+      </c>
       <c r="J83" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B84" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="D84" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="D84" s="4" t="s">
-        <v>372</v>
-      </c>
       <c r="E84" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F84" t="s">
         <v>91</v>
       </c>
-      <c r="G84" s="5"/>
+      <c r="G84" s="5">
+        <v>45467</v>
+      </c>
+      <c r="H84" t="s">
+        <v>74</v>
+      </c>
+      <c r="I84" t="s">
+        <v>419</v>
+      </c>
       <c r="J84" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F85" t="s">
         <v>91</v>
       </c>
-      <c r="G85" s="5"/>
+      <c r="G85" s="5">
+        <v>45467</v>
+      </c>
+      <c r="H85" t="s">
+        <v>72</v>
+      </c>
       <c r="J85" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F86" t="s">
         <v>91</v>
       </c>
-      <c r="G86" s="5"/>
+      <c r="G86" s="5">
+        <v>45467</v>
+      </c>
+      <c r="H86" t="s">
+        <v>72</v>
+      </c>
       <c r="J86" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F87" t="s">
         <v>91</v>
       </c>
-      <c r="G87" s="5"/>
+      <c r="G87" s="5">
+        <v>45467</v>
+      </c>
+      <c r="H87" t="s">
+        <v>72</v>
+      </c>
       <c r="J87" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F88" t="s">
         <v>71</v>
       </c>
-      <c r="G88" s="5"/>
+      <c r="G88" s="5">
+        <v>45467</v>
+      </c>
+      <c r="H88" t="s">
+        <v>72</v>
+      </c>
       <c r="J88" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
@@ -5845,10 +5978,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A8C9C6-D49D-4552-A850-BA31FEE15F47}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5873,7 +6006,7 @@
         <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -5957,262 +6090,330 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" t="s">
         <v>109</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>413</v>
+      </c>
+      <c r="D4" t="s">
         <v>110</v>
       </c>
-      <c r="C4" t="s">
-        <v>415</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>111</v>
       </c>
-      <c r="E4" t="s">
-        <v>112</v>
-      </c>
       <c r="F4" t="s">
         <v>91</v>
       </c>
+      <c r="G4" s="5">
+        <v>45467</v>
+      </c>
       <c r="H4" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="J4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" t="s">
         <v>113</v>
       </c>
-      <c r="B5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>114</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>115</v>
       </c>
-      <c r="E5" t="s">
-        <v>116</v>
-      </c>
       <c r="F5" t="s">
         <v>91</v>
       </c>
+      <c r="G5" s="5">
+        <v>45467</v>
+      </c>
       <c r="H5" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" t="s">
         <v>117</v>
       </c>
-      <c r="B6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>118</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>119</v>
       </c>
-      <c r="E6" t="s">
-        <v>120</v>
-      </c>
       <c r="F6" t="s">
         <v>91</v>
       </c>
+      <c r="G6" s="5">
+        <v>45467</v>
+      </c>
       <c r="H6" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="J6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" t="s">
         <v>121</v>
       </c>
-      <c r="B7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>122</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>123</v>
       </c>
-      <c r="E7" t="s">
-        <v>124</v>
-      </c>
       <c r="F7" t="s">
         <v>91</v>
       </c>
+      <c r="G7" s="5">
+        <v>45467</v>
+      </c>
       <c r="H7" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" t="s">
         <v>125</v>
       </c>
-      <c r="B8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>126</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>127</v>
       </c>
-      <c r="E8" t="s">
-        <v>128</v>
-      </c>
       <c r="F8" t="s">
         <v>91</v>
       </c>
+      <c r="G8" s="5">
+        <v>45467</v>
+      </c>
       <c r="H8" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" t="s">
         <v>129</v>
       </c>
-      <c r="B9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>130</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>131</v>
       </c>
-      <c r="E9" t="s">
-        <v>132</v>
-      </c>
       <c r="F9" t="s">
         <v>91</v>
       </c>
+      <c r="G9" s="5">
+        <v>45467</v>
+      </c>
       <c r="H9" t="s">
-        <v>92</v>
+        <v>74</v>
+      </c>
+      <c r="I9" t="s">
+        <v>421</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" t="s">
         <v>133</v>
       </c>
-      <c r="B10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>134</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>135</v>
       </c>
-      <c r="E10" t="s">
-        <v>136</v>
-      </c>
       <c r="F10" t="s">
         <v>91</v>
       </c>
+      <c r="G10" s="5">
+        <v>45467</v>
+      </c>
       <c r="H10" t="s">
-        <v>92</v>
+        <v>74</v>
+      </c>
+      <c r="I10" t="s">
+        <v>420</v>
       </c>
       <c r="J10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" t="s">
         <v>137</v>
       </c>
-      <c r="B11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>138</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>139</v>
       </c>
-      <c r="E11" t="s">
-        <v>140</v>
-      </c>
       <c r="F11" t="s">
         <v>91</v>
       </c>
+      <c r="G11" s="5">
+        <v>45467</v>
+      </c>
       <c r="H11" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="J11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" t="s">
         <v>141</v>
       </c>
-      <c r="B12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>142</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>143</v>
       </c>
-      <c r="E12" t="s">
-        <v>144</v>
-      </c>
       <c r="F12" t="s">
         <v>91</v>
       </c>
+      <c r="G12" s="5">
+        <v>45467</v>
+      </c>
       <c r="H12" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="J12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" t="s">
+        <v>423</v>
+      </c>
+      <c r="D13" t="s">
         <v>145</v>
       </c>
-      <c r="B13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>146</v>
       </c>
-      <c r="D13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E13" t="s">
-        <v>148</v>
-      </c>
       <c r="F13" t="s">
         <v>91</v>
       </c>
+      <c r="G13" s="5">
+        <v>45467</v>
+      </c>
       <c r="H13" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="J13" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>422</v>
+      </c>
+      <c r="B14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" t="s">
+        <v>424</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="E14" t="s">
+        <v>426</v>
+      </c>
+      <c r="F14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="5">
+        <v>45467</v>
+      </c>
+      <c r="H14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" t="s">
+        <v>427</v>
+      </c>
+      <c r="J14" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -6225,8 +6426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0480C7CA-473F-457D-87E4-6AC03E242266}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6238,7 +6439,8 @@
     <col min="5" max="5" width="78.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6285,7 +6487,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E2" t="s">
         <v>67</v>
@@ -6334,7 +6536,7 @@
     </row>
     <row r="4" spans="1:10" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
@@ -6343,7 +6545,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E4" t="s">
         <v>51</v>
@@ -6351,9 +6553,14 @@
       <c r="F4" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="5">
+        <v>45467</v>
+      </c>
+      <c r="H4" t="s">
+        <v>74</v>
+      </c>
       <c r="I4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J4" t="s">
         <v>73</v>
@@ -6369,8 +6576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FBBA1F-F464-4ADB-BBDA-95C4C140AAD0}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6382,7 +6589,8 @@
     <col min="5" max="5" width="63.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -6433,6 +6641,18 @@
       <c r="E2" t="s">
         <v>87</v>
       </c>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="5">
+        <v>45467</v>
+      </c>
+      <c r="H2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -6449,6 +6669,18 @@
       </c>
       <c r="E3" t="s">
         <v>88</v>
+      </c>
+      <c r="F3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="5">
+        <v>45467</v>
+      </c>
+      <c r="H3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/単体テスト.xlsx
+++ b/単体テスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036715D4-BDAF-4FE9-AE83-A4CFF32423A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD13AE1-4539-4386-A16F-70951506253F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アカウント登録画面_テストケース" sheetId="3" r:id="rId1"/>
@@ -2832,18 +2832,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1.XAMPPのMySQLを停止させ、データベース接続ができないようにする
-2. 確認画面で「登録する」ボタンをクリックする
-3. エラーメッセージが表示されることを確認する</t>
-    <rPh sb="14" eb="16">
-      <t>テイシ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>セツゾク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>1. 登録完了画面にアクセスし、正しく表示されることを確認する</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2923,6 +2911,21 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.XAMPPのMySQLを停止させ、データベース接続ができないようにする
+2. 確認画面で「登録する」ボタンをクリックする
+3. 画面遷移後エラーメッセージが表示されることを確認する</t>
+    <rPh sb="14" eb="16">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="66" eb="71">
+      <t>ガメンセンイゴ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2990,7 +2993,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3005,7 +3008,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3312,7 +3314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62480909-208B-4007-9E2D-1D72FFEAF5A7}">
   <dimension ref="A1:J108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -5521,7 +5523,7 @@
         <v>74</v>
       </c>
       <c r="I76" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J76" t="s">
         <v>92</v>
@@ -5756,7 +5758,7 @@
         <v>74</v>
       </c>
       <c r="I84" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J84" t="s">
         <v>92</v>
@@ -6259,7 +6261,7 @@
         <v>74</v>
       </c>
       <c r="I9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J9" t="s">
         <v>92</v>
@@ -6291,7 +6293,7 @@
         <v>74</v>
       </c>
       <c r="I10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J10" t="s">
         <v>92</v>
@@ -6363,7 +6365,7 @@
         <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D13" t="s">
         <v>145</v>
@@ -6386,19 +6388,19 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B14" t="s">
         <v>109</v>
       </c>
       <c r="C14" t="s">
+        <v>423</v>
+      </c>
+      <c r="D14" t="s">
         <v>424</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="E14" t="s">
         <v>425</v>
-      </c>
-      <c r="E14" t="s">
-        <v>426</v>
       </c>
       <c r="F14" t="s">
         <v>71</v>
@@ -6410,7 +6412,7 @@
         <v>74</v>
       </c>
       <c r="I14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J14" t="s">
         <v>92</v>
@@ -6426,8 +6428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0480C7CA-473F-457D-87E4-6AC03E242266}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6487,7 +6489,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E2" t="s">
         <v>67</v>
@@ -6545,7 +6547,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="E4" t="s">
         <v>51</v>
@@ -6560,7 +6562,7 @@
         <v>74</v>
       </c>
       <c r="I4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J4" t="s">
         <v>73</v>

--- a/単体テスト.xlsx
+++ b/単体テスト.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD13AE1-4539-4386-A16F-70951506253F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C422888-C074-4EF2-B9B7-EE68026678B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アカウント登録画面_テストケース" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="434">
   <si>
     <t>テストケースID</t>
   </si>
@@ -2926,6 +2926,89 @@
     </rPh>
     <rPh sb="66" eb="71">
       <t>ガメンセンイゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC115</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面再読み込み</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サイヨ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録確認画面再読み込み</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サイヨ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>各フィールドに値が表示されていない状態を確認する</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>前回入力した値が残ってしまっている</t>
+    <rPh sb="0" eb="4">
+      <t>ゼンカイニュウリョク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. アカウント登録確認画面にアクセスする
+2. アカウント権限フィールドが正しく表示されていることを確認する
+3.画面を再度開く</t>
+    <rPh sb="58" eb="60">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ヒラ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3314,8 +3397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62480909-208B-4007-9E2D-1D72FFEAF5A7}">
   <dimension ref="A1:J108"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="A79" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5980,10 +6063,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A8C9C6-D49D-4552-A850-BA31FEE15F47}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6386,7 +6469,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>421</v>
       </c>
@@ -6396,7 +6479,7 @@
       <c r="C14" t="s">
         <v>423</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
         <v>424</v>
       </c>
       <c r="E14" t="s">
@@ -6415,6 +6498,38 @@
         <v>426</v>
       </c>
       <c r="J14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>428</v>
+      </c>
+      <c r="B15" t="s">
+        <v>430</v>
+      </c>
+      <c r="C15" t="s">
+        <v>429</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="E15" t="s">
+        <v>431</v>
+      </c>
+      <c r="F15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="5">
+        <v>45472</v>
+      </c>
+      <c r="H15" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" t="s">
+        <v>432</v>
+      </c>
+      <c r="J15" t="s">
         <v>92</v>
       </c>
     </row>
@@ -6428,8 +6543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0480C7CA-473F-457D-87E4-6AC03E242266}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>

--- a/単体テスト.xlsx
+++ b/単体テスト.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C422888-C074-4EF2-B9B7-EE68026678B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4925F2D2-44A2-4206-8B86-F731A06DDD40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="アカウント登録画面_テストケース" sheetId="3" r:id="rId1"/>
-    <sheet name="登録確認画面_テストケース" sheetId="4" r:id="rId2"/>
-    <sheet name="登録完了画面_テストケース" sheetId="5" r:id="rId3"/>
-    <sheet name="TOPページ_テストケース" sheetId="6" r:id="rId4"/>
+    <sheet name="アカウント登録画面" sheetId="3" r:id="rId1"/>
+    <sheet name="登録確認画面" sheetId="4" r:id="rId2"/>
+    <sheet name="登録完了画面" sheetId="5" r:id="rId3"/>
+    <sheet name="TOPページ" sheetId="6" r:id="rId4"/>
+    <sheet name="アカウント一覧画面" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="494">
   <si>
     <t>テストケースID</t>
   </si>
@@ -577,43 +578,9 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ボタンが機能しているか</t>
-    <rPh sb="4" eb="6">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>テキスト表示</t>
-    <rPh sb="4" eb="6">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>正しく表示されているか</t>
-    <rPh sb="0" eb="1">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>D.Iブログのナビゲーションバーに「アカウント登録」が表示されている</t>
     <rPh sb="27" eb="29">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「アカウント登録」を押下後、画面遷移する</t>
-    <rPh sb="10" eb="13">
-      <t>オウカゴ</t>
-    </rPh>
-    <rPh sb="14" eb="18">
-      <t>ガメンセンイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2966,25 +2933,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>各フィールドに値が表示されていない状態を確認する</t>
-    <rPh sb="0" eb="1">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>前回入力した値が残ってしまっている</t>
     <rPh sb="0" eb="4">
       <t>ゼンカイニュウリョク</t>
@@ -3009,6 +2957,530 @@
     </rPh>
     <rPh sb="63" eb="64">
       <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Ver.2</t>
+  </si>
+  <si>
+    <t>TC403</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧追加</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目追加（テキスト表示）</t>
+    <rPh sb="0" eb="4">
+      <t>コウモクツイカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録追加</t>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント登録押下後、
+画面遷移（ボタン形式）</t>
+    <rPh sb="7" eb="10">
+      <t>オウカゴ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧押下後、
+画面遷移（ボタン形式）</t>
+    <rPh sb="7" eb="10">
+      <t>オウカゴ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.TOPページへアクセスする
+2.D.Iブログのナビゲーションバーに「アカウント一覧」があることを確認する</t>
+    <rPh sb="41" eb="43">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC404</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>D.Iブログのナビゲーションバーに「アカウント一覧」が表示されている</t>
+    <rPh sb="23" eb="25">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「アカウント登録」を押下後、画面遷移することを確認</t>
+    <rPh sb="10" eb="13">
+      <t>オウカゴ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.TOPページへアクセスする
+2.D.Iブログのナビゲーションバーに「アカウント一覧」があることを確認する
+3.「アカウント一覧」をクリックする</t>
+    <rPh sb="41" eb="43">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>各フィールドに値が表示されていない状態を確認する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC501</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント基本情報テーブルの登録情報をテキスト表示</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>更新</t>
+  </si>
+  <si>
+    <t>削除</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　　</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一覧の並び順をIDの降順にして表示</t>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>機能補足</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホソク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パラメータが0の場合は「男」、1の場合は「女」と表示</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パラメータが0の場合は「一般」、1の場合は「管理者」と表示</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パラメータが0の場合は「有効」、1の場合は「無効」と表示</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>年月日のみ表示</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタン形式、押下時に画面遷移</t>
+    <rPh sb="10" eb="14">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタン形式、押下時に画面遷移</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC502</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC503</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC504</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC505</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC506</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC507</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC508</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC509</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC510</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC511</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC512</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC513</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC514</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.アカウント一覧画面へアクセス
+2.項目にIDがあることを確認する</t>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名前（姓）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.アカウント一覧画面へアクセス
+2.項目に名前（姓）があることを確認する</t>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名前（名）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.アカウント一覧画面へアクセス
+2.項目に名前（名）があることを確認する</t>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カナ（姓）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.アカウント一覧画面へアクセス
+2.項目にカナ（姓）があることを確認する</t>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カナ（名）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.アカウント一覧画面へアクセス
+2.項目にカナ（名）があることを確認する</t>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.アカウント一覧画面へアクセス
+2.項目にメールアドレスがあることを確認する</t>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.アカウント一覧画面へアクセス
+2.項目に性別があることを確認する</t>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント権限</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.アカウント一覧画面へアクセス
+2.項目にアカウント権限があることを確認する</t>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除フラグ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.アカウント一覧画面へアクセス
+2.項目に削除フラグがあることを確認する</t>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録日時</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.アカウント一覧画面へアクセス
+2.項目に登録日時があることを確認する</t>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新日時</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.アカウント一覧画面へアクセス
+2.項目に更新日時があることを確認する</t>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一覧をIDの降順表示</t>
+    <rPh sb="0" eb="2">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.アカウント一覧画面へアクセス
+2.項目に削除があることを確認する
+3.削除をクリックする</t>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.アカウント一覧画面へアクセス
+2.項目に更新があることを確認する
+3.更新をクリックする</t>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.アカウント一覧画面へアクセス
+2.一覧の並び順がIDの降順に表示されているか確認する</t>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3397,7 +3869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62480909-208B-4007-9E2D-1D72FFEAF5A7}">
   <dimension ref="A1:J108"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -3487,7 +3959,7 @@
         <v>56</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>42</v>
@@ -3516,7 +3988,7 @@
         <v>57</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D4" t="s">
         <v>43</v>
@@ -3577,7 +4049,7 @@
         <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>45</v>
@@ -3606,7 +4078,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
@@ -3635,7 +4107,7 @@
         <v>57</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D8" t="s">
         <v>46</v>
@@ -3664,7 +4136,7 @@
         <v>53</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D9" t="s">
         <v>30</v>
@@ -3751,7 +4223,7 @@
         <v>53</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D12" t="s">
         <v>77</v>
@@ -3777,19 +4249,19 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C13" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G13" s="5">
         <v>45465</v>
@@ -3798,27 +4270,27 @@
         <v>72</v>
       </c>
       <c r="J13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B14" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F14" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G14" s="5">
         <v>45465</v>
@@ -3827,27 +4299,27 @@
         <v>72</v>
       </c>
       <c r="J14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B15" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D15" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G15" s="5">
         <v>45465</v>
@@ -3856,27 +4328,27 @@
         <v>72</v>
       </c>
       <c r="J15" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B16" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F16" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G16" s="5">
         <v>45465</v>
@@ -3885,27 +4357,27 @@
         <v>72</v>
       </c>
       <c r="J16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B17" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D17" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G17" s="5">
         <v>45465</v>
@@ -3914,27 +4386,27 @@
         <v>72</v>
       </c>
       <c r="J17" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B18" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D18" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G18" s="5">
         <v>45465</v>
@@ -3943,27 +4415,27 @@
         <v>72</v>
       </c>
       <c r="J18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B19" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C19" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D19" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E19" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F19" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G19" s="5">
         <v>45465</v>
@@ -3972,27 +4444,27 @@
         <v>72</v>
       </c>
       <c r="J19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B20" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C20" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D20" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E20" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G20" s="5">
         <v>45465</v>
@@ -4001,27 +4473,27 @@
         <v>72</v>
       </c>
       <c r="J20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B21" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C21" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D21" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E21" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G21" s="5">
         <v>45465</v>
@@ -4030,27 +4502,27 @@
         <v>72</v>
       </c>
       <c r="J21" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B22" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C22" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D22" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E22" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F22" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G22" s="5">
         <v>45465</v>
@@ -4059,27 +4531,27 @@
         <v>72</v>
       </c>
       <c r="J22" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B23" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C23" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D23" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E23" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F23" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G23" s="5">
         <v>45465</v>
@@ -4088,27 +4560,27 @@
         <v>72</v>
       </c>
       <c r="J23" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B24" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C24" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D24" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E24" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F24" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G24" s="5">
         <v>45465</v>
@@ -4117,27 +4589,27 @@
         <v>72</v>
       </c>
       <c r="J24" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B25" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C25" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D25" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E25" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F25" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G25" s="5">
         <v>45465</v>
@@ -4146,27 +4618,27 @@
         <v>72</v>
       </c>
       <c r="J25" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B26" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C26" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E26" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F26" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G26" s="5">
         <v>45465</v>
@@ -4175,27 +4647,27 @@
         <v>72</v>
       </c>
       <c r="J26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B27" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C27" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D27" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E27" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F27" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G27" s="5">
         <v>45465</v>
@@ -4204,27 +4676,27 @@
         <v>72</v>
       </c>
       <c r="J27" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B28" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C28" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D28" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E28" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F28" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G28" s="5">
         <v>45465</v>
@@ -4233,27 +4705,27 @@
         <v>72</v>
       </c>
       <c r="J28" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B29" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C29" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D29" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E29" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F29" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G29" s="5">
         <v>45465</v>
@@ -4262,27 +4734,27 @@
         <v>72</v>
       </c>
       <c r="J29" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B30" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C30" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D30" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E30" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F30" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G30" s="5">
         <v>45465</v>
@@ -4291,27 +4763,27 @@
         <v>72</v>
       </c>
       <c r="J30" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B31" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C31" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E31" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F31" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G31" s="5">
         <v>45465</v>
@@ -4320,27 +4792,27 @@
         <v>72</v>
       </c>
       <c r="J31" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B32" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C32" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D32" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E32" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F32" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G32" s="5">
         <v>45465</v>
@@ -4349,27 +4821,27 @@
         <v>72</v>
       </c>
       <c r="J32" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B33" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C33" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D33" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E33" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F33" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G33" s="5">
         <v>45465</v>
@@ -4378,27 +4850,27 @@
         <v>72</v>
       </c>
       <c r="J33" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B34" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C34" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D34" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E34" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F34" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G34" s="5">
         <v>45465</v>
@@ -4407,27 +4879,27 @@
         <v>72</v>
       </c>
       <c r="J34" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B35" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C35" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D35" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E35" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G35" s="5">
         <v>45465</v>
@@ -4436,27 +4908,27 @@
         <v>72</v>
       </c>
       <c r="J35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B36" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C36" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D36" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E36" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F36" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G36" s="5">
         <v>45465</v>
@@ -4465,24 +4937,24 @@
         <v>72</v>
       </c>
       <c r="J36" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B37" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F37" t="s">
         <v>71</v>
@@ -4499,22 +4971,22 @@
     </row>
     <row r="38" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B38" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F38" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G38" s="5">
         <v>45465</v>
@@ -4523,27 +4995,27 @@
         <v>72</v>
       </c>
       <c r="J38" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B39" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F39" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G39" s="5">
         <v>45465</v>
@@ -4552,27 +5024,27 @@
         <v>72</v>
       </c>
       <c r="J39" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B40" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F40" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G40" s="5">
         <v>45465</v>
@@ -4581,75 +5053,75 @@
         <v>72</v>
       </c>
       <c r="J40" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B41" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F41" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G41" s="5"/>
       <c r="J41" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B42" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F42" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G42" s="5"/>
       <c r="J42" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B43" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F43" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G43" s="5">
         <v>45465</v>
@@ -4658,27 +5130,27 @@
         <v>72</v>
       </c>
       <c r="J43" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B44" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F44" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G44" s="5">
         <v>45465</v>
@@ -4687,27 +5159,27 @@
         <v>72</v>
       </c>
       <c r="J44" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B45" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F45" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G45" s="5">
         <v>45465</v>
@@ -4716,27 +5188,27 @@
         <v>72</v>
       </c>
       <c r="J45" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B46" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F46" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G46" s="5">
         <v>45465</v>
@@ -4745,75 +5217,75 @@
         <v>72</v>
       </c>
       <c r="J46" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B47" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F47" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G47" s="5"/>
       <c r="J47" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B48" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F48" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G48" s="5"/>
       <c r="J48" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B49" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F49" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G49" s="5">
         <v>45465</v>
@@ -4822,27 +5294,27 @@
         <v>72</v>
       </c>
       <c r="J49" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B50" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F50" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G50" s="5">
         <v>45465</v>
@@ -4851,27 +5323,27 @@
         <v>72</v>
       </c>
       <c r="J50" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B51" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F51" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G51" s="5">
         <v>45465</v>
@@ -4880,27 +5352,27 @@
         <v>72</v>
       </c>
       <c r="J51" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B52" t="s">
+        <v>238</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>246</v>
-      </c>
       <c r="D52" s="4" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G52" s="5">
         <v>45465</v>
@@ -4909,27 +5381,27 @@
         <v>72</v>
       </c>
       <c r="J52" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B53" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F53" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G53" s="5">
         <v>45465</v>
@@ -4938,27 +5410,27 @@
         <v>72</v>
       </c>
       <c r="J53" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B54" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F54" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G54" s="5">
         <v>45465</v>
@@ -4967,27 +5439,27 @@
         <v>72</v>
       </c>
       <c r="J54" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B55" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F55" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G55" s="5">
         <v>45465</v>
@@ -4996,27 +5468,27 @@
         <v>72</v>
       </c>
       <c r="J55" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B56" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F56" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G56" s="5">
         <v>45465</v>
@@ -5025,27 +5497,27 @@
         <v>72</v>
       </c>
       <c r="J56" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B57" t="s">
+        <v>244</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>252</v>
-      </c>
       <c r="D57" s="4" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F57" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G57" s="5">
         <v>45465</v>
@@ -5054,27 +5526,27 @@
         <v>72</v>
       </c>
       <c r="J57" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B58" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F58" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G58" s="5">
         <v>45465</v>
@@ -5083,27 +5555,27 @@
         <v>72</v>
       </c>
       <c r="J58" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B59" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F59" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G59" s="5">
         <v>45465</v>
@@ -5112,27 +5584,27 @@
         <v>72</v>
       </c>
       <c r="J59" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B60" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F60" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G60" s="5">
         <v>45465</v>
@@ -5141,27 +5613,27 @@
         <v>72</v>
       </c>
       <c r="J60" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B61" t="s">
+        <v>250</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>258</v>
-      </c>
       <c r="D61" s="4" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F61" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G61" s="5">
         <v>45465</v>
@@ -5170,27 +5642,27 @@
         <v>72</v>
       </c>
       <c r="J61" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B62" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F62" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G62" s="5">
         <v>45465</v>
@@ -5199,27 +5671,27 @@
         <v>72</v>
       </c>
       <c r="J62" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B63" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F63" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G63" s="5">
         <v>45465</v>
@@ -5228,27 +5700,27 @@
         <v>72</v>
       </c>
       <c r="J63" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F64" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G64" s="5">
         <v>45465</v>
@@ -5260,27 +5732,27 @@
         <v>76</v>
       </c>
       <c r="J64" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F65" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G65" s="5">
         <v>45465</v>
@@ -5292,27 +5764,27 @@
         <v>76</v>
       </c>
       <c r="J65" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F66" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G66" s="5">
         <v>45465</v>
@@ -5324,27 +5796,27 @@
         <v>76</v>
       </c>
       <c r="J66" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B67" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F67" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G67" s="5">
         <v>45465</v>
@@ -5353,27 +5825,27 @@
         <v>72</v>
       </c>
       <c r="J67" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B68" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F68" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G68" s="5">
         <v>45465</v>
@@ -5382,27 +5854,27 @@
         <v>72</v>
       </c>
       <c r="J68" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B69" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F69" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G69" s="5">
         <v>45465</v>
@@ -5411,27 +5883,27 @@
         <v>72</v>
       </c>
       <c r="J69" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B70" t="s">
+        <v>260</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>268</v>
-      </c>
       <c r="D70" s="4" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F70" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G70" s="5">
         <v>45465</v>
@@ -5440,27 +5912,27 @@
         <v>72</v>
       </c>
       <c r="J70" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B71" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F71" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G71" s="5">
         <v>45465</v>
@@ -5469,48 +5941,48 @@
         <v>72</v>
       </c>
       <c r="J71" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B72" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F72" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G72" s="5"/>
     </row>
     <row r="73" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F73" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G73" s="5">
         <v>45465</v>
@@ -5519,27 +5991,27 @@
         <v>72</v>
       </c>
       <c r="J73" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F74" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G74" s="5">
         <v>45465</v>
@@ -5548,27 +6020,27 @@
         <v>72</v>
       </c>
       <c r="J74" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C75" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="D75" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>365</v>
-      </c>
       <c r="F75" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G75" s="5">
         <v>45467</v>
@@ -5577,27 +6049,27 @@
         <v>72</v>
       </c>
       <c r="J75" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B76" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D76" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>364</v>
-      </c>
       <c r="E76" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F76" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G76" s="5">
         <v>45467</v>
@@ -5606,30 +6078,30 @@
         <v>74</v>
       </c>
       <c r="I76" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="J76" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C77" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D77" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="D77" s="4" t="s">
-        <v>375</v>
-      </c>
       <c r="E77" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F77" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G77" s="5">
         <v>45467</v>
@@ -5638,27 +6110,27 @@
         <v>72</v>
       </c>
       <c r="J77" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C78" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D78" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="D78" s="4" t="s">
-        <v>376</v>
-      </c>
       <c r="E78" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F78" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G78" s="5">
         <v>45467</v>
@@ -5667,27 +6139,27 @@
         <v>72</v>
       </c>
       <c r="J78" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C79" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="D79" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="D79" s="4" t="s">
-        <v>377</v>
-      </c>
       <c r="E79" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F79" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G79" s="5">
         <v>45467</v>
@@ -5696,27 +6168,27 @@
         <v>72</v>
       </c>
       <c r="J79" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C80" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D80" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="D80" s="4" t="s">
-        <v>378</v>
-      </c>
       <c r="E80" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F80" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G80" s="5">
         <v>45467</v>
@@ -5725,27 +6197,27 @@
         <v>72</v>
       </c>
       <c r="J80" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F81" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G81" s="5">
         <v>45465</v>
@@ -5754,21 +6226,21 @@
         <v>72</v>
       </c>
       <c r="J81" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>35</v>
@@ -5783,27 +6255,27 @@
         <v>72</v>
       </c>
       <c r="J82" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F83" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G83" s="5">
         <v>45467</v>
@@ -5812,27 +6284,27 @@
         <v>72</v>
       </c>
       <c r="J83" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B84" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D84" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="C84" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>370</v>
-      </c>
       <c r="E84" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F84" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G84" s="5">
         <v>45467</v>
@@ -5841,30 +6313,30 @@
         <v>74</v>
       </c>
       <c r="I84" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="J84" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F85" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G85" s="5">
         <v>45467</v>
@@ -5873,27 +6345,27 @@
         <v>72</v>
       </c>
       <c r="J85" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F86" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G86" s="5">
         <v>45467</v>
@@ -5902,27 +6374,27 @@
         <v>72</v>
       </c>
       <c r="J86" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F87" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G87" s="5">
         <v>45467</v>
@@ -5931,24 +6403,24 @@
         <v>72</v>
       </c>
       <c r="J87" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F88" t="s">
         <v>71</v>
@@ -5960,7 +6432,7 @@
         <v>72</v>
       </c>
       <c r="J88" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
@@ -6065,8 +6537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A8C9C6-D49D-4552-A850-BA31FEE15F47}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6091,7 +6563,7 @@
         <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -6175,22 +6647,22 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G4" s="5">
         <v>45467</v>
@@ -6199,27 +6671,27 @@
         <v>72</v>
       </c>
       <c r="J4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" t="s">
         <v>109</v>
       </c>
-      <c r="C5" t="s">
-        <v>113</v>
-      </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G5" s="5">
         <v>45467</v>
@@ -6228,27 +6700,27 @@
         <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G6" s="5">
         <v>45467</v>
@@ -6257,27 +6729,27 @@
         <v>72</v>
       </c>
       <c r="J6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G7" s="5">
         <v>45467</v>
@@ -6286,27 +6758,27 @@
         <v>72</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G8" s="5">
         <v>45467</v>
@@ -6315,27 +6787,27 @@
         <v>72</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G9" s="5">
         <v>45467</v>
@@ -6344,30 +6816,30 @@
         <v>74</v>
       </c>
       <c r="I9" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="J9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G10" s="5">
         <v>45467</v>
@@ -6376,30 +6848,30 @@
         <v>74</v>
       </c>
       <c r="I10" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="J10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G11" s="5">
         <v>45467</v>
@@ -6408,27 +6880,27 @@
         <v>72</v>
       </c>
       <c r="J11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D12" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G12" s="5">
         <v>45467</v>
@@ -6437,27 +6909,27 @@
         <v>72</v>
       </c>
       <c r="J12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C13" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D13" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E13" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G13" s="5">
         <v>45467</v>
@@ -6466,24 +6938,24 @@
         <v>72</v>
       </c>
       <c r="J13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>417</v>
+      </c>
+      <c r="B14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" t="s">
+        <v>419</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="E14" t="s">
         <v>421</v>
-      </c>
-      <c r="B14" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" t="s">
-        <v>423</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="E14" t="s">
-        <v>425</v>
       </c>
       <c r="F14" t="s">
         <v>71</v>
@@ -6495,27 +6967,27 @@
         <v>74</v>
       </c>
       <c r="I14" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="J14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>424</v>
+      </c>
+      <c r="B15" t="s">
+        <v>426</v>
+      </c>
+      <c r="C15" t="s">
+        <v>425</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B15" t="s">
-        <v>430</v>
-      </c>
-      <c r="C15" t="s">
-        <v>429</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>433</v>
-      </c>
       <c r="E15" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F15" t="s">
         <v>71</v>
@@ -6527,10 +6999,10 @@
         <v>74</v>
       </c>
       <c r="I15" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="J15" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -6543,8 +7015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0480C7CA-473F-457D-87E4-6AC03E242266}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6604,7 +7076,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E2" t="s">
         <v>67</v>
@@ -6653,7 +7125,7 @@
     </row>
     <row r="4" spans="1:10" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
@@ -6662,7 +7134,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E4" t="s">
         <v>51</v>
@@ -6677,7 +7149,7 @@
         <v>74</v>
       </c>
       <c r="I4" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="J4" t="s">
         <v>73</v>
@@ -6691,10 +7163,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FBBA1F-F464-4ADB-BBDA-95C4C140AAD0}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -6747,16 +7219,16 @@
         <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>432</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>433</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s">
         <v>71</v>
@@ -6778,14 +7250,14 @@
       <c r="B3" t="s">
         <v>79</v>
       </c>
-      <c r="C3" t="s">
-        <v>84</v>
+      <c r="C3" s="3" t="s">
+        <v>434</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>82</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>439</v>
       </c>
       <c r="F3" t="s">
         <v>71</v>
@@ -6798,6 +7270,329 @@
       </c>
       <c r="J3" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>430</v>
+      </c>
+      <c r="B5" t="s">
+        <v>432</v>
+      </c>
+      <c r="C5" t="s">
+        <v>431</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="E5" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>437</v>
+      </c>
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="E6" t="s">
+        <v>439</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470696DB-82C5-4AE2-AB81-9F538FDCAB4D}">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="5.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C3" t="s">
+        <v>470</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>457</v>
+      </c>
+      <c r="B4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C4" t="s">
+        <v>472</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>458</v>
+      </c>
+      <c r="B5" t="s">
+        <v>443</v>
+      </c>
+      <c r="C5" t="s">
+        <v>474</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>459</v>
+      </c>
+      <c r="B6" t="s">
+        <v>443</v>
+      </c>
+      <c r="C6" t="s">
+        <v>476</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>460</v>
+      </c>
+      <c r="B7" t="s">
+        <v>443</v>
+      </c>
+      <c r="C7" t="s">
+        <v>478</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>461</v>
+      </c>
+      <c r="B8" t="s">
+        <v>443</v>
+      </c>
+      <c r="C8" t="s">
+        <v>480</v>
+      </c>
+      <c r="D8" t="s">
+        <v>450</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>462</v>
+      </c>
+      <c r="B9" t="s">
+        <v>443</v>
+      </c>
+      <c r="C9" t="s">
+        <v>482</v>
+      </c>
+      <c r="D9" t="s">
+        <v>451</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>463</v>
+      </c>
+      <c r="B10" t="s">
+        <v>443</v>
+      </c>
+      <c r="C10" t="s">
+        <v>484</v>
+      </c>
+      <c r="D10" t="s">
+        <v>452</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>464</v>
+      </c>
+      <c r="B11" t="s">
+        <v>443</v>
+      </c>
+      <c r="C11" t="s">
+        <v>486</v>
+      </c>
+      <c r="D11" t="s">
+        <v>453</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>465</v>
+      </c>
+      <c r="B12" t="s">
+        <v>443</v>
+      </c>
+      <c r="C12" t="s">
+        <v>488</v>
+      </c>
+      <c r="D12" t="s">
+        <v>453</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>466</v>
+      </c>
+      <c r="B13" t="s">
+        <v>443</v>
+      </c>
+      <c r="C13" t="s">
+        <v>445</v>
+      </c>
+      <c r="D13" t="s">
+        <v>454</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>467</v>
+      </c>
+      <c r="B14" t="s">
+        <v>443</v>
+      </c>
+      <c r="C14" t="s">
+        <v>446</v>
+      </c>
+      <c r="D14" t="s">
+        <v>455</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>468</v>
+      </c>
+      <c r="B15" t="s">
+        <v>448</v>
+      </c>
+      <c r="C15" t="s">
+        <v>490</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>447</v>
       </c>
     </row>
   </sheetData>

--- a/単体テスト.xlsx
+++ b/単体テスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4925F2D2-44A2-4206-8B86-F731A06DDD40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B7CFE1-C745-4A0E-9E62-DE603FF2E298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アカウント登録画面" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="520">
   <si>
     <t>テストケースID</t>
   </si>
@@ -3089,10 +3089,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>　　</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>一覧の並び順をIDの降順にして表示</t>
     <rPh sb="15" eb="17">
       <t>ヒョウジ</t>
@@ -3481,6 +3477,468 @@
     </rPh>
     <rPh sb="40" eb="42">
       <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新規データ入力、表示</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面を再読み込み、新規データテキスト表示</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サイヨ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC515</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目:名前（姓）にひらがな、漢字のみで、
+登録情報がテキスト表示されていることを確認</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>トウロクジョウホウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目:名前（名）にひらがな、漢字のみで、
+登録情報がテキスト表示されていることを確認</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>トウロクジョウホウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目:カナ（名）にカタカナのみで、
+登録情報がテキスト表示されていることを確認</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>トウロクジョウホウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目:カナ（姓）にカタカナのみで、
+登録情報がテキスト表示されていることを確認</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>トウロクジョウホウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目:メールアドレス半角英数字、半角ハイフン、半角記号（ハイフンとアットマーク）のみで、
+登録情報がテキスト表示されていることを確認</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="45" eb="49">
+      <t>トウロクジョウホウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目:性別に男または女で、
+登録情報がテキスト表示されていることを確認</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>トウロクジョウホウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目:アカウント権限に一般または管理者で、
+登録情報がテキスト表示されていることを確認</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>トウロクジョウホウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目:削除フラグに有効または無効で、
+登録情報がテキスト表示されていることを確認</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>トウロクジョウホウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目:登録日時に年月日で、
+登録情報がテキスト表示されていることを確認</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>トウロクニチジ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ネンガッピ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>トウロクジョウホウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目:更新日時が年月日で、
+登録情報がテキスト表示されていることを確認</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>コウシンニチジ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ネンガッピ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>トウロクジョウホウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目:更新がボタン形式で、表示されていることを確認
+ボタン押下後、画面遷移することを確認</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目:削除がボタン形式で、表示されていることを確認
+ボタン押下後、画面遷移することを確認</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.アカウント登録後、アカウント一覧画面を再読み込みする
+2.新規のデータが画面上部先頭に表示されていることを確認する</t>
+    <rPh sb="7" eb="10">
+      <t>トウロクゴ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サイヨ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="38" eb="42">
+      <t>ガメンジョウブ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一覧の並び順がIDの降順に表示されているか確認</t>
+  </si>
+  <si>
+    <t>.新規のデータが画面上部先頭に表示されていることを確認</t>
+  </si>
+  <si>
+    <t>項目:IDがテキスト表示されていることを確認</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面再読み込み</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ガメンサイヨ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.アカウント一覧画面へアクセス
+2.アカウント一覧画面が表示されたことを確認する
+3.画面左上の再読み込みボタンをクリックする</t>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="24" eb="28">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="44" eb="48">
+      <t>ガメンヒダリウエ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>サイヨ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント一覧画面が表示される</t>
+    <rPh sb="5" eb="9">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC516</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC405</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TOPページ再読み込み</t>
+    <rPh sb="6" eb="8">
+      <t>サイヨ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.TOPページへアクセスする
+2.D.Iブログのナビゲーションバーに「アカウント一覧」があることを確認する
+3.画面左上の再読み込みボタンをクリックする</t>
+    <rPh sb="41" eb="43">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ヒダリウエ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>サイヨ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TOPページが表示される</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -7163,10 +7621,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FBBA1F-F464-4ADB-BBDA-95C4C140AAD0}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -7311,6 +7769,23 @@
         <v>439</v>
       </c>
     </row>
+    <row r="7" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>516</v>
+      </c>
+      <c r="B7" t="s">
+        <v>517</v>
+      </c>
+      <c r="C7" t="s">
+        <v>425</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="E7" t="s">
+        <v>519</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7319,20 +7794,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470696DB-82C5-4AE2-AB81-9F538FDCAB4D}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="C7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="69" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="60" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="84.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="5.77734375" bestFit="1" customWidth="1"/>
@@ -7349,7 +7824,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -7384,167 +7859,200 @@
         <v>444</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
+      </c>
+      <c r="F2" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B3" t="s">
         <v>443</v>
       </c>
       <c r="C3" t="s">
+        <v>469</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>471</v>
+      <c r="F3" s="3" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B4" t="s">
         <v>443</v>
       </c>
       <c r="C4" t="s">
+        <v>471</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>473</v>
+      <c r="F4" s="3" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B5" t="s">
         <v>443</v>
       </c>
       <c r="C5" t="s">
+        <v>473</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>475</v>
+      <c r="F5" s="3" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B6" t="s">
         <v>443</v>
       </c>
       <c r="C6" t="s">
+        <v>475</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>477</v>
+      <c r="F6" s="3" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B7" t="s">
         <v>443</v>
       </c>
       <c r="C7" t="s">
+        <v>477</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>479</v>
+      <c r="F7" s="3" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B8" t="s">
         <v>443</v>
       </c>
       <c r="C8" t="s">
+        <v>479</v>
+      </c>
+      <c r="D8" t="s">
+        <v>449</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="D8" t="s">
-        <v>450</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>481</v>
+      <c r="F8" s="3" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B9" t="s">
         <v>443</v>
       </c>
       <c r="C9" t="s">
+        <v>481</v>
+      </c>
+      <c r="D9" t="s">
+        <v>450</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D9" t="s">
-        <v>451</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>483</v>
+      <c r="F9" s="3" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B10" t="s">
         <v>443</v>
       </c>
       <c r="C10" t="s">
+        <v>483</v>
+      </c>
+      <c r="D10" t="s">
+        <v>451</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="D10" t="s">
-        <v>452</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>485</v>
+      <c r="F10" s="3" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B11" t="s">
         <v>443</v>
       </c>
       <c r="C11" t="s">
+        <v>485</v>
+      </c>
+      <c r="D11" t="s">
+        <v>452</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="D11" t="s">
-        <v>453</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>487</v>
+      <c r="F11" s="3" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B12" t="s">
         <v>443</v>
       </c>
       <c r="C12" t="s">
+        <v>487</v>
+      </c>
+      <c r="D12" t="s">
+        <v>452</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="D12" t="s">
-        <v>453</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>489</v>
+      <c r="F12" s="3" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B13" t="s">
         <v>443</v>
@@ -7553,15 +8061,18 @@
         <v>445</v>
       </c>
       <c r="D13" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B14" t="s">
         <v>443</v>
@@ -7570,29 +8081,64 @@
         <v>446</v>
       </c>
       <c r="D14" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B15" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="F15" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>495</v>
+      </c>
+      <c r="B16" t="s">
+        <v>512</v>
+      </c>
+      <c r="C16" t="s">
+        <v>425</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>515</v>
+      </c>
+      <c r="B17" t="s">
+        <v>494</v>
+      </c>
+      <c r="C17" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>447</v>
+      <c r="E17" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="F17" t="s">
+        <v>510</v>
       </c>
     </row>
   </sheetData>

--- a/単体テスト.xlsx
+++ b/単体テスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B7CFE1-C745-4A0E-9E62-DE603FF2E298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED44580-77B7-4EFC-95AD-0BD81F515035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アカウント登録画面" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="520">
   <si>
     <t>テストケースID</t>
   </si>
@@ -7623,8 +7623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FBBA1F-F464-4ADB-BBDA-95C4C140AAD0}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -7751,6 +7751,18 @@
       <c r="E5" t="s">
         <v>438</v>
       </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="5">
+        <v>45475</v>
+      </c>
+      <c r="H5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -7768,6 +7780,18 @@
       <c r="E6" t="s">
         <v>439</v>
       </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="5">
+        <v>45475</v>
+      </c>
+      <c r="H6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -7784,6 +7808,18 @@
       </c>
       <c r="E7" t="s">
         <v>519</v>
+      </c>
+      <c r="F7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="5">
+        <v>45475</v>
+      </c>
+      <c r="H7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -7796,8 +7832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470696DB-82C5-4AE2-AB81-9F538FDCAB4D}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -7810,7 +7846,8 @@
     <col min="6" max="6" width="84.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -7864,6 +7901,18 @@
       <c r="F2" t="s">
         <v>511</v>
       </c>
+      <c r="G2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="5">
+        <v>45475</v>
+      </c>
+      <c r="I2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -7881,6 +7930,18 @@
       <c r="F3" s="3" t="s">
         <v>496</v>
       </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="5">
+        <v>45475</v>
+      </c>
+      <c r="I3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -7898,6 +7959,18 @@
       <c r="F4" s="3" t="s">
         <v>497</v>
       </c>
+      <c r="G4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="5">
+        <v>45475</v>
+      </c>
+      <c r="I4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -7915,6 +7988,18 @@
       <c r="F5" s="3" t="s">
         <v>499</v>
       </c>
+      <c r="G5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="5">
+        <v>45475</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -7932,6 +8017,18 @@
       <c r="F6" s="3" t="s">
         <v>498</v>
       </c>
+      <c r="G6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="5">
+        <v>45475</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -7949,6 +8046,18 @@
       <c r="F7" s="3" t="s">
         <v>500</v>
       </c>
+      <c r="G7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="5">
+        <v>45475</v>
+      </c>
+      <c r="I7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -7969,6 +8078,18 @@
       <c r="F8" s="3" t="s">
         <v>501</v>
       </c>
+      <c r="G8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="5">
+        <v>45475</v>
+      </c>
+      <c r="I8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -7989,6 +8110,18 @@
       <c r="F9" s="3" t="s">
         <v>502</v>
       </c>
+      <c r="G9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="5">
+        <v>45475</v>
+      </c>
+      <c r="I9" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -8009,6 +8142,18 @@
       <c r="F10" s="3" t="s">
         <v>503</v>
       </c>
+      <c r="G10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="5">
+        <v>45475</v>
+      </c>
+      <c r="I10" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -8029,6 +8174,18 @@
       <c r="F11" s="3" t="s">
         <v>504</v>
       </c>
+      <c r="G11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="5">
+        <v>45475</v>
+      </c>
+      <c r="I11" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -8049,6 +8206,18 @@
       <c r="F12" s="3" t="s">
         <v>505</v>
       </c>
+      <c r="G12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="5">
+        <v>45475</v>
+      </c>
+      <c r="I12" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -8069,6 +8238,18 @@
       <c r="F13" s="3" t="s">
         <v>506</v>
       </c>
+      <c r="G13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="5">
+        <v>45475</v>
+      </c>
+      <c r="I13" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -8089,6 +8270,18 @@
       <c r="F14" s="3" t="s">
         <v>507</v>
       </c>
+      <c r="G14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="5">
+        <v>45475</v>
+      </c>
+      <c r="I14" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -8106,6 +8299,18 @@
       <c r="F15" t="s">
         <v>509</v>
       </c>
+      <c r="G15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="5">
+        <v>45475</v>
+      </c>
+      <c r="I15" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -8123,8 +8328,20 @@
       <c r="F16" s="3" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="5">
+        <v>45475</v>
+      </c>
+      <c r="I16" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>515</v>
       </c>
@@ -8139,6 +8356,18 @@
       </c>
       <c r="F17" t="s">
         <v>510</v>
+      </c>
+      <c r="G17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="5">
+        <v>45475</v>
+      </c>
+      <c r="I17" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/単体テスト.xlsx
+++ b/単体テスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED44580-77B7-4EFC-95AD-0BD81F515035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E91A69B-1DDB-4550-A4CB-DF90AB728F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アカウント登録画面" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,12 @@
     <sheet name="登録完了画面" sheetId="5" r:id="rId3"/>
     <sheet name="TOPページ" sheetId="6" r:id="rId4"/>
     <sheet name="アカウント一覧画面" sheetId="7" r:id="rId5"/>
+    <sheet name="削除画面" sheetId="8" r:id="rId6"/>
+    <sheet name="削除確認画面" sheetId="9" r:id="rId7"/>
+    <sheet name="削除完了画面" sheetId="10" r:id="rId8"/>
+    <sheet name="更新画面" sheetId="11" r:id="rId9"/>
+    <sheet name="更新確認画面" sheetId="12" r:id="rId10"/>
+    <sheet name="更新完了画面" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="520">
   <si>
     <t>テストケースID</t>
   </si>
@@ -6991,6 +6997,130 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FCFD780-02AB-48BA-8D27-ACF3D5D231ED}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="5.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2EB2932-0A74-4EEF-B2F9-15095BB1B594}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="5.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A8C9C6-D49D-4552-A850-BA31FEE15F47}">
   <dimension ref="A1:J15"/>
@@ -7832,8 +7962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470696DB-82C5-4AE2-AB81-9F538FDCAB4D}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -8374,4 +8504,252 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956E9933-2602-426A-AD53-5DCFC42B7DE4}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="5.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256AC4AF-30F6-4338-9D8E-B754FC3A1B55}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="5.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{915030F3-E3A1-46F1-B7FA-33AB2BB4AB4F}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="5.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50888A99-EB08-43C9-A3E6-3D0084DC5320}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="5.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/単体テスト.xlsx
+++ b/単体テスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E91A69B-1DDB-4550-A4CB-DF90AB728F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C289E45-6111-4BB5-90FF-A5AE6C7EC183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アカウント登録画面" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="527">
   <si>
     <t>テストケースID</t>
   </si>
@@ -3946,6 +3946,29 @@
     <rPh sb="7" eb="9">
       <t>ヒョウジ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>郵便番号</t>
+  </si>
+  <si>
+    <t>住所（都道府県）</t>
+  </si>
+  <si>
+    <t>住所（市区町村）</t>
+  </si>
+  <si>
+    <t>住所（番地）</t>
+  </si>
+  <si>
+    <t>アカウント権限　</t>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ハッシュ化されているので表示できません」テキスト表示</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -7962,8 +7985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470696DB-82C5-4AE2-AB81-9F538FDCAB4D}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -8508,16 +8531,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956E9933-2602-426A-AD53-5DCFC42B7DE4}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
@@ -8560,6 +8583,102 @@
       </c>
       <c r="K1" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C4" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>443</v>
+      </c>
+      <c r="C5" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>443</v>
+      </c>
+      <c r="C6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>526</v>
+      </c>
+      <c r="C7" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>443</v>
+      </c>
+      <c r="C8" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>443</v>
+      </c>
+      <c r="C9" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>443</v>
+      </c>
+      <c r="C10" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>443</v>
+      </c>
+      <c r="C11" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>443</v>
+      </c>
+      <c r="C12" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>443</v>
+      </c>
+      <c r="C13" t="s">
+        <v>524</v>
       </c>
     </row>
   </sheetData>

--- a/単体テスト.xlsx
+++ b/単体テスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C289E45-6111-4BB5-90FF-A5AE6C7EC183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445E9727-7101-479F-AF77-7710AF7B49A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="810" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アカウント登録画面" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="712">
   <si>
     <t>テストケースID</t>
   </si>
@@ -624,9 +624,6 @@
     <t>「名前（姓）」フィールドの初期値が空欄であることが確認できる</t>
   </si>
   <si>
-    <t>名前（名）フィールドがテキストボックスであるか確認</t>
-  </si>
-  <si>
     <t>1. アカウント登録画面にアクセスする
 2. 「名前（名）」フィールドがテキストボックスであることを確認する</t>
   </si>
@@ -3949,26 +3946,1893 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ハッシュ化されているので表示できません」テキスト表示</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>前に戻る</t>
+    <rPh sb="0" eb="1">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確認する</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>前に戻るボタンをクリック後、画面遷移</t>
+    <rPh sb="12" eb="13">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確認するボタンをクリック後、画面遷移</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.削除画面へアクセス
+2.項目に名前（姓）があることを確認する</t>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.削除画面へアクセス
+2.項目に名前（名）があることを確認する</t>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.削除画面へアクセス
+2.項目にカナ（姓）があることを確認する</t>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.削除画面へアクセス
+2.項目にカナ（名）があることを確認する</t>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.削除画面へアクセス
+2.項目にメールアドレスがあることを確認する</t>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.削除画面へアクセス
+2.項目にパスワードがあることを確認する</t>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.削除画面へアクセス
+2.項目に性別があることを確認する</t>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>郵便番号</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.削除画面へアクセス
+2.項目に郵便番号があることを確認する</t>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>住所（都道府県）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.削除画面へアクセス
+2.項目に住所（都道府県）があることを確認する</t>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>住所（市区町村）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.削除画面へアクセス
+2.項目に住所（市区町村）があることを確認する</t>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>住所（番地）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.削除画面へアクセス
+2.項目に住所（番地）があることを確認する</t>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>アカウント権限　</t>
-  </si>
-  <si>
-    <t>パスワード</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「ハッシュ化されているので表示できません」テキスト表示</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.削除画面へアクセス
+2.項目にアカウント権限があることを確認する</t>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>該当アカウント情報がテキスト表示されている</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ハッシュ化されているので表示できません」が
+テキスト表示されている</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.削除画面へアクセス
+2.前に戻るボタンがあることを確認する
+3.クリックする</t>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.削除画面へアクセス
+2.確認するボタンがあることを確認する
+3.クリックする</t>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタン押下後、画面遷移することを確認する</t>
+    <rPh sb="3" eb="6">
+      <t>オウカゴ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC601</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC602</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC603</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC604</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC605</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC606</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC607</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC608</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC609</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC610</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC611</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC612</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC613</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC614</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除するボタンをクリック後、画面遷移</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>前に戻るボタンをクリック後、画面遷移</t>
+    <rPh sb="0" eb="1">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面中央にテキスト表示
+「本当に削除してよろしいですか？」</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンチュウオウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面中央にテキスト表示</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>削除する</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.削除確認画面へアクセス
+2.前に戻るボタンがあることを確認する
+3.クリックする</t>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.削除確認画面へアクセス
+2.削除するボタンがあることを確認する
+3.クリックする</t>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.削除確認画面へアクセス
+2.画面が表示されることを確認する</t>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC701</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC702</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC703</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面中央にテキスト表示
+「削除完了しました」</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンチュウオウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.削除完了画面へアクセス
+2.画面が表示されることを確認する</t>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TOPページへ戻るボタンをクリック後、画面遷移</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TOPページへ戻る</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.削除完了画面へアクセス
+2.TOPページへ戻るボタンがあることを確認する
+3.クリックする</t>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC801</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC802</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新画面のUIチェック、名前（姓）</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名前（名）フィールドがテキストボックスであるか確認</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新画面のUIチェック、名前（名）</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名前（名）フィールドがテキストボックスであるか確認</t>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名前（名）フィールドの最大入力文字数が10文字であるか確認</t>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新画面のUIチェック、カナ（名）</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新画面のUIチェック、カナ（名）</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新画面のUIチェック、カナ（姓）</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カナ（姓）フィールドがテキストボックスであるか確認</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カナ（姓）フィールドの最大入力文字数が10文字であるか確認</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カナ（名）フィールドがテキストボックスであるか確認</t>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カナ（名）フィールドの最大入力文字数が10文字であるか確認</t>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新画面のUIチェック、メールアドレス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新画面のUIチェック、パスワード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新画面のUIチェック、性別</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新画面のUIチェック、郵便番号</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新画面のUIチェック、住所（都道府県）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新画面のUIチェック、住所（市区町村）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新画面のUIチェック、住所（番地）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新画面のUIチェック、アカウント権限</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新画面のUIチェック、確認する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メールアドレス、フィールドがテキストボックスであるか確認</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パスワード、フィールドがテキストボックスであるか確認</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パスワード、フィールドの最大入力文字数が10文字であるか確認</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メールアドレス、フィールドの最大入力文字数が100文字であるか確認</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラジオボタン（男、女の２種類）</t>
+  </si>
+  <si>
+    <t>郵便番号フィールドがテキストボックスであるか確認</t>
+    <rPh sb="0" eb="4">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>郵便番号フィールドの最大入力文字数が7文字であるか確認</t>
+    <rPh sb="0" eb="4">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プルダウン（空欄、北海道～沖縄の４７都道府県の並び順）</t>
+  </si>
+  <si>
+    <t>UIはプルダウン（一般、管理者の２種類）</t>
+  </si>
+  <si>
+    <t>初期値は該当アカウント情報を表示</t>
+  </si>
+  <si>
+    <t>placeholder="変更する場合は入力してください"</t>
+  </si>
+  <si>
+    <t>入力情報は●で表示</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタン形式</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力チェック「名前（姓）」はひらがな、漢字のみ入力可</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力チェック「名前（姓）」はひらがな、漢字のみ入力可</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力チェック「名前（名）」はひらがな、漢字のみ入力可</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力チェック「名前（名）」はひらがな、漢字のみ入力可</t>
+    <rPh sb="10" eb="11">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力チェック「カナ（姓）」はカタカナのみ入力可</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力チェック「カナ（名）」はカタカナのみ入力可</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力チェック「パスワードは半角英数字のみ入力可」</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カナ（姓）の入力が不正な場合のエラーメッセージ表示、半角英数字入力</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力チェック「メールアドレス」は半角英数字、
+半角ハイフン、半角記号（ハイフンとアットマーク）のみ入力可能</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力チェック「郵便番号」は半角数字のみ入力可</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力チェック「住所（市町区村）はひらがな、
+漢字、数字、カタカナ、記号（ハイフンとスペース）のみ入力可</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力チェック「住所（市町区村）はひらがな、
+漢字、数字、カタカナ、記号（ハイフンとスペース）のみ入力可</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力チェック「住所（番地）はひらがな、
+漢字、数字、カタカナ、記号（ハイフンとスペース）のみ入力可</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バンチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力チェック「住所（番地）はひらがな、
+漢字、数字、カタカナ、記号（ハイフンとスペース）のみ入力可</t>
+    <rPh sb="10" eb="12">
+      <t>バンチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 「名前（姓）」フィールドが正しく表示されていることを確認する</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名前（姓）フィールドの最大入力文字数が10文字であるか確認</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 「名前（名）」フィールドが正しく表示されていることを確認する</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 「カナ（姓）」フィールドが正しく表示されていることを確認する</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 「カナ（名）」フィールドが正しく表示されていることを確認する</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. メールアドレスが正しく表示されていることを確認する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 性別が正しく表示されていることを確認する</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 「名前（姓）」フィールドの最大入力文字数が10文字であるか確認する</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 「名前（名）」フィールドの最大入力文字数が10文字であるか確認する</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 「カナ（姓）」フィールドの最大入力文字数が10文字であるか確認する</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 「カナ（名）」フィールドの最大入力文字数が10文字であるか確認する</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. メールアドレスの最大入力文字数が100文字であるか確認する</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. パスワード、フィールドが正しく表示されていることを確認する</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 郵便番号の最大入力文字数が7文字であるか確認する</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 「郵便番号」フィールドがが正しく表示されていることを確認する</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 住所（都道府県）フィールドが正しく表示されていることを確認する</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 住所（市区町村）フィールドがが正しく表示されていることを確認する</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 住所（市区町村）の最大入力文字数が10文字であるか確認する</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 住所（番地）フィールドがが正しく表示されていることを確認する</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 住所（番地）の最大入力文字数が100文字であるか確認する</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バンチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. アカウント権限が正しく表示されていることを確認する</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 「名前（姓）」に全角英数字を入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 「名前（姓）」に半角英数字を入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ハンカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 「名前（姓）」にカタカナを入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 「名前（姓）」に特殊文字を入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>トクシュモジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 「名前（姓）」にひらがなを入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 「名前（姓）」に漢字を入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カンジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 「名前（名）」に全角英数字を入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="26" eb="31">
+      <t>ゼンカクエイスウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 「名前（名）」に半角英数字を入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="26" eb="31">
+      <t>ハンカクエイスウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 「名前（名）」にカタカナを入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 「名前（名）」に特殊文字を入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>トクシュモジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 「カナ（姓）」に全角英数字を入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="26" eb="31">
+      <t>ゼンカクエイスウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 「カナ（姓）」に半角英数字を入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="26" eb="31">
+      <t>ハンカクエイスウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 「カナ（姓）」にひらがなを入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 「カナ（姓）」に漢字を入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カンジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 「カナ（姓）」に特殊文字を入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>トクシュモジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 「カナ（名）」に全角英数字を入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="26" eb="31">
+      <t>ゼンカクエイスウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 「カナ（名）」に半角英数字を入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="26" eb="31">
+      <t>ハンカクエイスウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 「カナ（名）」にひらがなを入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 「カナ（名）」に漢字を入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カンジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 「カナ（名）」に特殊文字を入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>トクシュ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 「パスワード」に全角英数字を入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="26" eb="31">
+      <t>ゼンカクエイスウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 「パスワード」にひらがなを入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 「パスワード」に漢字を入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カンジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 「パスワード」にカタカナを入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 「パスワード」に特殊文字を入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>トクシュモジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 「メールアドレス」に全角英数字を入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="28" eb="33">
+      <t>ゼンカクエイスウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 「メールアドレス」にひらがなを入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 「メールアドレス」にカタカナを入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 「郵便番号」に全角英数字を入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="25" eb="30">
+      <t>ゼンカクエイスウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 「郵便番号」に半角英字を入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>ハンカクエイジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 「郵便番号」にひらがなを入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 「郵便番号」にカタカナを入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 「郵便番号」に特殊文字を入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>トクシュモジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 「郵便番号」に半角数字を入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>スウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 住所（市町区村）に全角英字を入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>エイジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 住所（市町区村）に半角英字を入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>エイジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 住所（市町区村）に半角数字を入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>スウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 住所（市町区村）に全角数字を入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>スウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 住所（市町区村）にひらがなを入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 住所（市町区村）にカタカナを入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 住所（市町区村）に漢字を入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 住所（市町区村）に記号（ハイフンとスペース）を入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 住所（番地）に全角英字を入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>ゼンカクエイジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 住所（番地）に半角英字を入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>ハンカクエイジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 住所（番地）に半角数字を入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>スウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 住所（番地）に全角数字を入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>スウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 住所（番地）にひらがなを入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バンチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 住所（番地）にカタカナを入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バンチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 住所（番地）に漢字を入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 住所（番地）に記号（ハイフンとスペース）のみを入力する
+3. 「確認する」ボタンをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バンチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「カナ（姓）」フィールドがテキストボックスであることが確認できる</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「カナ（姓）」フィールドの最大入力文字数が10文字であることが確認できる</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「カナ（名）」フィールドがテキストボックスであることが確認できる</t>
+    <rPh sb="4" eb="5">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「カナ（名）」フィールドの最大入力文字数が10文字であることが確認できる</t>
+    <rPh sb="4" eb="5">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. パスワードの最大入力文字数が10文字であるか確認する</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「郵便番号」フィールドの最大入力文字数が7文字であることが確認できる</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「性別」フィールドがラジオボタンであることが確認できる</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント権限がラジオボタンであることが確認できる</t>
+    <rPh sb="5" eb="7">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新画面にアクセスする
+2. 「確認する」が正しく表示されていることを確認する
+3.クリックする</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタン押下後、画面遷移することを確認する</t>
+    <rPh sb="3" eb="5">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">名前フィールドの下に「名前（姓）は日本語の漢字またはひらがなで入力してください。」とエラーメッセージが表示される
+</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヒョウジマエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名前フィールドの下に「名前（姓）は日本語の漢字またはひらがなで入力してください。」とエラーメッセージが表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヒョウジマエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">名前フィールドの下に「名前（名）は日本語の漢字またはひらがなで入力してください。」とエラーメッセージが表示される
+</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヒョウジマエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名前フィールドの下に「名前（名）は日本語の漢字またはひらがなで入力してください。」とエラーメッセージが表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヒョウジマエ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -4035,7 +5899,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4050,6 +5914,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4356,8 +6221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62480909-208B-4007-9E2D-1D72FFEAF5A7}">
   <dimension ref="A1:J108"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="D19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4446,7 +6311,7 @@
         <v>56</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>42</v>
@@ -4475,7 +6340,7 @@
         <v>57</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D4" t="s">
         <v>43</v>
@@ -4536,7 +6401,7 @@
         <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>45</v>
@@ -4565,7 +6430,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
@@ -4594,7 +6459,7 @@
         <v>57</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D8" t="s">
         <v>46</v>
@@ -4623,7 +6488,7 @@
         <v>53</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D9" t="s">
         <v>30</v>
@@ -4710,7 +6575,7 @@
         <v>53</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D12" t="s">
         <v>77</v>
@@ -4736,10 +6601,10 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D13" t="s">
         <v>85</v>
@@ -4762,10 +6627,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C14" t="s">
         <v>89</v>
@@ -4791,10 +6656,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C15" t="s">
         <v>92</v>
@@ -4820,19 +6685,19 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C16" t="s">
+        <v>580</v>
+      </c>
+      <c r="D16" t="s">
         <v>95</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>96</v>
-      </c>
-      <c r="E16" t="s">
-        <v>97</v>
       </c>
       <c r="F16" t="s">
         <v>87</v>
@@ -4849,19 +6714,19 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" t="s">
         <v>98</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>99</v>
-      </c>
-      <c r="E17" t="s">
-        <v>100</v>
       </c>
       <c r="F17" t="s">
         <v>87</v>
@@ -4878,19 +6743,19 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" t="s">
         <v>101</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>102</v>
-      </c>
-      <c r="E18" t="s">
-        <v>103</v>
       </c>
       <c r="F18" t="s">
         <v>87</v>
@@ -4907,19 +6772,19 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F19" t="s">
         <v>87</v>
@@ -4936,19 +6801,19 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F20" t="s">
         <v>87</v>
@@ -4965,19 +6830,19 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B21" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F21" t="s">
         <v>87</v>
@@ -4994,19 +6859,19 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B22" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F22" t="s">
         <v>87</v>
@@ -5023,19 +6888,19 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F23" t="s">
         <v>87</v>
@@ -5052,19 +6917,19 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B24" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F24" t="s">
         <v>87</v>
@@ -5081,19 +6946,19 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B25" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F25" t="s">
         <v>87</v>
@@ -5110,19 +6975,19 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B26" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D26" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F26" t="s">
         <v>87</v>
@@ -5139,19 +7004,19 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B27" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F27" t="s">
         <v>87</v>
@@ -5168,19 +7033,19 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B28" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F28" t="s">
         <v>87</v>
@@ -5197,19 +7062,19 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F29" t="s">
         <v>87</v>
@@ -5226,19 +7091,19 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B30" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F30" t="s">
         <v>87</v>
@@ -5255,19 +7120,19 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B31" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F31" t="s">
         <v>87</v>
@@ -5284,19 +7149,19 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B32" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F32" t="s">
         <v>87</v>
@@ -5313,19 +7178,19 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B33" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F33" t="s">
         <v>87</v>
@@ -5342,19 +7207,19 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F34" t="s">
         <v>87</v>
@@ -5371,19 +7236,19 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B35" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F35" t="s">
         <v>87</v>
@@ -5400,19 +7265,19 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D36" t="s">
+        <v>185</v>
+      </c>
+      <c r="E36" t="s">
         <v>186</v>
-      </c>
-      <c r="E36" t="s">
-        <v>187</v>
       </c>
       <c r="F36" t="s">
         <v>87</v>
@@ -5429,19 +7294,19 @@
     </row>
     <row r="37" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B37" t="s">
+        <v>227</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="D37" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F37" t="s">
         <v>71</v>
@@ -5458,19 +7323,19 @@
     </row>
     <row r="38" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B38" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F38" t="s">
         <v>87</v>
@@ -5487,19 +7352,19 @@
     </row>
     <row r="39" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B39" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F39" t="s">
         <v>87</v>
@@ -5516,19 +7381,19 @@
     </row>
     <row r="40" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B40" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F40" t="s">
         <v>87</v>
@@ -5545,19 +7410,19 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B41" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F41" t="s">
         <v>87</v>
@@ -5569,19 +7434,19 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B42" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F42" t="s">
         <v>87</v>
@@ -5593,19 +7458,19 @@
     </row>
     <row r="43" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B43" t="s">
+        <v>231</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>233</v>
-      </c>
       <c r="D43" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F43" t="s">
         <v>87</v>
@@ -5622,19 +7487,19 @@
     </row>
     <row r="44" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B44" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F44" t="s">
         <v>87</v>
@@ -5651,19 +7516,19 @@
     </row>
     <row r="45" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B45" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F45" t="s">
         <v>87</v>
@@ -5680,22 +7545,22 @@
     </row>
     <row r="46" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B46" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F46" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G46" s="5">
         <v>45465</v>
@@ -5709,19 +7574,19 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B47" t="s">
+        <v>403</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>405</v>
-      </c>
       <c r="D47" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F47" t="s">
         <v>87</v>
@@ -5733,19 +7598,19 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B48" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F48" t="s">
         <v>87</v>
@@ -5757,19 +7622,19 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B49" t="s">
+        <v>237</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>239</v>
-      </c>
       <c r="D49" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F49" t="s">
         <v>87</v>
@@ -5786,19 +7651,19 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B50" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F50" t="s">
         <v>87</v>
@@ -5815,19 +7680,19 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F51" t="s">
         <v>87</v>
@@ -5844,19 +7709,19 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B52" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F52" t="s">
         <v>87</v>
@@ -5873,19 +7738,19 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F53" t="s">
         <v>87</v>
@@ -5902,19 +7767,19 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B54" t="s">
+        <v>243</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>245</v>
-      </c>
       <c r="D54" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F54" t="s">
         <v>87</v>
@@ -5931,19 +7796,19 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B55" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F55" t="s">
         <v>87</v>
@@ -5960,19 +7825,19 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B56" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F56" t="s">
         <v>87</v>
@@ -5989,19 +7854,19 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B57" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F57" t="s">
         <v>87</v>
@@ -6018,19 +7883,19 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B58" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F58" t="s">
         <v>87</v>
@@ -6047,16 +7912,16 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B59" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>38</v>
@@ -6076,16 +7941,16 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B60" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>38</v>
@@ -6105,16 +7970,16 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B61" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>38</v>
@@ -6134,16 +7999,16 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B62" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>38</v>
@@ -6163,16 +8028,16 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B63" t="s">
+        <v>249</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>251</v>
-      </c>
       <c r="D63" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>38</v>
@@ -6192,16 +8057,16 @@
     </row>
     <row r="64" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>257</v>
-      </c>
       <c r="D64" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>17</v>
@@ -6224,16 +8089,16 @@
     </row>
     <row r="65" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>17</v>
@@ -6256,16 +8121,16 @@
     </row>
     <row r="66" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>17</v>
@@ -6288,16 +8153,16 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B67" t="s">
+        <v>259</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>261</v>
-      </c>
       <c r="D67" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>37</v>
@@ -6317,16 +8182,16 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B68" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>37</v>
@@ -6346,16 +8211,16 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B69" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>37</v>
@@ -6375,16 +8240,16 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B70" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>37</v>
@@ -6404,16 +8269,16 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B71" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>37</v>
@@ -6433,19 +8298,19 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B72" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C72" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="D72" s="4" t="s">
-        <v>408</v>
-      </c>
       <c r="E72" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F72" t="s">
         <v>87</v>
@@ -6454,16 +8319,16 @@
     </row>
     <row r="73" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B73" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>267</v>
-      </c>
       <c r="D73" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>34</v>
@@ -6483,16 +8348,16 @@
     </row>
     <row r="74" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>34</v>
@@ -6512,19 +8377,19 @@
     </row>
     <row r="75" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B75" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>357</v>
-      </c>
       <c r="D75" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F75" t="s">
         <v>87</v>
@@ -6541,19 +8406,19 @@
     </row>
     <row r="76" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D76" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>361</v>
       </c>
       <c r="F76" t="s">
         <v>87</v>
@@ -6565,7 +8430,7 @@
         <v>74</v>
       </c>
       <c r="I76" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J76" t="s">
         <v>88</v>
@@ -6573,19 +8438,19 @@
     </row>
     <row r="77" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F77" t="s">
         <v>87</v>
@@ -6602,19 +8467,19 @@
     </row>
     <row r="78" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F78" t="s">
         <v>87</v>
@@ -6631,19 +8496,19 @@
     </row>
     <row r="79" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F79" t="s">
         <v>87</v>
@@ -6660,19 +8525,19 @@
     </row>
     <row r="80" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F80" t="s">
         <v>87</v>
@@ -6689,16 +8554,16 @@
     </row>
     <row r="81" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B81" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C81" s="3" t="s">
-        <v>269</v>
-      </c>
       <c r="D81" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>35</v>
@@ -6718,16 +8583,16 @@
     </row>
     <row r="82" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>35</v>
@@ -6747,19 +8612,19 @@
     </row>
     <row r="83" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B83" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>363</v>
-      </c>
       <c r="D83" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F83" t="s">
         <v>87</v>
@@ -6776,19 +8641,19 @@
     </row>
     <row r="84" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F84" t="s">
         <v>87</v>
@@ -6800,7 +8665,7 @@
         <v>74</v>
       </c>
       <c r="I84" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J84" t="s">
         <v>88</v>
@@ -6808,19 +8673,19 @@
     </row>
     <row r="85" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F85" t="s">
         <v>87</v>
@@ -6837,19 +8702,19 @@
     </row>
     <row r="86" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F86" t="s">
         <v>87</v>
@@ -6866,19 +8731,19 @@
     </row>
     <row r="87" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F87" t="s">
         <v>87</v>
@@ -6895,19 +8760,19 @@
     </row>
     <row r="88" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C88" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="D88" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="D88" s="4" t="s">
-        <v>379</v>
-      </c>
       <c r="E88" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F88" t="s">
         <v>71</v>
@@ -7024,7 +8889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FCFD780-02AB-48BA-8D27-ACF3D5D231ED}">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -7052,7 +8917,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -7114,7 +8979,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -7149,7 +9014,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -7174,7 +9039,7 @@
         <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -7258,19 +9123,19 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
         <v>104</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>408</v>
+      </c>
+      <c r="D4" t="s">
         <v>105</v>
       </c>
-      <c r="C4" t="s">
-        <v>409</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>106</v>
-      </c>
-      <c r="E4" t="s">
-        <v>107</v>
       </c>
       <c r="F4" t="s">
         <v>87</v>
@@ -7287,19 +9152,19 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" t="s">
         <v>108</v>
       </c>
-      <c r="B5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>109</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>110</v>
-      </c>
-      <c r="E5" t="s">
-        <v>111</v>
       </c>
       <c r="F5" t="s">
         <v>87</v>
@@ -7316,19 +9181,19 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" t="s">
         <v>112</v>
       </c>
-      <c r="B6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>113</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>114</v>
-      </c>
-      <c r="E6" t="s">
-        <v>115</v>
       </c>
       <c r="F6" t="s">
         <v>87</v>
@@ -7345,19 +9210,19 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" t="s">
         <v>116</v>
       </c>
-      <c r="B7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>117</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>118</v>
-      </c>
-      <c r="E7" t="s">
-        <v>119</v>
       </c>
       <c r="F7" t="s">
         <v>87</v>
@@ -7374,19 +9239,19 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" t="s">
         <v>120</v>
       </c>
-      <c r="B8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>121</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>122</v>
-      </c>
-      <c r="E8" t="s">
-        <v>123</v>
       </c>
       <c r="F8" t="s">
         <v>87</v>
@@ -7403,19 +9268,19 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" t="s">
         <v>124</v>
       </c>
-      <c r="B9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>125</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>126</v>
-      </c>
-      <c r="E9" t="s">
-        <v>127</v>
       </c>
       <c r="F9" t="s">
         <v>87</v>
@@ -7427,7 +9292,7 @@
         <v>74</v>
       </c>
       <c r="I9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J9" t="s">
         <v>88</v>
@@ -7435,19 +9300,19 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" t="s">
         <v>128</v>
       </c>
-      <c r="B10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>129</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>130</v>
-      </c>
-      <c r="E10" t="s">
-        <v>131</v>
       </c>
       <c r="F10" t="s">
         <v>87</v>
@@ -7459,7 +9324,7 @@
         <v>74</v>
       </c>
       <c r="I10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J10" t="s">
         <v>88</v>
@@ -7467,19 +9332,19 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" t="s">
         <v>132</v>
       </c>
-      <c r="B11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>133</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>134</v>
-      </c>
-      <c r="E11" t="s">
-        <v>135</v>
       </c>
       <c r="F11" t="s">
         <v>87</v>
@@ -7496,19 +9361,19 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" t="s">
         <v>136</v>
       </c>
-      <c r="B12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>137</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>138</v>
-      </c>
-      <c r="E12" t="s">
-        <v>139</v>
       </c>
       <c r="F12" t="s">
         <v>87</v>
@@ -7525,19 +9390,19 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" t="s">
+        <v>417</v>
+      </c>
+      <c r="D13" t="s">
         <v>140</v>
       </c>
-      <c r="B13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" t="s">
-        <v>418</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>141</v>
-      </c>
-      <c r="E13" t="s">
-        <v>142</v>
       </c>
       <c r="F13" t="s">
         <v>87</v>
@@ -7554,19 +9419,19 @@
     </row>
     <row r="14" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C14" t="s">
+        <v>418</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" t="s">
         <v>420</v>
-      </c>
-      <c r="E14" t="s">
-        <v>421</v>
       </c>
       <c r="F14" t="s">
         <v>71</v>
@@ -7578,7 +9443,7 @@
         <v>74</v>
       </c>
       <c r="I14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J14" t="s">
         <v>88</v>
@@ -7586,19 +9451,19 @@
     </row>
     <row r="15" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>423</v>
+      </c>
+      <c r="B15" t="s">
+        <v>425</v>
+      </c>
+      <c r="C15" t="s">
         <v>424</v>
       </c>
-      <c r="B15" t="s">
-        <v>426</v>
-      </c>
-      <c r="C15" t="s">
-        <v>425</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E15" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F15" t="s">
         <v>71</v>
@@ -7610,7 +9475,7 @@
         <v>74</v>
       </c>
       <c r="I15" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J15" t="s">
         <v>88</v>
@@ -7687,7 +9552,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E2" t="s">
         <v>67</v>
@@ -7736,7 +9601,7 @@
     </row>
     <row r="4" spans="1:10" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B4" t="s">
         <v>50</v>
@@ -7745,7 +9610,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E4" t="s">
         <v>51</v>
@@ -7760,7 +9625,7 @@
         <v>74</v>
       </c>
       <c r="I4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J4" t="s">
         <v>73</v>
@@ -7830,10 +9695,10 @@
         <v>80</v>
       </c>
       <c r="B2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C2" t="s">
         <v>432</v>
-      </c>
-      <c r="C2" t="s">
-        <v>433</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>81</v>
@@ -7862,13 +9727,13 @@
         <v>79</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>82</v>
       </c>
       <c r="E3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F3" t="s">
         <v>71</v>
@@ -7885,24 +9750,24 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>429</v>
+      </c>
+      <c r="B5" t="s">
+        <v>431</v>
+      </c>
+      <c r="C5" t="s">
         <v>430</v>
       </c>
-      <c r="B5" t="s">
-        <v>432</v>
-      </c>
-      <c r="C5" t="s">
-        <v>431</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F5" t="s">
         <v>71</v>
@@ -7919,19 +9784,19 @@
     </row>
     <row r="6" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B6" t="s">
         <v>79</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F6" t="s">
         <v>71</v>
@@ -7948,19 +9813,19 @@
     </row>
     <row r="7" spans="1:10" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>515</v>
+      </c>
+      <c r="B7" t="s">
         <v>516</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>424</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="C7" t="s">
-        <v>425</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" t="s">
         <v>518</v>
-      </c>
-      <c r="E7" t="s">
-        <v>519</v>
       </c>
       <c r="F7" t="s">
         <v>71</v>
@@ -7986,7 +9851,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -8014,7 +9879,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -8040,19 +9905,19 @@
     </row>
     <row r="2" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B2" t="s">
         <v>442</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>443</v>
       </c>
-      <c r="C2" t="s">
-        <v>444</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G2" t="s">
         <v>71</v>
@@ -8069,19 +9934,19 @@
     </row>
     <row r="3" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C3" t="s">
+        <v>468</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>470</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G3" t="s">
         <v>71</v>
@@ -8098,19 +9963,19 @@
     </row>
     <row r="4" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C4" t="s">
+        <v>470</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>472</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G4" t="s">
         <v>71</v>
@@ -8127,19 +9992,19 @@
     </row>
     <row r="5" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C5" t="s">
+        <v>472</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>474</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G5" t="s">
         <v>71</v>
@@ -8156,19 +10021,19 @@
     </row>
     <row r="6" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C6" t="s">
+        <v>474</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>476</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G6" t="s">
         <v>71</v>
@@ -8185,19 +10050,19 @@
     </row>
     <row r="7" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C7" t="s">
+        <v>476</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>478</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G7" t="s">
         <v>71</v>
@@ -8214,22 +10079,22 @@
     </row>
     <row r="8" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C8" t="s">
+        <v>478</v>
+      </c>
+      <c r="D8" t="s">
+        <v>448</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="D8" t="s">
-        <v>449</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>480</v>
-      </c>
       <c r="F8" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G8" t="s">
         <v>71</v>
@@ -8246,22 +10111,22 @@
     </row>
     <row r="9" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C9" t="s">
+        <v>480</v>
+      </c>
+      <c r="D9" t="s">
+        <v>449</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="D9" t="s">
-        <v>450</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>482</v>
-      </c>
       <c r="F9" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G9" t="s">
         <v>71</v>
@@ -8278,22 +10143,22 @@
     </row>
     <row r="10" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C10" t="s">
+        <v>482</v>
+      </c>
+      <c r="D10" t="s">
+        <v>450</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="D10" t="s">
-        <v>451</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>484</v>
-      </c>
       <c r="F10" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G10" t="s">
         <v>71</v>
@@ -8310,22 +10175,22 @@
     </row>
     <row r="11" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C11" t="s">
+        <v>484</v>
+      </c>
+      <c r="D11" t="s">
+        <v>451</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="D11" t="s">
-        <v>452</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>486</v>
-      </c>
       <c r="F11" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G11" t="s">
         <v>71</v>
@@ -8342,22 +10207,22 @@
     </row>
     <row r="12" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C12" t="s">
+        <v>486</v>
+      </c>
+      <c r="D12" t="s">
+        <v>451</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="D12" t="s">
-        <v>452</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>488</v>
-      </c>
       <c r="F12" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G12" t="s">
         <v>71</v>
@@ -8374,22 +10239,22 @@
     </row>
     <row r="13" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B13" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G13" t="s">
         <v>71</v>
@@ -8406,22 +10271,22 @@
     </row>
     <row r="14" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B14" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C14" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D14" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G14" t="s">
         <v>71</v>
@@ -8438,19 +10303,19 @@
     </row>
     <row r="15" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F15" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G15" t="s">
         <v>71</v>
@@ -8467,19 +10332,19 @@
     </row>
     <row r="16" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C16" t="s">
+        <v>424</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="C16" t="s">
-        <v>425</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>513</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>514</v>
       </c>
       <c r="G16" t="s">
         <v>71</v>
@@ -8496,19 +10361,19 @@
     </row>
     <row r="17" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B17" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C17" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F17" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G17" t="s">
         <v>71</v>
@@ -8531,10 +10396,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956E9933-2602-426A-AD53-5DCFC42B7DE4}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -8543,8 +10408,8 @@
     <col min="2" max="2" width="51.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="5.77734375" bestFit="1" customWidth="1"/>
@@ -8561,7 +10426,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -8585,100 +10450,242 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>547</v>
+      </c>
       <c r="B2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="F2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>548</v>
+      </c>
       <c r="B3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C3" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>470</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="F3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>549</v>
+      </c>
       <c r="B4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C4" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>472</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="F4" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>550</v>
+      </c>
       <c r="B5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C5" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>474</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="F5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>551</v>
+      </c>
       <c r="B6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C6" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="F6" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>552</v>
+      </c>
       <c r="B7" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="C7" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>519</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>553</v>
+      </c>
       <c r="B8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C8" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>478</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="F8" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>554</v>
+      </c>
       <c r="B9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C9" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="F9" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>555</v>
+      </c>
       <c r="B10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C10" t="s">
+        <v>534</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="F10" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>556</v>
+      </c>
+      <c r="B11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" t="s">
+        <v>536</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="F11" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>557</v>
+      </c>
+      <c r="B12" t="s">
+        <v>442</v>
+      </c>
+      <c r="C12" t="s">
+        <v>538</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="F12" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>558</v>
+      </c>
+      <c r="B13" t="s">
+        <v>442</v>
+      </c>
+      <c r="C13" t="s">
+        <v>540</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="F13" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>559</v>
+      </c>
+      <c r="B14" t="s">
+        <v>523</v>
+      </c>
+      <c r="C14" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>443</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="E14" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="F14" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>560</v>
+      </c>
+      <c r="B15" t="s">
+        <v>524</v>
+      </c>
+      <c r="C15" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>443</v>
-      </c>
-      <c r="C12" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>443</v>
-      </c>
-      <c r="C13" t="s">
-        <v>524</v>
+      <c r="E15" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="F15" t="s">
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -8689,20 +10696,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256AC4AF-30F6-4338-9D8E-B754FC3A1B55}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="73" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="5.77734375" bestFit="1" customWidth="1"/>
@@ -8719,7 +10726,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -8741,6 +10748,57 @@
       </c>
       <c r="K1" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>569</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="C2" t="s">
+        <v>564</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>570</v>
+      </c>
+      <c r="B3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C3" t="s">
+        <v>565</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="F3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>571</v>
+      </c>
+      <c r="B4" t="s">
+        <v>562</v>
+      </c>
+      <c r="C4" t="s">
+        <v>521</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="F4" t="s">
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -8751,20 +10809,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{915030F3-E3A1-46F1-B7FA-33AB2BB4AB4F}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="5.77734375" bestFit="1" customWidth="1"/>
@@ -8781,7 +10839,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -8803,6 +10861,41 @@
       </c>
       <c r="K1" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>578</v>
+      </c>
+      <c r="B3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C3" t="s">
+        <v>575</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="F3" t="s">
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -8813,20 +10906,20 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50888A99-EB08-43C9-A3E6-3D0084DC5320}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="C70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="116.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="5.77734375" bestFit="1" customWidth="1"/>
@@ -8843,7 +10936,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -8865,10 +10958,1110 @@
       </c>
       <c r="K1" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D2" t="s">
+        <v>609</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="F2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>579</v>
+      </c>
+      <c r="C3" t="s">
+        <v>628</v>
+      </c>
+      <c r="D3" t="s">
+        <v>609</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="F3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>581</v>
+      </c>
+      <c r="C4" t="s">
+        <v>582</v>
+      </c>
+      <c r="D4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="F4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>581</v>
+      </c>
+      <c r="C5" t="s">
+        <v>583</v>
+      </c>
+      <c r="D5" t="s">
+        <v>609</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="F5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>586</v>
+      </c>
+      <c r="C6" t="s">
+        <v>587</v>
+      </c>
+      <c r="D6" t="s">
+        <v>609</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="F6" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>586</v>
+      </c>
+      <c r="C7" t="s">
+        <v>588</v>
+      </c>
+      <c r="D7" t="s">
+        <v>609</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="F7" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>585</v>
+      </c>
+      <c r="C8" t="s">
+        <v>589</v>
+      </c>
+      <c r="D8" t="s">
+        <v>609</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="F8" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>584</v>
+      </c>
+      <c r="C9" t="s">
+        <v>590</v>
+      </c>
+      <c r="D9" t="s">
+        <v>609</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="F9" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>591</v>
+      </c>
+      <c r="C10" t="s">
+        <v>600</v>
+      </c>
+      <c r="D10" t="s">
+        <v>609</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="F10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>591</v>
+      </c>
+      <c r="C11" t="s">
+        <v>603</v>
+      </c>
+      <c r="D11" t="s">
+        <v>609</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="F11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>592</v>
+      </c>
+      <c r="C12" t="s">
+        <v>601</v>
+      </c>
+      <c r="D12" t="s">
+        <v>610</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="F12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>592</v>
+      </c>
+      <c r="C13" t="s">
+        <v>602</v>
+      </c>
+      <c r="D13" t="s">
+        <v>611</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="F13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>593</v>
+      </c>
+      <c r="C14" t="s">
+        <v>604</v>
+      </c>
+      <c r="D14" t="s">
+        <v>609</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="F14" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>594</v>
+      </c>
+      <c r="C15" t="s">
+        <v>606</v>
+      </c>
+      <c r="D15" t="s">
+        <v>609</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="F15" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>594</v>
+      </c>
+      <c r="C16" t="s">
+        <v>605</v>
+      </c>
+      <c r="D16" t="s">
+        <v>609</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="F16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>595</v>
+      </c>
+      <c r="C17" t="s">
+        <v>607</v>
+      </c>
+      <c r="D17" t="s">
+        <v>609</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="F17" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>596</v>
+      </c>
+      <c r="C18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" t="s">
+        <v>609</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="F18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>596</v>
+      </c>
+      <c r="C19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19" t="s">
+        <v>609</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="F19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>597</v>
+      </c>
+      <c r="C20" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" t="s">
+        <v>609</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="F20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>597</v>
+      </c>
+      <c r="C21" t="s">
+        <v>166</v>
+      </c>
+      <c r="D21" t="s">
+        <v>609</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="F21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>598</v>
+      </c>
+      <c r="C22" t="s">
+        <v>608</v>
+      </c>
+      <c r="D22" t="s">
+        <v>609</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>599</v>
+      </c>
+      <c r="C23" t="s">
+        <v>612</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="F23" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B25" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B28" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B29" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B30" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B31" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B32" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B33" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B34" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B35" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B36" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B37" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B38" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B39" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B40" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B41" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B42" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B43" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B44" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B45" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B46" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B47" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B48" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B49" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B50" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B51" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B52" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B53" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B54" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B55" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B56" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B57" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B58" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B59" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B60" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B61" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B62" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B63" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B64" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B65" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B66" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B67" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B68" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B69" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B70" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B71" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B72" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B73" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B74" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="B75" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>360</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/単体テスト.xlsx
+++ b/単体テスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445E9727-7101-479F-AF77-7710AF7B49A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5308F98A-926C-46DA-96AF-69D17FD67553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="810" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="810" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アカウント登録画面" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="832">
   <si>
     <t>テストケースID</t>
   </si>
@@ -5833,6 +5833,588 @@
     <rPh sb="51" eb="53">
       <t>ヒョウジマエ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面項目の右隣に更新画面の入力値をテキスト表示</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+  </si>
+  <si>
+    <t>性別</t>
+  </si>
+  <si>
+    <t>郵便番号</t>
+  </si>
+  <si>
+    <t>更新する</t>
+  </si>
+  <si>
+    <t>前に戻る</t>
+  </si>
+  <si>
+    <t>空欄の場合、テキスト表示（変更なし）</t>
+  </si>
+  <si>
+    <t>UIはボタン形式、該当ボタン押下時に画面遷移</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新確認画面にアクセスする
+2. 「名前（姓）」フィールドが正しく表示されていることを確認する</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新確認画面にアクセスする
+2. 「名前（名）」フィールドが正しく表示されていることを確認する</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新確認画面にアクセスする
+2. 「カナ（姓）」フィールドが正しく表示されていることを確認する</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新確認画面にアクセスする
+2. 「カナ（名）」フィールドが正しく表示されていることを確認する</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新確認画面にアクセスする
+2. 「メールアドレス」フィールドが正しく表示されていることを確認する</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新確認画面にアクセスする
+2. 「パスワード」フィールドが正しく表示されていることを確認する</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新確認画面にアクセスする
+2. 「性別」フィールドが正しく表示されていることを確認する</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新確認画面にアクセスする
+2. 「郵便番号」フィールドが正しく表示されていることを確認する</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新確認画面にアクセスする
+2. 「住所（都道府県）」フィールドが正しく表示されていることを確認する</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新確認画面にアクセスする
+2. 「住所（市区町村）」フィールドが正しく表示されていることを確認する</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新確認画面にアクセスする
+2. 「住所（番地）」フィールドが正しく表示されていることを確認する</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新確認画面にアクセスする
+2. 「アカウント権限」フィールドが正しく表示されていることを確認する</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新確認画面にアクセスする
+2. 「更新」ボタン表示されていることを確認する
+3. ボタンをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 更新確認画面にアクセスする
+2. 「前に戻る」ボタン表示されていることを確認する
+3. ボタンをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面項目の右隣に更新画面の入力値をテキスト表示
+名前（姓）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面項目の右隣に更新画面の入力値をテキスト表示
+名前（名）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面項目の右隣に更新画面の入力値をテキスト表示
+カナ（姓）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面項目の右隣に更新画面の入力値をテキスト表示
+カナ（名）</t>
+    <rPh sb="27" eb="28">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面項目の右隣に更新画面の入力値をテキスト表示
+メールアドレス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面項目の右隣に更新画面の入力値をテキスト表示
+性別</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面項目の右隣に更新画面の入力値をテキスト表示
+郵便番号</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面項目の右隣に更新画面の入力値をテキスト表示
+住所（都道府県）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面項目の右隣に更新画面の入力値をテキスト表示
+住所（市区町村）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面項目の右隣に更新画面の入力値をテキスト表示
+住所（番地）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面項目の右隣に更新画面の入力値をテキスト表示
+アカウント権限</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>（●で表示）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面項目の右隣に更新画面の入力値をテキスト表示
+パスワード（●で表示）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「パスワード」フィールドがテキスト表示（変更なし）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタン押下後、画面遷移することを確認</t>
+    <rPh sb="3" eb="6">
+      <t>オウカゴ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面中央にテキスト表示
+「更新完了しました」</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面中央にテキスト表示
+「更新完了しました」</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンチュウオウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.更新完了画面へアクセス
+2.TOPページへ戻るボタンがあることを確認する
+3.クリックする</t>
+    <rPh sb="2" eb="4">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.更新完了画面へアクセス
+2.画面が表示されることを確認する</t>
+    <rPh sb="2" eb="4">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC901</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC902</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC903</t>
+  </si>
+  <si>
+    <t>TC904</t>
+  </si>
+  <si>
+    <t>TC905</t>
+  </si>
+  <si>
+    <t>TC906</t>
+  </si>
+  <si>
+    <t>TC907</t>
+  </si>
+  <si>
+    <t>TC908</t>
+  </si>
+  <si>
+    <t>TC909</t>
+  </si>
+  <si>
+    <t>TC910</t>
+  </si>
+  <si>
+    <t>TC911</t>
+  </si>
+  <si>
+    <t>TC912</t>
+  </si>
+  <si>
+    <t>TC913</t>
+  </si>
+  <si>
+    <t>TC914</t>
+  </si>
+  <si>
+    <t>TC915</t>
+  </si>
+  <si>
+    <t>TC916</t>
+  </si>
+  <si>
+    <t>TC917</t>
+  </si>
+  <si>
+    <t>TC918</t>
+  </si>
+  <si>
+    <t>TC919</t>
+  </si>
+  <si>
+    <t>TC920</t>
+  </si>
+  <si>
+    <t>TC921</t>
+  </si>
+  <si>
+    <t>TC922</t>
+  </si>
+  <si>
+    <t>TC923</t>
+  </si>
+  <si>
+    <t>TC924</t>
+  </si>
+  <si>
+    <t>TC925</t>
+  </si>
+  <si>
+    <t>TC926</t>
+  </si>
+  <si>
+    <t>TC927</t>
+  </si>
+  <si>
+    <t>TC928</t>
+  </si>
+  <si>
+    <t>TC929</t>
+  </si>
+  <si>
+    <t>TC930</t>
+  </si>
+  <si>
+    <t>TC931</t>
+  </si>
+  <si>
+    <t>TC932</t>
+  </si>
+  <si>
+    <t>TC933</t>
+  </si>
+  <si>
+    <t>TC934</t>
+  </si>
+  <si>
+    <t>TC935</t>
+  </si>
+  <si>
+    <t>TC936</t>
+  </si>
+  <si>
+    <t>TC937</t>
+  </si>
+  <si>
+    <t>TC938</t>
+  </si>
+  <si>
+    <t>TC939</t>
+  </si>
+  <si>
+    <t>TC940</t>
+  </si>
+  <si>
+    <t>TC941</t>
+  </si>
+  <si>
+    <t>TC942</t>
+  </si>
+  <si>
+    <t>TC943</t>
+  </si>
+  <si>
+    <t>TC944</t>
+  </si>
+  <si>
+    <t>TC945</t>
+  </si>
+  <si>
+    <t>TC946</t>
+  </si>
+  <si>
+    <t>TC947</t>
+  </si>
+  <si>
+    <t>TC948</t>
+  </si>
+  <si>
+    <t>TC949</t>
+  </si>
+  <si>
+    <t>TC950</t>
+  </si>
+  <si>
+    <t>TC951</t>
+  </si>
+  <si>
+    <t>TC952</t>
+  </si>
+  <si>
+    <t>TC953</t>
+  </si>
+  <si>
+    <t>TC954</t>
+  </si>
+  <si>
+    <t>TC955</t>
+  </si>
+  <si>
+    <t>TC956</t>
+  </si>
+  <si>
+    <t>TC957</t>
+  </si>
+  <si>
+    <t>TC958</t>
+  </si>
+  <si>
+    <t>TC959</t>
+  </si>
+  <si>
+    <t>TC960</t>
+  </si>
+  <si>
+    <t>TC961</t>
+  </si>
+  <si>
+    <t>TC962</t>
+  </si>
+  <si>
+    <t>TC963</t>
+  </si>
+  <si>
+    <t>TC964</t>
+  </si>
+  <si>
+    <t>TC965</t>
+  </si>
+  <si>
+    <t>TC966</t>
+  </si>
+  <si>
+    <t>TC967</t>
+  </si>
+  <si>
+    <t>TC968</t>
+  </si>
+  <si>
+    <t>TC969</t>
+  </si>
+  <si>
+    <t>TC970</t>
+  </si>
+  <si>
+    <t>TC971</t>
+  </si>
+  <si>
+    <t>TC972</t>
+  </si>
+  <si>
+    <t>TC973</t>
+  </si>
+  <si>
+    <t>TC974</t>
+  </si>
+  <si>
+    <t>TC103</t>
+  </si>
+  <si>
+    <t>TC114</t>
+  </si>
+  <si>
+    <t>TC115</t>
+  </si>
+  <si>
+    <t>TC201</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC202</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -5899,7 +6481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -5914,7 +6496,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -8887,20 +9468,20 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FCFD780-02AB-48BA-8D27-ACF3D5D231ED}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="82.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="5.77734375" bestFit="1" customWidth="1"/>
@@ -8941,6 +9522,264 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>712</v>
+      </c>
+      <c r="C2" t="s">
+        <v>468</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>712</v>
+      </c>
+      <c r="C3" t="s">
+        <v>470</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>827</v>
+      </c>
+      <c r="B4" t="s">
+        <v>712</v>
+      </c>
+      <c r="C4" t="s">
+        <v>472</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" t="s">
+        <v>712</v>
+      </c>
+      <c r="C5" t="s">
+        <v>474</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" t="s">
+        <v>712</v>
+      </c>
+      <c r="C6" t="s">
+        <v>476</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" t="s">
+        <v>718</v>
+      </c>
+      <c r="C7" t="s">
+        <v>713</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="F7" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" t="s">
+        <v>712</v>
+      </c>
+      <c r="C8" t="s">
+        <v>713</v>
+      </c>
+      <c r="D8" t="s">
+        <v>745</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" t="s">
+        <v>712</v>
+      </c>
+      <c r="C9" t="s">
+        <v>714</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" t="s">
+        <v>712</v>
+      </c>
+      <c r="C10" t="s">
+        <v>715</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" t="s">
+        <v>712</v>
+      </c>
+      <c r="C11" t="s">
+        <v>534</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" t="s">
+        <v>712</v>
+      </c>
+      <c r="C12" t="s">
+        <v>536</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" t="s">
+        <v>712</v>
+      </c>
+      <c r="C13" t="s">
+        <v>538</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" t="s">
+        <v>712</v>
+      </c>
+      <c r="C14" t="s">
+        <v>480</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>828</v>
+      </c>
+      <c r="B15" t="s">
+        <v>719</v>
+      </c>
+      <c r="C15" t="s">
+        <v>716</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>829</v>
+      </c>
+      <c r="B16" t="s">
+        <v>719</v>
+      </c>
+      <c r="C16" t="s">
+        <v>717</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>748</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8949,20 +9788,20 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2EB2932-0A74-4EEF-B2F9-15095BB1B594}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="81.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="5.77734375" bestFit="1" customWidth="1"/>
@@ -9001,6 +9840,41 @@
       </c>
       <c r="K1" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>830</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>831</v>
+      </c>
+      <c r="B3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C3" t="s">
+        <v>575</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="F3" t="s">
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -10812,7 +11686,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -10906,10 +11780,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50888A99-EB08-43C9-A3E6-3D0084DC5320}">
-  <dimension ref="A1:K75"/>
+  <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView topLeftCell="C70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -10961,6 +11835,9 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>753</v>
+      </c>
       <c r="B2" t="s">
         <v>579</v>
       </c>
@@ -10978,6 +11855,9 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>754</v>
+      </c>
       <c r="B3" t="s">
         <v>579</v>
       </c>
@@ -10995,6 +11875,9 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>755</v>
+      </c>
       <c r="B4" t="s">
         <v>581</v>
       </c>
@@ -11012,6 +11895,9 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>756</v>
+      </c>
       <c r="B5" t="s">
         <v>581</v>
       </c>
@@ -11029,6 +11915,9 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>757</v>
+      </c>
       <c r="B6" t="s">
         <v>586</v>
       </c>
@@ -11046,6 +11935,9 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>758</v>
+      </c>
       <c r="B7" t="s">
         <v>586</v>
       </c>
@@ -11063,6 +11955,9 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>759</v>
+      </c>
       <c r="B8" t="s">
         <v>585</v>
       </c>
@@ -11080,6 +11975,9 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>760</v>
+      </c>
       <c r="B9" t="s">
         <v>584</v>
       </c>
@@ -11097,6 +11995,9 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>761</v>
+      </c>
       <c r="B10" t="s">
         <v>591</v>
       </c>
@@ -11114,6 +12015,9 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>762</v>
+      </c>
       <c r="B11" t="s">
         <v>591</v>
       </c>
@@ -11131,6 +12035,9 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>763</v>
+      </c>
       <c r="B12" t="s">
         <v>592</v>
       </c>
@@ -11148,6 +12055,9 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>764</v>
+      </c>
       <c r="B13" t="s">
         <v>592</v>
       </c>
@@ -11165,6 +12075,9 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>765</v>
+      </c>
       <c r="B14" t="s">
         <v>593</v>
       </c>
@@ -11182,6 +12095,9 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>766</v>
+      </c>
       <c r="B15" t="s">
         <v>594</v>
       </c>
@@ -11199,6 +12115,9 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>767</v>
+      </c>
       <c r="B16" t="s">
         <v>594</v>
       </c>
@@ -11215,7 +12134,10 @@
         <v>194</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>768</v>
+      </c>
       <c r="B17" t="s">
         <v>595</v>
       </c>
@@ -11232,7 +12154,10 @@
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>769</v>
+      </c>
       <c r="B18" t="s">
         <v>596</v>
       </c>
@@ -11249,7 +12174,10 @@
         <v>191</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>770</v>
+      </c>
       <c r="B19" t="s">
         <v>596</v>
       </c>
@@ -11266,7 +12194,10 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>771</v>
+      </c>
       <c r="B20" t="s">
         <v>597</v>
       </c>
@@ -11283,7 +12214,10 @@
         <v>188</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>772</v>
+      </c>
       <c r="B21" t="s">
         <v>597</v>
       </c>
@@ -11300,7 +12234,10 @@
         <v>187</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="26.4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>773</v>
+      </c>
       <c r="B22" t="s">
         <v>598</v>
       </c>
@@ -11317,7 +12254,10 @@
         <v>705</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>774</v>
+      </c>
       <c r="B23" t="s">
         <v>599</v>
       </c>
@@ -11331,7 +12271,10 @@
         <v>707</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>775</v>
+      </c>
       <c r="B24" s="3" t="s">
         <v>613</v>
       </c>
@@ -11345,7 +12288,10 @@
         <v>708</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>776</v>
+      </c>
       <c r="B25" s="3" t="s">
         <v>613</v>
       </c>
@@ -11359,7 +12305,10 @@
         <v>708</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>777</v>
+      </c>
       <c r="B26" s="3" t="s">
         <v>613</v>
       </c>
@@ -11373,7 +12322,10 @@
         <v>708</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>778</v>
+      </c>
       <c r="B27" s="3" t="s">
         <v>614</v>
       </c>
@@ -11387,7 +12339,10 @@
         <v>709</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>779</v>
+      </c>
       <c r="B28" s="3" t="s">
         <v>614</v>
       </c>
@@ -11401,7 +12356,10 @@
         <v>360</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>780</v>
+      </c>
       <c r="B29" s="3" t="s">
         <v>614</v>
       </c>
@@ -11415,7 +12373,10 @@
         <v>360</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>781</v>
+      </c>
       <c r="B30" s="3" t="s">
         <v>615</v>
       </c>
@@ -11429,7 +12390,10 @@
         <v>710</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>782</v>
+      </c>
       <c r="B31" s="3" t="s">
         <v>615</v>
       </c>
@@ -11443,7 +12407,10 @@
         <v>710</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>783</v>
+      </c>
       <c r="B32" s="3" t="s">
         <v>615</v>
       </c>
@@ -11457,7 +12424,10 @@
         <v>710</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>784</v>
+      </c>
       <c r="B33" s="3" t="s">
         <v>615</v>
       </c>
@@ -11471,7 +12441,10 @@
         <v>711</v>
       </c>
     </row>
-    <row r="34" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>785</v>
+      </c>
       <c r="B34" s="3" t="s">
         <v>616</v>
       </c>
@@ -11485,7 +12458,10 @@
         <v>360</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>786</v>
+      </c>
       <c r="B35" s="3" t="s">
         <v>614</v>
       </c>
@@ -11499,7 +12475,10 @@
         <v>360</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>787</v>
+      </c>
       <c r="B36" s="3" t="s">
         <v>617</v>
       </c>
@@ -11509,11 +12488,14 @@
       <c r="E36" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>788</v>
+      </c>
       <c r="B37" s="3" t="s">
         <v>617</v>
       </c>
@@ -11523,11 +12505,14 @@
       <c r="E37" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>789</v>
+      </c>
       <c r="B38" s="3" t="s">
         <v>617</v>
       </c>
@@ -11537,11 +12522,14 @@
       <c r="E38" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>790</v>
+      </c>
       <c r="B39" s="3" t="s">
         <v>617</v>
       </c>
@@ -11551,11 +12539,14 @@
       <c r="E39" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>791</v>
+      </c>
       <c r="B40" s="3" t="s">
         <v>617</v>
       </c>
@@ -11565,11 +12556,14 @@
       <c r="E40" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F40" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>792</v>
+      </c>
       <c r="B41" s="3" t="s">
         <v>618</v>
       </c>
@@ -11579,11 +12573,14 @@
       <c r="E41" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="42" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>793</v>
+      </c>
       <c r="B42" s="3" t="s">
         <v>618</v>
       </c>
@@ -11593,11 +12590,14 @@
       <c r="E42" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="43" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>794</v>
+      </c>
       <c r="B43" s="3" t="s">
         <v>618</v>
       </c>
@@ -11607,11 +12607,14 @@
       <c r="E43" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F43" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="44" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>795</v>
+      </c>
       <c r="B44" s="3" t="s">
         <v>618</v>
       </c>
@@ -11621,11 +12624,14 @@
       <c r="E44" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F44" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="45" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>796</v>
+      </c>
       <c r="B45" s="3" t="s">
         <v>618</v>
       </c>
@@ -11635,11 +12641,14 @@
       <c r="E45" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F45" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="46" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>797</v>
+      </c>
       <c r="B46" s="3" t="s">
         <v>619</v>
       </c>
@@ -11653,7 +12662,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>798</v>
+      </c>
       <c r="B47" s="3" t="s">
         <v>619</v>
       </c>
@@ -11667,7 +12679,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>799</v>
+      </c>
       <c r="B48" s="3" t="s">
         <v>619</v>
       </c>
@@ -11681,7 +12696,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>800</v>
+      </c>
       <c r="B49" s="3" t="s">
         <v>619</v>
       </c>
@@ -11695,7 +12713,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>801</v>
+      </c>
       <c r="B50" s="3" t="s">
         <v>619</v>
       </c>
@@ -11709,7 +12730,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>802</v>
+      </c>
       <c r="B51" s="3" t="s">
         <v>621</v>
       </c>
@@ -11719,11 +12743,14 @@
       <c r="E51" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="F51" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>803</v>
+      </c>
       <c r="B52" s="3" t="s">
         <v>621</v>
       </c>
@@ -11733,11 +12760,14 @@
       <c r="E52" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="F52" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>804</v>
+      </c>
       <c r="B53" s="3" t="s">
         <v>621</v>
       </c>
@@ -11747,11 +12777,14 @@
       <c r="E53" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="F53" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>805</v>
+      </c>
       <c r="B54" s="3" t="s">
         <v>622</v>
       </c>
@@ -11761,11 +12794,14 @@
       <c r="E54" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="F54" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>806</v>
+      </c>
       <c r="B55" s="3" t="s">
         <v>622</v>
       </c>
@@ -11775,11 +12811,14 @@
       <c r="E55" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="F55" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>807</v>
+      </c>
       <c r="B56" s="3" t="s">
         <v>622</v>
       </c>
@@ -11789,11 +12828,14 @@
       <c r="E56" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="F56" s="6" t="s">
+      <c r="F56" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>808</v>
+      </c>
       <c r="B57" s="3" t="s">
         <v>622</v>
       </c>
@@ -11803,11 +12845,14 @@
       <c r="E57" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="F57" s="6" t="s">
+      <c r="F57" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>809</v>
+      </c>
       <c r="B58" s="3" t="s">
         <v>622</v>
       </c>
@@ -11817,11 +12862,14 @@
       <c r="E58" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="F58" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>810</v>
+      </c>
       <c r="B59" s="3" t="s">
         <v>622</v>
       </c>
@@ -11835,7 +12883,10 @@
         <v>360</v>
       </c>
     </row>
-    <row r="60" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>811</v>
+      </c>
       <c r="B60" s="3" t="s">
         <v>623</v>
       </c>
@@ -11849,7 +12900,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>812</v>
+      </c>
       <c r="B61" s="3" t="s">
         <v>623</v>
       </c>
@@ -11863,7 +12917,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>813</v>
+      </c>
       <c r="B62" s="3" t="s">
         <v>624</v>
       </c>
@@ -11877,7 +12934,10 @@
         <v>360</v>
       </c>
     </row>
-    <row r="63" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>814</v>
+      </c>
       <c r="B63" s="3" t="s">
         <v>624</v>
       </c>
@@ -11891,7 +12951,10 @@
         <v>360</v>
       </c>
     </row>
-    <row r="64" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>815</v>
+      </c>
       <c r="B64" s="3" t="s">
         <v>624</v>
       </c>
@@ -11905,7 +12968,10 @@
         <v>360</v>
       </c>
     </row>
-    <row r="65" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>816</v>
+      </c>
       <c r="B65" s="3" t="s">
         <v>624</v>
       </c>
@@ -11919,7 +12985,10 @@
         <v>360</v>
       </c>
     </row>
-    <row r="66" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>817</v>
+      </c>
       <c r="B66" s="3" t="s">
         <v>624</v>
       </c>
@@ -11933,7 +13002,10 @@
         <v>360</v>
       </c>
     </row>
-    <row r="67" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>818</v>
+      </c>
       <c r="B67" s="3" t="s">
         <v>624</v>
       </c>
@@ -11947,7 +13019,10 @@
         <v>360</v>
       </c>
     </row>
-    <row r="68" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>819</v>
+      </c>
       <c r="B68" s="3" t="s">
         <v>625</v>
       </c>
@@ -11961,7 +13036,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="69" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>820</v>
+      </c>
       <c r="B69" s="3" t="s">
         <v>625</v>
       </c>
@@ -11975,7 +13053,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>821</v>
+      </c>
       <c r="B70" s="3" t="s">
         <v>626</v>
       </c>
@@ -11989,7 +13070,10 @@
         <v>360</v>
       </c>
     </row>
-    <row r="71" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>822</v>
+      </c>
       <c r="B71" s="3" t="s">
         <v>626</v>
       </c>
@@ -12003,7 +13087,10 @@
         <v>360</v>
       </c>
     </row>
-    <row r="72" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>823</v>
+      </c>
       <c r="B72" s="3" t="s">
         <v>626</v>
       </c>
@@ -12017,7 +13104,10 @@
         <v>360</v>
       </c>
     </row>
-    <row r="73" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>824</v>
+      </c>
       <c r="B73" s="3" t="s">
         <v>626</v>
       </c>
@@ -12031,7 +13121,10 @@
         <v>360</v>
       </c>
     </row>
-    <row r="74" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>825</v>
+      </c>
       <c r="B74" s="3" t="s">
         <v>626</v>
       </c>
@@ -12045,7 +13138,10 @@
         <v>360</v>
       </c>
     </row>
-    <row r="75" spans="2:6" ht="39.6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>826</v>
+      </c>
       <c r="B75" s="3" t="s">
         <v>626</v>
       </c>
@@ -12058,6 +13154,9 @@
       <c r="F75" s="4" t="s">
         <v>360</v>
       </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B78" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/単体テスト.xlsx
+++ b/単体テスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5308F98A-926C-46DA-96AF-69D17FD67553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A4F8B6-9D39-409D-957C-DD0CFB0C22DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="810" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/単体テスト.xlsx
+++ b/単体テスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A4F8B6-9D39-409D-957C-DD0CFB0C22DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05094324-BAEE-484D-A8B8-7C175DC68478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="810" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="810" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アカウント登録画面" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="835">
   <si>
     <t>テストケースID</t>
   </si>
@@ -6415,6 +6415,43 @@
   </si>
   <si>
     <t>TC202</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メールアドレスフィールドの下に「有効なメールアドレスを入力してください。」とエラーメッセージが表示される</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>指定のエラーメッセージではなく、
+標準のエラーメッセージが表示されてしまう</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面項目の右隣に入力値が表示されていない</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ミギドナリ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -9470,8 +9507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FCFD780-02AB-48BA-8D27-ACF3D5D231ED}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -9484,7 +9521,9 @@
     <col min="6" max="6" width="51.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="45.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -9538,6 +9577,21 @@
       <c r="F2" s="3" t="s">
         <v>734</v>
       </c>
+      <c r="G2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" t="s">
+        <v>834</v>
+      </c>
+      <c r="K2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -9555,6 +9609,21 @@
       <c r="F3" s="3" t="s">
         <v>735</v>
       </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" t="s">
+        <v>834</v>
+      </c>
+      <c r="K3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -9572,6 +9641,21 @@
       <c r="F4" s="3" t="s">
         <v>736</v>
       </c>
+      <c r="G4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" t="s">
+        <v>834</v>
+      </c>
+      <c r="K4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -9589,6 +9673,21 @@
       <c r="F5" s="3" t="s">
         <v>737</v>
       </c>
+      <c r="G5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>834</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -9606,6 +9705,21 @@
       <c r="F6" s="3" t="s">
         <v>738</v>
       </c>
+      <c r="G6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>834</v>
+      </c>
+      <c r="K6" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -9623,6 +9737,18 @@
       <c r="F7" t="s">
         <v>747</v>
       </c>
+      <c r="G7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -9643,6 +9769,21 @@
       <c r="F8" s="3" t="s">
         <v>746</v>
       </c>
+      <c r="G8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" t="s">
+        <v>834</v>
+      </c>
+      <c r="K8" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -9660,6 +9801,21 @@
       <c r="F9" s="3" t="s">
         <v>739</v>
       </c>
+      <c r="G9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" t="s">
+        <v>834</v>
+      </c>
+      <c r="K9" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -9677,6 +9833,21 @@
       <c r="F10" s="3" t="s">
         <v>740</v>
       </c>
+      <c r="G10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" t="s">
+        <v>834</v>
+      </c>
+      <c r="K10" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -9694,6 +9865,21 @@
       <c r="F11" s="3" t="s">
         <v>741</v>
       </c>
+      <c r="G11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" t="s">
+        <v>834</v>
+      </c>
+      <c r="K11" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -9711,6 +9897,21 @@
       <c r="F12" s="3" t="s">
         <v>742</v>
       </c>
+      <c r="G12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I12" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" t="s">
+        <v>834</v>
+      </c>
+      <c r="K12" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -9728,6 +9929,21 @@
       <c r="F13" s="3" t="s">
         <v>743</v>
       </c>
+      <c r="G13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I13" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" t="s">
+        <v>834</v>
+      </c>
+      <c r="K13" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -9745,6 +9961,21 @@
       <c r="F14" s="3" t="s">
         <v>744</v>
       </c>
+      <c r="G14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I14" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" t="s">
+        <v>834</v>
+      </c>
+      <c r="K14" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -9762,6 +9993,18 @@
       <c r="F15" s="3" t="s">
         <v>748</v>
       </c>
+      <c r="G15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I15" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -9778,6 +10021,18 @@
       </c>
       <c r="F16" s="3" t="s">
         <v>748</v>
+      </c>
+      <c r="G16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I16" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -9790,8 +10045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2EB2932-0A74-4EEF-B2F9-15095BB1B594}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -9804,7 +10059,8 @@
     <col min="6" max="6" width="41" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -9859,6 +10115,18 @@
       <c r="F2" s="3" t="s">
         <v>750</v>
       </c>
+      <c r="G2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -9875,6 +10143,18 @@
       </c>
       <c r="F3" t="s">
         <v>546</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -10515,7 +10795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FBBA1F-F464-4ADB-BBDA-95C4C140AAD0}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -11272,8 +11552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956E9933-2602-426A-AD53-5DCFC42B7DE4}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -11286,7 +11566,8 @@
     <col min="6" max="6" width="42.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -11340,6 +11621,18 @@
       <c r="F2" t="s">
         <v>542</v>
       </c>
+      <c r="G2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -11357,6 +11650,18 @@
       <c r="F3" t="s">
         <v>542</v>
       </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -11374,6 +11679,18 @@
       <c r="F4" t="s">
         <v>542</v>
       </c>
+      <c r="G4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -11391,6 +11708,18 @@
       <c r="F5" t="s">
         <v>542</v>
       </c>
+      <c r="G5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -11408,6 +11737,18 @@
       <c r="F6" t="s">
         <v>542</v>
       </c>
+      <c r="G6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -11425,6 +11766,18 @@
       <c r="F7" s="3" t="s">
         <v>543</v>
       </c>
+      <c r="G7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -11442,6 +11795,18 @@
       <c r="F8" t="s">
         <v>542</v>
       </c>
+      <c r="G8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -11459,6 +11824,18 @@
       <c r="F9" t="s">
         <v>542</v>
       </c>
+      <c r="G9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I9" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -11476,6 +11853,18 @@
       <c r="F10" t="s">
         <v>542</v>
       </c>
+      <c r="G10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I10" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -11493,6 +11882,18 @@
       <c r="F11" t="s">
         <v>542</v>
       </c>
+      <c r="G11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I11" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -11510,6 +11911,18 @@
       <c r="F12" t="s">
         <v>542</v>
       </c>
+      <c r="G12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I12" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -11527,6 +11940,18 @@
       <c r="F13" t="s">
         <v>542</v>
       </c>
+      <c r="G13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I13" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -11544,6 +11969,18 @@
       <c r="F14" t="s">
         <v>546</v>
       </c>
+      <c r="G14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I14" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -11560,6 +11997,18 @@
       </c>
       <c r="F15" t="s">
         <v>546</v>
+      </c>
+      <c r="G15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I15" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -11572,8 +12021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256AC4AF-30F6-4338-9D8E-B754FC3A1B55}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:E16"/>
+    <sheetView topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -11586,7 +12035,8 @@
     <col min="6" max="6" width="56.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -11640,6 +12090,18 @@
       <c r="F2" s="3" t="s">
         <v>563</v>
       </c>
+      <c r="G2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -11657,6 +12119,18 @@
       <c r="F3" t="s">
         <v>546</v>
       </c>
+      <c r="G3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -11673,6 +12147,18 @@
       </c>
       <c r="F4" t="s">
         <v>546</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -11685,8 +12171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{915030F3-E3A1-46F1-B7FA-33AB2BB4AB4F}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -11699,7 +12185,8 @@
     <col min="6" max="6" width="56.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -11754,6 +12241,18 @@
       <c r="F2" s="3" t="s">
         <v>572</v>
       </c>
+      <c r="G2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -11770,6 +12269,18 @@
       </c>
       <c r="F3" t="s">
         <v>546</v>
+      </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -11782,8 +12293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50888A99-EB08-43C9-A3E6-3D0084DC5320}">
   <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView topLeftCell="G1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -11796,7 +12307,9 @@
     <col min="6" max="6" width="116.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -11853,6 +12366,18 @@
       <c r="F2" t="s">
         <v>86</v>
       </c>
+      <c r="G2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -11873,6 +12398,18 @@
       <c r="F3" t="s">
         <v>91</v>
       </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -11893,6 +12430,18 @@
       <c r="F4" t="s">
         <v>96</v>
       </c>
+      <c r="G4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -11913,6 +12462,18 @@
       <c r="F5" t="s">
         <v>99</v>
       </c>
+      <c r="G5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -11933,6 +12494,18 @@
       <c r="F6" t="s">
         <v>698</v>
       </c>
+      <c r="G6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -11953,6 +12526,18 @@
       <c r="F7" t="s">
         <v>699</v>
       </c>
+      <c r="G7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -11973,6 +12558,18 @@
       <c r="F8" t="s">
         <v>700</v>
       </c>
+      <c r="G8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -11993,6 +12590,18 @@
       <c r="F9" t="s">
         <v>701</v>
       </c>
+      <c r="G9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I9" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -12013,6 +12622,18 @@
       <c r="F10" t="s">
         <v>172</v>
       </c>
+      <c r="G10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I10" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -12033,6 +12654,18 @@
       <c r="F11" t="s">
         <v>202</v>
       </c>
+      <c r="G11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I11" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -12053,6 +12686,18 @@
       <c r="F12" t="s">
         <v>200</v>
       </c>
+      <c r="G12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I12" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -12073,6 +12718,18 @@
       <c r="F13" t="s">
         <v>199</v>
       </c>
+      <c r="G13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I13" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -12093,6 +12750,18 @@
       <c r="F14" t="s">
         <v>704</v>
       </c>
+      <c r="G14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I14" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -12113,6 +12782,18 @@
       <c r="F15" t="s">
         <v>703</v>
       </c>
+      <c r="G15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I15" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -12133,8 +12814,20 @@
       <c r="F16" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I16" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>768</v>
       </c>
@@ -12153,8 +12846,20 @@
       <c r="F17" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I17" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>769</v>
       </c>
@@ -12173,8 +12878,20 @@
       <c r="F18" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I18" t="s">
+        <v>72</v>
+      </c>
+      <c r="K18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>770</v>
       </c>
@@ -12193,8 +12910,20 @@
       <c r="F19" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I19" t="s">
+        <v>72</v>
+      </c>
+      <c r="K19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>771</v>
       </c>
@@ -12213,8 +12942,20 @@
       <c r="F20" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I20" t="s">
+        <v>72</v>
+      </c>
+      <c r="K20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>772</v>
       </c>
@@ -12233,8 +12974,20 @@
       <c r="F21" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
+        <v>71</v>
+      </c>
+      <c r="H21" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I21" t="s">
+        <v>72</v>
+      </c>
+      <c r="K21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>773</v>
       </c>
@@ -12253,8 +13006,20 @@
       <c r="F22" s="3" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I22" t="s">
+        <v>72</v>
+      </c>
+      <c r="K22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>774</v>
       </c>
@@ -12270,8 +13035,20 @@
       <c r="F23" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I23" t="s">
+        <v>72</v>
+      </c>
+      <c r="K23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>775</v>
       </c>
@@ -12287,8 +13064,20 @@
       <c r="F24" s="2" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I24" t="s">
+        <v>72</v>
+      </c>
+      <c r="K24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>776</v>
       </c>
@@ -12304,8 +13093,20 @@
       <c r="F25" s="2" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I25" t="s">
+        <v>72</v>
+      </c>
+      <c r="K25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>777</v>
       </c>
@@ -12321,8 +13122,20 @@
       <c r="F26" s="2" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
+        <v>71</v>
+      </c>
+      <c r="H26" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I26" t="s">
+        <v>72</v>
+      </c>
+      <c r="K26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>778</v>
       </c>
@@ -12338,8 +13151,20 @@
       <c r="F27" s="4" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I27" t="s">
+        <v>72</v>
+      </c>
+      <c r="K27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>779</v>
       </c>
@@ -12355,8 +13180,20 @@
       <c r="F28" s="4" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I28" t="s">
+        <v>72</v>
+      </c>
+      <c r="K28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>780</v>
       </c>
@@ -12372,8 +13209,20 @@
       <c r="F29" s="4" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>71</v>
+      </c>
+      <c r="H29" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I29" t="s">
+        <v>72</v>
+      </c>
+      <c r="K29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>781</v>
       </c>
@@ -12389,8 +13238,20 @@
       <c r="F30" s="2" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
+        <v>71</v>
+      </c>
+      <c r="H30" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I30" t="s">
+        <v>72</v>
+      </c>
+      <c r="K30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>782</v>
       </c>
@@ -12406,8 +13267,20 @@
       <c r="F31" s="2" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>71</v>
+      </c>
+      <c r="H31" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I31" t="s">
+        <v>72</v>
+      </c>
+      <c r="K31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>783</v>
       </c>
@@ -12423,8 +13296,20 @@
       <c r="F32" s="2" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G32" t="s">
+        <v>71</v>
+      </c>
+      <c r="H32" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I32" t="s">
+        <v>72</v>
+      </c>
+      <c r="K32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>784</v>
       </c>
@@ -12440,8 +13325,20 @@
       <c r="F33" s="4" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
+        <v>71</v>
+      </c>
+      <c r="H33" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I33" t="s">
+        <v>72</v>
+      </c>
+      <c r="K33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>785</v>
       </c>
@@ -12457,8 +13354,20 @@
       <c r="F34" s="4" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G34" t="s">
+        <v>71</v>
+      </c>
+      <c r="H34" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I34" t="s">
+        <v>72</v>
+      </c>
+      <c r="K34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>786</v>
       </c>
@@ -12474,8 +13383,20 @@
       <c r="F35" s="4" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G35" t="s">
+        <v>71</v>
+      </c>
+      <c r="H35" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I35" t="s">
+        <v>72</v>
+      </c>
+      <c r="K35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>787</v>
       </c>
@@ -12491,8 +13412,20 @@
       <c r="F36" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G36" t="s">
+        <v>71</v>
+      </c>
+      <c r="H36" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I36" t="s">
+        <v>72</v>
+      </c>
+      <c r="K36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>788</v>
       </c>
@@ -12508,8 +13441,20 @@
       <c r="F37" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G37" t="s">
+        <v>71</v>
+      </c>
+      <c r="H37" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I37" t="s">
+        <v>72</v>
+      </c>
+      <c r="K37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>789</v>
       </c>
@@ -12525,8 +13470,20 @@
       <c r="F38" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G38" t="s">
+        <v>71</v>
+      </c>
+      <c r="H38" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I38" t="s">
+        <v>72</v>
+      </c>
+      <c r="K38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>790</v>
       </c>
@@ -12542,8 +13499,20 @@
       <c r="F39" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
+        <v>71</v>
+      </c>
+      <c r="H39" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I39" t="s">
+        <v>72</v>
+      </c>
+      <c r="K39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>791</v>
       </c>
@@ -12559,8 +13528,20 @@
       <c r="F40" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G40" t="s">
+        <v>71</v>
+      </c>
+      <c r="H40" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I40" t="s">
+        <v>72</v>
+      </c>
+      <c r="K40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>792</v>
       </c>
@@ -12576,8 +13557,20 @@
       <c r="F41" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G41" t="s">
+        <v>71</v>
+      </c>
+      <c r="H41" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I41" t="s">
+        <v>72</v>
+      </c>
+      <c r="K41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>793</v>
       </c>
@@ -12593,8 +13586,20 @@
       <c r="F42" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G42" t="s">
+        <v>71</v>
+      </c>
+      <c r="H42" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I42" t="s">
+        <v>72</v>
+      </c>
+      <c r="K42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>794</v>
       </c>
@@ -12610,8 +13615,20 @@
       <c r="F43" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G43" t="s">
+        <v>71</v>
+      </c>
+      <c r="H43" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I43" t="s">
+        <v>72</v>
+      </c>
+      <c r="K43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>795</v>
       </c>
@@ -12627,8 +13644,20 @@
       <c r="F44" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G44" t="s">
+        <v>71</v>
+      </c>
+      <c r="H44" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I44" t="s">
+        <v>72</v>
+      </c>
+      <c r="K44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>796</v>
       </c>
@@ -12644,8 +13673,20 @@
       <c r="F45" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G45" t="s">
+        <v>71</v>
+      </c>
+      <c r="H45" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I45" t="s">
+        <v>72</v>
+      </c>
+      <c r="K45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>797</v>
       </c>
@@ -12661,8 +13702,20 @@
       <c r="F46" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G46" t="s">
+        <v>71</v>
+      </c>
+      <c r="H46" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I46" t="s">
+        <v>72</v>
+      </c>
+      <c r="K46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>798</v>
       </c>
@@ -12678,8 +13731,20 @@
       <c r="F47" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G47" t="s">
+        <v>71</v>
+      </c>
+      <c r="H47" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I47" t="s">
+        <v>72</v>
+      </c>
+      <c r="K47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>799</v>
       </c>
@@ -12695,8 +13760,20 @@
       <c r="F48" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G48" t="s">
+        <v>71</v>
+      </c>
+      <c r="H48" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I48" t="s">
+        <v>72</v>
+      </c>
+      <c r="K48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>800</v>
       </c>
@@ -12712,8 +13789,20 @@
       <c r="F49" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G49" t="s">
+        <v>71</v>
+      </c>
+      <c r="H49" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I49" t="s">
+        <v>72</v>
+      </c>
+      <c r="K49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>801</v>
       </c>
@@ -12729,8 +13818,20 @@
       <c r="F50" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G50" t="s">
+        <v>71</v>
+      </c>
+      <c r="H50" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I50" t="s">
+        <v>72</v>
+      </c>
+      <c r="K50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>802</v>
       </c>
@@ -12744,10 +13845,25 @@
         <v>673</v>
       </c>
       <c r="F51" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+        <v>832</v>
+      </c>
+      <c r="G51" t="s">
+        <v>71</v>
+      </c>
+      <c r="H51" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I51" t="s">
+        <v>74</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="K51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>803</v>
       </c>
@@ -12761,10 +13877,25 @@
         <v>674</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+        <v>832</v>
+      </c>
+      <c r="G52" t="s">
+        <v>71</v>
+      </c>
+      <c r="H52" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I52" t="s">
+        <v>74</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="K52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>804</v>
       </c>
@@ -12778,10 +13909,25 @@
         <v>675</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+        <v>832</v>
+      </c>
+      <c r="G53" t="s">
+        <v>71</v>
+      </c>
+      <c r="H53" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I53" t="s">
+        <v>74</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="K53" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>805</v>
       </c>
@@ -12797,8 +13943,20 @@
       <c r="F54" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G54" t="s">
+        <v>71</v>
+      </c>
+      <c r="H54" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I54" t="s">
+        <v>72</v>
+      </c>
+      <c r="K54" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>806</v>
       </c>
@@ -12814,8 +13972,20 @@
       <c r="F55" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G55" t="s">
+        <v>71</v>
+      </c>
+      <c r="H55" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I55" t="s">
+        <v>72</v>
+      </c>
+      <c r="K55" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>807</v>
       </c>
@@ -12831,8 +14001,20 @@
       <c r="F56" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G56" t="s">
+        <v>71</v>
+      </c>
+      <c r="H56" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I56" t="s">
+        <v>72</v>
+      </c>
+      <c r="K56" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>808</v>
       </c>
@@ -12848,8 +14030,20 @@
       <c r="F57" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G57" t="s">
+        <v>71</v>
+      </c>
+      <c r="H57" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I57" t="s">
+        <v>72</v>
+      </c>
+      <c r="K57" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>809</v>
       </c>
@@ -12865,8 +14059,20 @@
       <c r="F58" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G58" t="s">
+        <v>71</v>
+      </c>
+      <c r="H58" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I58" t="s">
+        <v>72</v>
+      </c>
+      <c r="K58" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>810</v>
       </c>
@@ -12882,8 +14088,20 @@
       <c r="F59" s="4" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G59" t="s">
+        <v>71</v>
+      </c>
+      <c r="H59" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I59" t="s">
+        <v>72</v>
+      </c>
+      <c r="K59" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>811</v>
       </c>
@@ -12899,8 +14117,20 @@
       <c r="F60" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G60" t="s">
+        <v>71</v>
+      </c>
+      <c r="H60" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I60" t="s">
+        <v>72</v>
+      </c>
+      <c r="K60" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>812</v>
       </c>
@@ -12916,8 +14146,20 @@
       <c r="F61" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G61" t="s">
+        <v>71</v>
+      </c>
+      <c r="H61" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I61" t="s">
+        <v>72</v>
+      </c>
+      <c r="K61" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>813</v>
       </c>
@@ -12933,8 +14175,20 @@
       <c r="F62" s="4" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G62" t="s">
+        <v>71</v>
+      </c>
+      <c r="H62" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I62" t="s">
+        <v>72</v>
+      </c>
+      <c r="K62" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>814</v>
       </c>
@@ -12950,8 +14204,20 @@
       <c r="F63" s="4" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G63" t="s">
+        <v>71</v>
+      </c>
+      <c r="H63" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I63" t="s">
+        <v>72</v>
+      </c>
+      <c r="K63" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>815</v>
       </c>
@@ -12967,8 +14233,20 @@
       <c r="F64" s="4" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G64" t="s">
+        <v>71</v>
+      </c>
+      <c r="H64" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I64" t="s">
+        <v>72</v>
+      </c>
+      <c r="K64" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>816</v>
       </c>
@@ -12984,8 +14262,20 @@
       <c r="F65" s="4" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G65" t="s">
+        <v>71</v>
+      </c>
+      <c r="H65" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I65" t="s">
+        <v>72</v>
+      </c>
+      <c r="K65" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>817</v>
       </c>
@@ -13001,8 +14291,20 @@
       <c r="F66" s="4" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G66" t="s">
+        <v>71</v>
+      </c>
+      <c r="H66" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I66" t="s">
+        <v>72</v>
+      </c>
+      <c r="K66" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>818</v>
       </c>
@@ -13018,8 +14320,20 @@
       <c r="F67" s="4" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G67" t="s">
+        <v>71</v>
+      </c>
+      <c r="H67" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I67" t="s">
+        <v>72</v>
+      </c>
+      <c r="K67" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>819</v>
       </c>
@@ -13035,8 +14349,20 @@
       <c r="F68" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G68" t="s">
+        <v>71</v>
+      </c>
+      <c r="H68" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I68" t="s">
+        <v>72</v>
+      </c>
+      <c r="K68" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>820</v>
       </c>
@@ -13052,8 +14378,20 @@
       <c r="F69" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G69" t="s">
+        <v>71</v>
+      </c>
+      <c r="H69" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I69" t="s">
+        <v>72</v>
+      </c>
+      <c r="K69" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>821</v>
       </c>
@@ -13069,8 +14407,20 @@
       <c r="F70" s="4" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G70" t="s">
+        <v>71</v>
+      </c>
+      <c r="H70" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I70" t="s">
+        <v>72</v>
+      </c>
+      <c r="K70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>822</v>
       </c>
@@ -13086,8 +14436,20 @@
       <c r="F71" s="4" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G71" t="s">
+        <v>71</v>
+      </c>
+      <c r="H71" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I71" t="s">
+        <v>72</v>
+      </c>
+      <c r="K71" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>823</v>
       </c>
@@ -13103,8 +14465,20 @@
       <c r="F72" s="4" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G72" t="s">
+        <v>71</v>
+      </c>
+      <c r="H72" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I72" t="s">
+        <v>72</v>
+      </c>
+      <c r="K72" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>824</v>
       </c>
@@ -13120,8 +14494,20 @@
       <c r="F73" s="4" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G73" t="s">
+        <v>71</v>
+      </c>
+      <c r="H73" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I73" t="s">
+        <v>72</v>
+      </c>
+      <c r="K73" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>825</v>
       </c>
@@ -13137,8 +14523,20 @@
       <c r="F74" s="4" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="G74" t="s">
+        <v>71</v>
+      </c>
+      <c r="H74" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I74" t="s">
+        <v>72</v>
+      </c>
+      <c r="K74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>826</v>
       </c>
@@ -13154,8 +14552,20 @@
       <c r="F75" s="4" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G75" t="s">
+        <v>71</v>
+      </c>
+      <c r="H75" s="5">
+        <v>45494</v>
+      </c>
+      <c r="I75" t="s">
+        <v>72</v>
+      </c>
+      <c r="K75" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B78" s="3"/>
     </row>
   </sheetData>

--- a/単体テスト.xlsx
+++ b/単体テスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05094324-BAEE-484D-A8B8-7C175DC68478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69467E9-42B5-4A8D-ACA0-4918F9C22C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="810" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="810" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アカウント登録画面" sheetId="3" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="更新画面" sheetId="11" r:id="rId9"/>
     <sheet name="更新確認画面" sheetId="12" r:id="rId10"/>
     <sheet name="更新完了画面" sheetId="13" r:id="rId11"/>
+    <sheet name="ログイン画面" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="845">
   <si>
     <t>テストケースID</t>
   </si>
@@ -6453,6 +6454,37 @@
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メールアドレスとパスワードが正しい場合</t>
+  </si>
+  <si>
+    <t>メールアドレスが空の場合</t>
+  </si>
+  <si>
+    <t>パスワードが空の場合</t>
+  </si>
+  <si>
+    <t>メールアドレスとパスワードが間違っている場合</t>
+  </si>
+  <si>
+    <t>DB接続エラー時</t>
+  </si>
+  <si>
+    <t>最大入力文字数は100文字</t>
+  </si>
+  <si>
+    <t>UIはテキストボックス</t>
+  </si>
+  <si>
+    <t>初期値は空欄</t>
+  </si>
+  <si>
+    <t>最大入力文字数は10文字</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UIはボタン形式</t>
   </si>
 </sst>
 </file>
@@ -9507,8 +9539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FCFD780-02AB-48BA-8D27-ACF3D5D231ED}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -10045,8 +10077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2EB2932-0A74-4EEF-B2F9-15095BB1B594}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -10155,6 +10187,124 @@
       </c>
       <c r="K3" t="s">
         <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D38EDAF3-A54E-4047-BCF6-56A0481CAAC2}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="5.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>841</v>
+      </c>
+      <c r="D7" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>841</v>
+      </c>
+      <c r="D9" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>844</v>
       </c>
     </row>
   </sheetData>
@@ -12293,8 +12443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50888A99-EB08-43C9-A3E6-3D0084DC5320}">
   <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>

--- a/単体テスト.xlsx
+++ b/単体テスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69467E9-42B5-4A8D-ACA0-4918F9C22C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44DFC9A-3EDA-4C65-845E-48E7F46EF1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="810" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="18384" windowHeight="12336" tabRatio="810" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アカウント登録画面" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2111" uniqueCount="877">
   <si>
     <t>テストケースID</t>
   </si>
@@ -6485,6 +6485,302 @@
   </si>
   <si>
     <t>UIはボタン形式</t>
+  </si>
+  <si>
+    <t>ログイン機能</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面項目メールアドレス</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンコウモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面項目パスワード</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンコウモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインボタン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC301</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC302</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC303</t>
+  </si>
+  <si>
+    <t>TC304</t>
+  </si>
+  <si>
+    <t>TC305</t>
+  </si>
+  <si>
+    <t>TC306</t>
+  </si>
+  <si>
+    <t>TC307</t>
+  </si>
+  <si>
+    <t>TC308</t>
+  </si>
+  <si>
+    <t>TC309</t>
+  </si>
+  <si>
+    <t>TC310</t>
+  </si>
+  <si>
+    <t>1.ログイン画面にアクセス
+2.メールアドレス、パスワードに登録情報を入力する
+3.ログインボタンを押下する</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="30" eb="34">
+      <t>トウロクジョウホウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.ログイン画面にアクセス
+2.メールアドレスを空欄のままにする
+3.ログインボタンを押下する</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.ログイン画面にアクセス
+2.パスワードを空欄のままにする
+3.ログインボタンを押下する</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.ログイン画面にアクセス
+2.メールアドレス、パスワードに登録されていない情報を入力する
+3.ログインボタンを押下する</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.ログイン画面にアクセス
+2.メールアドレス、パスワードに登録情報を入力する
+3.MySQLの接続を切断する
+4.ログインボタンを押下する</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="30" eb="34">
+      <t>トウロクジョウホウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>セツダン</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.ログイン画面にアクセス
+2.画面項目にメールアドレスが表示されていることを確認する</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.ログイン画面にアクセス
+2.画面項目にパスワードが表示されていることを確認する</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.ログイン画面にアクセス
+2.画面項目のメールアドレスが最大入力文字数は100文字であることを確認する</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.ログイン画面にアクセス
+2.画面項目にパスワードが最大入力文字数は10文字であることを確認する</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインボタン押下後、指定のURLへ画面遷移することを確認する</t>
+    <rPh sb="7" eb="10">
+      <t>オウカゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインボタン押下後、エラーメッセージを表示する</t>
+    <rPh sb="7" eb="10">
+      <t>オウカゴ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインボタン押下後、エラーメッセージを表示する
+「エラーが発生したためログイン情報を取得できません。」とエラーメッセージを赤字で表示する</t>
+    <rPh sb="7" eb="10">
+      <t>オウカゴ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面項目にメールアドレスが表示されていることを確認</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面項目のメールアドレスが最大入力文字数は100文字であることを確認</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面項目にパスワードが表示されていることを確認</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面項目のパスワードが最大入力文字数は100文字であることを確認</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.ログイン画面にアクセス
+2.画面にログインボタンが表示されていることを確認する</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面にログインボタンが表示されていることを確認</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -10077,7 +10373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2EB2932-0A74-4EEF-B2F9-15095BB1B594}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
@@ -10199,8 +10495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D38EDAF3-A54E-4047-BCF6-56A0481CAAC2}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -10209,8 +10505,8 @@
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="67.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="5.77734375" bestFit="1" customWidth="1"/>
@@ -10251,60 +10547,180 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>849</v>
+      </c>
+      <c r="B2" t="s">
+        <v>845</v>
+      </c>
       <c r="C2" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E2" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="F2" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>850</v>
+      </c>
+      <c r="B3" t="s">
+        <v>845</v>
+      </c>
       <c r="C3" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E3" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="F3" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>851</v>
+      </c>
+      <c r="B4" t="s">
+        <v>845</v>
+      </c>
       <c r="C4" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E4" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="F4" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>852</v>
+      </c>
+      <c r="B5" t="s">
+        <v>845</v>
+      </c>
       <c r="C5" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E5" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="F5" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>853</v>
+      </c>
+      <c r="B6" t="s">
+        <v>845</v>
+      </c>
       <c r="C6" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E6" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>854</v>
+      </c>
       <c r="B7" t="s">
         <v>841</v>
       </c>
+      <c r="C7" t="s">
+        <v>846</v>
+      </c>
       <c r="D7" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E7" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="F7" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>855</v>
+      </c>
       <c r="B8" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>846</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="F8" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>856</v>
+      </c>
       <c r="B9" t="s">
         <v>841</v>
       </c>
+      <c r="C9" t="s">
+        <v>847</v>
+      </c>
       <c r="D9" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E9" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="F9" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>857</v>
+      </c>
       <c r="B10" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>847</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="F10" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>858</v>
+      </c>
       <c r="B11" t="s">
         <v>844</v>
+      </c>
+      <c r="C11" t="s">
+        <v>848</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="F11" t="s">
+        <v>876</v>
       </c>
     </row>
   </sheetData>
@@ -12321,7 +12737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{915030F3-E3A1-46F1-B7FA-33AB2BB4AB4F}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>

--- a/単体テスト.xlsx
+++ b/単体テスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44DFC9A-3EDA-4C65-845E-48E7F46EF1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D412B333-D972-4991-B285-4459AAD003FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="18384" windowHeight="12336" tabRatio="810" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="14832" windowHeight="12336" tabRatio="810" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アカウント登録画面" sheetId="3" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="更新確認画面" sheetId="12" r:id="rId10"/>
     <sheet name="更新完了画面" sheetId="13" r:id="rId11"/>
     <sheet name="ログイン画面" sheetId="14" r:id="rId12"/>
+    <sheet name="一覧検索" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2111" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2174" uniqueCount="912">
   <si>
     <t>テストケースID</t>
   </si>
@@ -6780,6 +6781,272 @@
   </si>
   <si>
     <t>画面にログインボタンが表示されていることを確認</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名前（姓）UIはテキストボックス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名前（名）UIはテキストボックス</t>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カナ（姓）UIはテキストボックス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>性別　UIはラジオボタン（男、女の２種類）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メールアドレス　UIはテキストボックス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>初期値は「男」</t>
+  </si>
+  <si>
+    <t>アカウント権限　UIはプルダウン（一般、管理者の２種類）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>初期値は「一般」</t>
+  </si>
+  <si>
+    <t>検索　UIはボタン形式</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UI、初期値の確認</t>
+    <rPh sb="3" eb="6">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UIの確認</t>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.一覧画面にアクセスする
+2.名前（姓）のUIを確認する</t>
+    <rPh sb="2" eb="6">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.一覧画面にアクセスする
+2.名前（名）のUIを確認する</t>
+    <rPh sb="2" eb="6">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.一覧画面にアクセスする
+2.カナ（姓）のUIを確認する</t>
+    <rPh sb="2" eb="6">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.一覧画面にアクセスする
+2.カナ（名）のUIを確認する</t>
+    <rPh sb="2" eb="6">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.一覧画面にアクセスする
+2.メールアドレスのUIを確認する</t>
+    <rPh sb="2" eb="6">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.一覧画面にアクセスする
+2.性別のUIを確認する</t>
+    <rPh sb="2" eb="6">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.一覧画面にアクセスする
+2.アカウント権限のUIを確認する</t>
+    <rPh sb="2" eb="6">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.一覧画面にアクセスする
+2.検索のUIを確認する</t>
+    <rPh sb="2" eb="6">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UIがテキストボックスで、
+初期値が空欄であることを確認</t>
+    <rPh sb="14" eb="17">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UIがラジオボタンで、初期値が男であることを確認</t>
+    <rPh sb="11" eb="14">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UIがプルダウンで初期値が一般であることを確認</t>
+    <rPh sb="9" eb="12">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UIがボタン形式であることを確認</t>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TC402</t>
+  </si>
+  <si>
+    <t>TC403</t>
+  </si>
+  <si>
+    <t>TC404</t>
+  </si>
+  <si>
+    <t>TC405</t>
+  </si>
+  <si>
+    <t>TC406</t>
+  </si>
+  <si>
+    <t>TC407</t>
+  </si>
+  <si>
+    <t>TC408</t>
+  </si>
+  <si>
+    <t>TC409</t>
+  </si>
+  <si>
+    <t>アカウントデータ非表示</t>
+    <rPh sb="8" eb="11">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面表示確認</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンヒョウジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.一覧画面にアクセスする
+2.アカウントデータが非表示のなっていることを確認する</t>
+    <rPh sb="2" eb="6">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウントデータが非表示のなっていることを確認</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -10374,7 +10641,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -10495,8 +10762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D38EDAF3-A54E-4047-BCF6-56A0481CAAC2}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -10726,6 +10993,240 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD5072D5-1B9D-4154-9150-378F66C578E7}">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s">
+        <v>877</v>
+      </c>
+      <c r="C2" t="s">
+        <v>886</v>
+      </c>
+      <c r="D2" t="s">
+        <v>842</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="F2" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>900</v>
+      </c>
+      <c r="B3" t="s">
+        <v>878</v>
+      </c>
+      <c r="C3" t="s">
+        <v>886</v>
+      </c>
+      <c r="D3" t="s">
+        <v>842</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="F3" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>901</v>
+      </c>
+      <c r="B4" t="s">
+        <v>879</v>
+      </c>
+      <c r="C4" t="s">
+        <v>886</v>
+      </c>
+      <c r="D4" t="s">
+        <v>842</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="F4" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>902</v>
+      </c>
+      <c r="B5" t="s">
+        <v>879</v>
+      </c>
+      <c r="C5" t="s">
+        <v>886</v>
+      </c>
+      <c r="D5" t="s">
+        <v>842</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="F5" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>903</v>
+      </c>
+      <c r="B6" t="s">
+        <v>881</v>
+      </c>
+      <c r="C6" t="s">
+        <v>886</v>
+      </c>
+      <c r="D6" t="s">
+        <v>842</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="F6" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>904</v>
+      </c>
+      <c r="B7" t="s">
+        <v>880</v>
+      </c>
+      <c r="C7" t="s">
+        <v>886</v>
+      </c>
+      <c r="D7" t="s">
+        <v>882</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="F7" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>905</v>
+      </c>
+      <c r="B8" t="s">
+        <v>883</v>
+      </c>
+      <c r="C8" t="s">
+        <v>886</v>
+      </c>
+      <c r="D8" t="s">
+        <v>884</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="F8" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>906</v>
+      </c>
+      <c r="B9" t="s">
+        <v>885</v>
+      </c>
+      <c r="C9" t="s">
+        <v>887</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="F9" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>907</v>
+      </c>
+      <c r="B10" t="s">
+        <v>908</v>
+      </c>
+      <c r="C10" t="s">
+        <v>909</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="F10" t="s">
+        <v>911</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/単体テスト.xlsx
+++ b/単体テスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\account\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D412B333-D972-4991-B285-4459AAD003FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968F7C73-3EAB-40F9-9E73-4E5643FF6D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="14832" windowHeight="12336" tabRatio="810" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="810" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アカウント登録画面" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2174" uniqueCount="912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2231" uniqueCount="912">
   <si>
     <t>テストケースID</t>
   </si>
@@ -10640,8 +10640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2EB2932-0A74-4EEF-B2F9-15095BB1B594}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -10762,8 +10762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D38EDAF3-A54E-4047-BCF6-56A0481CAAC2}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -10776,7 +10776,8 @@
     <col min="6" max="6" width="67.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -10830,6 +10831,18 @@
       <c r="F2" t="s">
         <v>868</v>
       </c>
+      <c r="G2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="5">
+        <v>45509</v>
+      </c>
+      <c r="I2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -10847,6 +10860,18 @@
       <c r="F3" t="s">
         <v>869</v>
       </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="5">
+        <v>45509</v>
+      </c>
+      <c r="I3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -10864,6 +10889,18 @@
       <c r="F4" t="s">
         <v>869</v>
       </c>
+      <c r="G4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="5">
+        <v>45509</v>
+      </c>
+      <c r="I4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -10881,6 +10918,18 @@
       <c r="F5" t="s">
         <v>869</v>
       </c>
+      <c r="G5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="5">
+        <v>45509</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="52.8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -10898,6 +10947,18 @@
       <c r="F6" s="3" t="s">
         <v>870</v>
       </c>
+      <c r="G6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="5">
+        <v>45509</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -10918,6 +10979,18 @@
       <c r="F7" t="s">
         <v>871</v>
       </c>
+      <c r="G7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="5">
+        <v>45509</v>
+      </c>
+      <c r="I7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -10935,6 +11008,18 @@
       <c r="F8" t="s">
         <v>872</v>
       </c>
+      <c r="G8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="5">
+        <v>45509</v>
+      </c>
+      <c r="I8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -10955,6 +11040,18 @@
       <c r="F9" t="s">
         <v>873</v>
       </c>
+      <c r="G9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="5">
+        <v>45509</v>
+      </c>
+      <c r="I9" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -10972,6 +11069,18 @@
       <c r="F10" t="s">
         <v>874</v>
       </c>
+      <c r="G10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="5">
+        <v>45509</v>
+      </c>
+      <c r="I10" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -10988,6 +11097,18 @@
       </c>
       <c r="F11" t="s">
         <v>876</v>
+      </c>
+      <c r="G11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="5">
+        <v>45509</v>
+      </c>
+      <c r="I11" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -11000,8 +11121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD5072D5-1B9D-4154-9150-378F66C578E7}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -11012,6 +11133,7 @@
     <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="53.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="51.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -11068,6 +11190,18 @@
       <c r="F2" t="s">
         <v>896</v>
       </c>
+      <c r="G2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="5">
+        <v>45509</v>
+      </c>
+      <c r="I2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -11088,6 +11222,18 @@
       <c r="F3" t="s">
         <v>896</v>
       </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="5">
+        <v>45509</v>
+      </c>
+      <c r="I3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -11108,6 +11254,18 @@
       <c r="F4" t="s">
         <v>896</v>
       </c>
+      <c r="G4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="5">
+        <v>45509</v>
+      </c>
+      <c r="I4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -11128,6 +11286,18 @@
       <c r="F5" t="s">
         <v>896</v>
       </c>
+      <c r="G5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="5">
+        <v>45509</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -11148,6 +11318,18 @@
       <c r="F6" t="s">
         <v>896</v>
       </c>
+      <c r="G6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="5">
+        <v>45509</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -11168,6 +11350,18 @@
       <c r="F7" t="s">
         <v>897</v>
       </c>
+      <c r="G7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="5">
+        <v>45509</v>
+      </c>
+      <c r="I7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -11188,6 +11382,18 @@
       <c r="F8" t="s">
         <v>898</v>
       </c>
+      <c r="G8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="5">
+        <v>45509</v>
+      </c>
+      <c r="I8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -11205,6 +11411,18 @@
       <c r="F9" t="s">
         <v>899</v>
       </c>
+      <c r="G9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="5">
+        <v>45509</v>
+      </c>
+      <c r="I9" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="26.4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -11221,6 +11439,18 @@
       </c>
       <c r="F10" t="s">
         <v>911</v>
+      </c>
+      <c r="G10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="5">
+        <v>45509</v>
+      </c>
+      <c r="I10" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
